--- a/Data/marketmomentum.xlsx
+++ b/Data/marketmomentum.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>44536.35170128911</v>
+        <v>44536.35170128472</v>
       </c>
       <c r="C31" t="n">
         <v>5983</v>
@@ -1537,6 +1537,111 @@
       </c>
       <c r="K31" t="n">
         <v>-3358</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>44537.34204623842</v>
+      </c>
+      <c r="C32" t="n">
+        <v>6750</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1403</v>
+      </c>
+      <c r="E32" t="n">
+        <v>5347</v>
+      </c>
+      <c r="F32" t="n">
+        <v>168</v>
+      </c>
+      <c r="G32" t="n">
+        <v>75</v>
+      </c>
+      <c r="H32" t="n">
+        <v>93</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3268</v>
+      </c>
+      <c r="J32" t="n">
+        <v>5160</v>
+      </c>
+      <c r="K32" t="n">
+        <v>-1892</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>44538.51368725694</v>
+      </c>
+      <c r="C33" t="n">
+        <v>5523</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2569</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2954</v>
+      </c>
+      <c r="F33" t="n">
+        <v>160</v>
+      </c>
+      <c r="G33" t="n">
+        <v>79</v>
+      </c>
+      <c r="H33" t="n">
+        <v>81</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3469</v>
+      </c>
+      <c r="J33" t="n">
+        <v>4959</v>
+      </c>
+      <c r="K33" t="n">
+        <v>-1490</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>44539.34259184009</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1508</v>
+      </c>
+      <c r="D34" t="n">
+        <v>6613</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-5105</v>
+      </c>
+      <c r="F34" t="n">
+        <v>97</v>
+      </c>
+      <c r="G34" t="n">
+        <v>99</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2883</v>
+      </c>
+      <c r="J34" t="n">
+        <v>5545</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-2662</v>
       </c>
     </row>
   </sheetData>

--- a/Data/marketmomentum.xlsx
+++ b/Data/marketmomentum.xlsx
@@ -1,40 +1,78 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>advancing</t>
+  </si>
+  <si>
+    <t>declining</t>
+  </si>
+  <si>
+    <t>addiff</t>
+  </si>
+  <si>
+    <t>highs</t>
+  </si>
+  <si>
+    <t>lows</t>
+  </si>
+  <si>
+    <t>hldiff</t>
+  </si>
+  <si>
+    <t>above50</t>
+  </si>
+  <si>
+    <t>below50</t>
+  </si>
+  <si>
+    <t>abdiff</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,94 +87,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -424,1227 +404,1236 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>advancing</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>declining</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>addiff</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>highs</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>lows</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>hldiff</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>above50</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>below50</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>abdiff</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:11">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
         <v>44491</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>3800</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>4215</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>-415</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>570</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>204</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>366</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>4724</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>3628</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>1096</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="2">
         <v>44494</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>5281</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>2805</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>2476</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>739</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>140</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>599</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>4957</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>3411</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>1546</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="2">
         <v>44495</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>3393</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>4647</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>-1254</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>694</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>141</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>553</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>4900</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>3469</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>1431</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="2">
         <v>44496.32727542824</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>1928</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>6141</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>-4213</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>204</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>170</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>34</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>4364</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>4005</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>359</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="2">
         <v>44497.39635795139</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>5952</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>2089</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>3863</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>313</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>146</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>167</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>4833</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>3544</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>1289</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="2">
         <v>44498.38242039352</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>3602</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>4423</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>-821</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>424</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>137</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>287</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>4677</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>3700</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>977</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="2">
         <v>44501.34745335648</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>6210</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>1904</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>4306</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>715</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>101</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>614</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>5281</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>3089</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>2192</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="2">
         <v>44502.34450280092</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>3935</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>4118</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>-183</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>759</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>113</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>646</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>5167</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>3203</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>1964</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="2">
         <v>44503.31491887732</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>5654</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>2372</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>3282</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>986</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>92</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>894</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>5447</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>2923</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>2524</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="2">
         <v>44504.34310040509</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>3537</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>4526</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>-989</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>985</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>90</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>895</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>5322</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>3057</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>2265</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="2">
         <v>44505.34596392361</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>5172</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>2886</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>2286</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>1156</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>139</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>1017</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>5635</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>2744</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12">
         <v>2891</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="2">
         <v>44508.41778773148</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>4619</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>3420</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>1199</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>847</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>90</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>757</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>5720</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>2657</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13">
         <v>3063</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:11">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="2">
         <v>44509.41014563658</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>3487</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>4524</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>-1037</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>415</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>93</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>322</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>5675</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>2702</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14">
         <v>2973</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:11">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B15" s="2">
         <v>44510.35686868055</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>2154</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>5916</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>-3762</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>252</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>161</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>91</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>5209</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>3168</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15">
         <v>2041</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:11">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="B16" s="2">
         <v>44512.34431009259</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>4691</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>3350</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>1341</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>382</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>121</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>261</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>5447</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>2942</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16">
         <v>2505</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:11">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="n">
+      <c r="B17" s="2">
         <v>44515.31699525463</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>3356</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>4731</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>-1375</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>467</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>178</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>289</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>5356</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>3041</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17">
         <v>2315</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:11">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="n">
+      <c r="B18" s="2">
         <v>44516.39541506945</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>3664</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>4373</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>-709</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>560</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>276</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>284</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>5243</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18">
         <v>3156</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18">
         <v>2087</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:11">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="n">
+      <c r="B19" s="2">
         <v>44517.36899303241</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>2312</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>5789</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>-3477</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>266</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>325</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>-59</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
         <v>4951</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19">
         <v>3448</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19">
         <v>1503</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:11">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="n">
+      <c r="B20" s="2">
         <v>44518.37329525463</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>2669</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>5409</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>-2740</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>283</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>502</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>-219</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20">
         <v>4639</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20">
         <v>3765</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20">
         <v>874</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:11">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="n">
+      <c r="B21" s="2">
         <v>44519.38869476852</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>2533</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>5552</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>-3019</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>291</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>426</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>-135</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
         <v>4311</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21">
         <v>4093</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21">
         <v>218</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:11">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="2" t="n">
+      <c r="B22" s="2">
         <v>44522.34680422454</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>3137</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>5013</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>-1876</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>467</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>715</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>-248</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22">
         <v>4143</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22">
         <v>4270</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22">
         <v>-127</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:11">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="2" t="n">
+      <c r="B23" s="2">
         <v>44523.32231409722</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>3611</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>4498</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>-887</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>131</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>712</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
         <v>-581</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23">
         <v>4056</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23">
         <v>4357</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K23">
         <v>-301</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:11">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="2" t="n">
+      <c r="B24" s="2">
         <v>44524.3977200463</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>4602</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>3459</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>1143</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>142</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>382</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
         <v>-240</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24">
         <v>4108</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J24">
         <v>4305</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K24">
         <v>-197</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:11">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="2" t="n">
+      <c r="B25" s="2">
         <v>44526.35256924768</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>1256</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>6876</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>-5620</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>34</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>562</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
         <v>-528</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25">
         <v>3144</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J25">
         <v>5269</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K25">
         <v>-2125</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:11">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="2" t="n">
+      <c r="B26" s="2">
         <v>44529.39455379629</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>4129</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>4006</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>123</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>61</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>444</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
         <v>-383</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26">
         <v>3132</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J26">
         <v>5281</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K26">
         <v>-2149</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:11">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="2" t="n">
+      <c r="B27" s="2">
         <v>44530.40994409722</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>1788</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>6360</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>-4572</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>46</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>887</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
         <v>-841</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I27">
         <v>2419</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J27">
         <v>5994</v>
       </c>
-      <c r="K27" t="n">
+      <c r="K27">
         <v>-3575</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:11">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="2" t="n">
+      <c r="B28" s="2">
         <v>44531.38076332176</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>1670</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>6492</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>-4822</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>73</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>824</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
         <v>-751</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28">
         <v>1940</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J28">
         <v>6473</v>
       </c>
-      <c r="K28" t="n">
+      <c r="K28">
         <v>-4533</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:11">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="2" t="n">
+      <c r="B29" s="2">
         <v>44532.33020797453</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>6014</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>2118</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>3896</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>24</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>816</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
         <v>-792</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I29">
         <v>2476</v>
       </c>
-      <c r="J29" t="n">
+      <c r="J29">
         <v>5956</v>
       </c>
-      <c r="K29" t="n">
+      <c r="K29">
         <v>-3480</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:11">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="2" t="n">
+      <c r="B30" s="2">
         <v>44533.73936934028</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>1854</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>6270</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>-4416</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>40</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>961</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
         <v>-921</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I30">
         <v>2075</v>
       </c>
-      <c r="J30" t="n">
+      <c r="J30">
         <v>6357</v>
       </c>
-      <c r="K30" t="n">
+      <c r="K30">
         <v>-4282</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:11">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="2" t="n">
+      <c r="B31" s="2">
         <v>44536.35170128472</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>5983</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>2187</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>3796</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>82</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>785</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
         <v>-703</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I31">
         <v>2535</v>
       </c>
-      <c r="J31" t="n">
+      <c r="J31">
         <v>5893</v>
       </c>
-      <c r="K31" t="n">
+      <c r="K31">
         <v>-3358</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:11">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="2" t="n">
+      <c r="B32" s="2">
         <v>44537.34204623842</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>6750</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>1403</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>5347</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>168</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>75</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
         <v>93</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I32">
         <v>3268</v>
       </c>
-      <c r="J32" t="n">
+      <c r="J32">
         <v>5160</v>
       </c>
-      <c r="K32" t="n">
+      <c r="K32">
         <v>-1892</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:11">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="2" t="n">
+      <c r="B33" s="2">
         <v>44538.51368725694</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>5523</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>2569</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>2954</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>160</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>79</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
         <v>81</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I33">
         <v>3469</v>
       </c>
-      <c r="J33" t="n">
+      <c r="J33">
         <v>4959</v>
       </c>
-      <c r="K33" t="n">
+      <c r="K33">
         <v>-1490</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:11">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="2" t="n">
-        <v>44539.34259184009</v>
-      </c>
-      <c r="C34" t="n">
+      <c r="B34" s="2">
+        <v>44539.34259184028</v>
+      </c>
+      <c r="C34">
         <v>1508</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>6613</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>-5105</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>97</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>99</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
         <v>-2</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I34">
         <v>2883</v>
       </c>
-      <c r="J34" t="n">
+      <c r="J34">
         <v>5545</v>
       </c>
-      <c r="K34" t="n">
+      <c r="K34">
         <v>-2662</v>
       </c>
     </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2">
+        <v>44540.7086822951</v>
+      </c>
+      <c r="C35">
+        <v>4044</v>
+      </c>
+      <c r="D35">
+        <v>4018</v>
+      </c>
+      <c r="E35">
+        <v>26</v>
+      </c>
+      <c r="F35">
+        <v>134</v>
+      </c>
+      <c r="G35">
+        <v>186</v>
+      </c>
+      <c r="H35">
+        <v>-52</v>
+      </c>
+      <c r="I35">
+        <v>2918</v>
+      </c>
+      <c r="J35">
+        <v>5510</v>
+      </c>
+      <c r="K35">
+        <v>-2592</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/marketmomentum.xlsx
+++ b/Data/marketmomentum.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1684,7 +1684,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>44543.36199491865</v>
+        <v>44543.36199491898</v>
       </c>
       <c r="C36" t="n">
         <v>2150</v>
@@ -1712,6 +1712,41 @@
       </c>
       <c r="K36" t="n">
         <v>-3406</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>44544.36404478672</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2044</v>
+      </c>
+      <c r="D37" t="n">
+        <v>6072</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-4028</v>
+      </c>
+      <c r="F37" t="n">
+        <v>45</v>
+      </c>
+      <c r="G37" t="n">
+        <v>581</v>
+      </c>
+      <c r="H37" t="n">
+        <v>-536</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2217</v>
+      </c>
+      <c r="J37" t="n">
+        <v>6226</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-4009</v>
       </c>
     </row>
   </sheetData>

--- a/Data/marketmomentum.xlsx
+++ b/Data/marketmomentum.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1719,7 +1719,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>44544.36404478672</v>
+        <v>44544.36404479167</v>
       </c>
       <c r="C37" t="n">
         <v>2044</v>
@@ -1747,6 +1747,41 @@
       </c>
       <c r="K37" t="n">
         <v>-4009</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>44545.37888293463</v>
+      </c>
+      <c r="C38" t="n">
+        <v>5680</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2427</v>
+      </c>
+      <c r="E38" t="n">
+        <v>3253</v>
+      </c>
+      <c r="F38" t="n">
+        <v>174</v>
+      </c>
+      <c r="G38" t="n">
+        <v>860</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-686</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2550</v>
+      </c>
+      <c r="J38" t="n">
+        <v>5893</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-3343</v>
       </c>
     </row>
   </sheetData>

--- a/Data/marketmomentum.xlsx
+++ b/Data/marketmomentum.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1754,7 +1754,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>44545.37888293463</v>
+        <v>44545.37888293982</v>
       </c>
       <c r="C38" t="n">
         <v>5680</v>
@@ -1782,6 +1782,111 @@
       </c>
       <c r="K38" t="n">
         <v>-3343</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>44546.39054237268</v>
+      </c>
+      <c r="C39" t="n">
+        <v>3045</v>
+      </c>
+      <c r="D39" t="n">
+        <v>5098</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-2053</v>
+      </c>
+      <c r="F39" t="n">
+        <v>285</v>
+      </c>
+      <c r="G39" t="n">
+        <v>244</v>
+      </c>
+      <c r="H39" t="n">
+        <v>41</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2371</v>
+      </c>
+      <c r="J39" t="n">
+        <v>6073</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-3702</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>44547.60768001158</v>
+      </c>
+      <c r="C40" t="n">
+        <v>3717</v>
+      </c>
+      <c r="D40" t="n">
+        <v>4393</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-676</v>
+      </c>
+      <c r="F40" t="n">
+        <v>82</v>
+      </c>
+      <c r="G40" t="n">
+        <v>561</v>
+      </c>
+      <c r="H40" t="n">
+        <v>-479</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2206</v>
+      </c>
+      <c r="J40" t="n">
+        <v>6238</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-4032</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>44550.35789284758</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1669</v>
+      </c>
+      <c r="D41" t="n">
+        <v>6480</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-4811</v>
+      </c>
+      <c r="F41" t="n">
+        <v>29</v>
+      </c>
+      <c r="G41" t="n">
+        <v>640</v>
+      </c>
+      <c r="H41" t="n">
+        <v>-611</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1710</v>
+      </c>
+      <c r="J41" t="n">
+        <v>6726</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-5016</v>
       </c>
     </row>
   </sheetData>

--- a/Data/marketmomentum.xlsx
+++ b/Data/marketmomentum.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1859,7 +1859,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>44550.35789284758</v>
+        <v>44550.35789284722</v>
       </c>
       <c r="C41" t="n">
         <v>1669</v>
@@ -1887,6 +1887,146 @@
       </c>
       <c r="K41" t="n">
         <v>-5016</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>44551.3291940162</v>
+      </c>
+      <c r="C42" t="n">
+        <v>6625</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1468</v>
+      </c>
+      <c r="E42" t="n">
+        <v>5157</v>
+      </c>
+      <c r="F42" t="n">
+        <v>67</v>
+      </c>
+      <c r="G42" t="n">
+        <v>166</v>
+      </c>
+      <c r="H42" t="n">
+        <v>-99</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2355</v>
+      </c>
+      <c r="J42" t="n">
+        <v>6081</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-3726</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>44552.4115341088</v>
+      </c>
+      <c r="C43" t="n">
+        <v>5866</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2214</v>
+      </c>
+      <c r="E43" t="n">
+        <v>3652</v>
+      </c>
+      <c r="F43" t="n">
+        <v>111</v>
+      </c>
+      <c r="G43" t="n">
+        <v>128</v>
+      </c>
+      <c r="H43" t="n">
+        <v>-17</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2714</v>
+      </c>
+      <c r="J43" t="n">
+        <v>5722</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-3008</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>44553.39582753472</v>
+      </c>
+      <c r="C44" t="n">
+        <v>5948</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2155</v>
+      </c>
+      <c r="E44" t="n">
+        <v>3793</v>
+      </c>
+      <c r="F44" t="n">
+        <v>222</v>
+      </c>
+      <c r="G44" t="n">
+        <v>105</v>
+      </c>
+      <c r="H44" t="n">
+        <v>117</v>
+      </c>
+      <c r="I44" t="n">
+        <v>3033</v>
+      </c>
+      <c r="J44" t="n">
+        <v>5406</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-2373</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>44557.43113410591</v>
+      </c>
+      <c r="C45" t="n">
+        <v>5316</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2814</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2502</v>
+      </c>
+      <c r="F45" t="n">
+        <v>468</v>
+      </c>
+      <c r="G45" t="n">
+        <v>182</v>
+      </c>
+      <c r="H45" t="n">
+        <v>286</v>
+      </c>
+      <c r="I45" t="n">
+        <v>3426</v>
+      </c>
+      <c r="J45" t="n">
+        <v>5004</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-1578</v>
       </c>
     </row>
   </sheetData>

--- a/Data/marketmomentum.xlsx
+++ b/Data/marketmomentum.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1999,7 +1999,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>44557.43113410591</v>
+        <v>44557.4311341088</v>
       </c>
       <c r="C45" t="n">
         <v>5316</v>
@@ -2027,6 +2027,111 @@
       </c>
       <c r="K45" t="n">
         <v>-1578</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>44558.45346303241</v>
+      </c>
+      <c r="C46" t="n">
+        <v>3146</v>
+      </c>
+      <c r="D46" t="n">
+        <v>4929</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-1783</v>
+      </c>
+      <c r="F46" t="n">
+        <v>559</v>
+      </c>
+      <c r="G46" t="n">
+        <v>311</v>
+      </c>
+      <c r="H46" t="n">
+        <v>248</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3390</v>
+      </c>
+      <c r="J46" t="n">
+        <v>5041</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-1651</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>44559.43552010417</v>
+      </c>
+      <c r="C47" t="n">
+        <v>3864</v>
+      </c>
+      <c r="D47" t="n">
+        <v>4222</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-358</v>
+      </c>
+      <c r="F47" t="n">
+        <v>420</v>
+      </c>
+      <c r="G47" t="n">
+        <v>488</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-68</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3351</v>
+      </c>
+      <c r="J47" t="n">
+        <v>5082</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-1731</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>44560.38234919042</v>
+      </c>
+      <c r="C48" t="n">
+        <v>4324</v>
+      </c>
+      <c r="D48" t="n">
+        <v>3769</v>
+      </c>
+      <c r="E48" t="n">
+        <v>555</v>
+      </c>
+      <c r="F48" t="n">
+        <v>444</v>
+      </c>
+      <c r="G48" t="n">
+        <v>194</v>
+      </c>
+      <c r="H48" t="n">
+        <v>250</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3378</v>
+      </c>
+      <c r="J48" t="n">
+        <v>5055</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-1677</v>
       </c>
     </row>
   </sheetData>

--- a/Data/marketmomentum.xlsx
+++ b/Data/marketmomentum.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2104,7 +2104,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>44560.38234919042</v>
+        <v>44560.38234918981</v>
       </c>
       <c r="C48" t="n">
         <v>4324</v>
@@ -2132,6 +2132,41 @@
       </c>
       <c r="K48" t="n">
         <v>-1677</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>44561.43895152073</v>
+      </c>
+      <c r="C49" t="n">
+        <v>3919</v>
+      </c>
+      <c r="D49" t="n">
+        <v>4148</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-229</v>
+      </c>
+      <c r="F49" t="n">
+        <v>246</v>
+      </c>
+      <c r="G49" t="n">
+        <v>158</v>
+      </c>
+      <c r="H49" t="n">
+        <v>88</v>
+      </c>
+      <c r="I49" t="n">
+        <v>3436</v>
+      </c>
+      <c r="J49" t="n">
+        <v>4997</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-1561</v>
       </c>
     </row>
   </sheetData>

--- a/Data/marketmomentum.xlsx
+++ b/Data/marketmomentum.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2139,7 +2139,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>44561.43895152073</v>
+        <v>44561.4389515162</v>
       </c>
       <c r="C49" t="n">
         <v>3919</v>
@@ -2167,6 +2167,76 @@
       </c>
       <c r="K49" t="n">
         <v>-1561</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>44564.34829358797</v>
+      </c>
+      <c r="C50" t="n">
+        <v>5459</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2711</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2748</v>
+      </c>
+      <c r="F50" t="n">
+        <v>240</v>
+      </c>
+      <c r="G50" t="n">
+        <v>103</v>
+      </c>
+      <c r="H50" t="n">
+        <v>137</v>
+      </c>
+      <c r="I50" t="n">
+        <v>3838</v>
+      </c>
+      <c r="J50" t="n">
+        <v>4595</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-757</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>44565.3510210414</v>
+      </c>
+      <c r="C51" t="n">
+        <v>4007</v>
+      </c>
+      <c r="D51" t="n">
+        <v>4110</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-103</v>
+      </c>
+      <c r="F51" t="n">
+        <v>453</v>
+      </c>
+      <c r="G51" t="n">
+        <v>216</v>
+      </c>
+      <c r="H51" t="n">
+        <v>237</v>
+      </c>
+      <c r="I51" t="n">
+        <v>3990</v>
+      </c>
+      <c r="J51" t="n">
+        <v>4436</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-446</v>
       </c>
     </row>
   </sheetData>

--- a/Data/marketmomentum.xlsx
+++ b/Data/marketmomentum.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2209,7 +2209,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>44565.3510210414</v>
+        <v>44565.35102104166</v>
       </c>
       <c r="C51" t="n">
         <v>4007</v>
@@ -2237,6 +2237,76 @@
       </c>
       <c r="K51" t="n">
         <v>-446</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>44566.37143184028</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1237</v>
+      </c>
+      <c r="D52" t="n">
+        <v>6917</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-5680</v>
+      </c>
+      <c r="F52" t="n">
+        <v>349</v>
+      </c>
+      <c r="G52" t="n">
+        <v>543</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-194</v>
+      </c>
+      <c r="I52" t="n">
+        <v>3187</v>
+      </c>
+      <c r="J52" t="n">
+        <v>5239</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-2052</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>44567.35282760601</v>
+      </c>
+      <c r="C53" t="n">
+        <v>4006</v>
+      </c>
+      <c r="D53" t="n">
+        <v>4085</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-79</v>
+      </c>
+      <c r="F53" t="n">
+        <v>145</v>
+      </c>
+      <c r="G53" t="n">
+        <v>822</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-677</v>
+      </c>
+      <c r="I53" t="n">
+        <v>3213</v>
+      </c>
+      <c r="J53" t="n">
+        <v>5213</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-2000</v>
       </c>
     </row>
   </sheetData>

--- a/Data/marketmomentum.xlsx
+++ b/Data/marketmomentum.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2279,7 +2279,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>44567.35282760601</v>
+        <v>44567.35282760417</v>
       </c>
       <c r="C53" t="n">
         <v>4006</v>
@@ -2307,6 +2307,41 @@
       </c>
       <c r="K53" t="n">
         <v>-2000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>44568.51203725383</v>
+      </c>
+      <c r="C54" t="n">
+        <v>3608</v>
+      </c>
+      <c r="D54" t="n">
+        <v>4430</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-822</v>
+      </c>
+      <c r="F54" t="n">
+        <v>215</v>
+      </c>
+      <c r="G54" t="n">
+        <v>447</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-232</v>
+      </c>
+      <c r="I54" t="n">
+        <v>3129</v>
+      </c>
+      <c r="J54" t="n">
+        <v>5297</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-2168</v>
       </c>
     </row>
   </sheetData>

--- a/Data/marketmomentum.xlsx
+++ b/Data/marketmomentum.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2314,7 +2314,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>44568.51203725383</v>
+        <v>44568.51203725694</v>
       </c>
       <c r="C54" t="n">
         <v>3608</v>
@@ -2342,6 +2342,146 @@
       </c>
       <c r="K54" t="n">
         <v>-2168</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>44571.34912231482</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2724</v>
+      </c>
+      <c r="D55" t="n">
+        <v>5508</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-2784</v>
+      </c>
+      <c r="F55" t="n">
+        <v>202</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1005</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-803</v>
+      </c>
+      <c r="I55" t="n">
+        <v>2942</v>
+      </c>
+      <c r="J55" t="n">
+        <v>5650</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-2708</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>44572.34881621528</v>
+      </c>
+      <c r="C56" t="n">
+        <v>6243</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1985</v>
+      </c>
+      <c r="E56" t="n">
+        <v>4258</v>
+      </c>
+      <c r="F56" t="n">
+        <v>186</v>
+      </c>
+      <c r="G56" t="n">
+        <v>212</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-26</v>
+      </c>
+      <c r="I56" t="n">
+        <v>3382</v>
+      </c>
+      <c r="J56" t="n">
+        <v>5210</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-1828</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>44573.34207251157</v>
+      </c>
+      <c r="C57" t="n">
+        <v>4088</v>
+      </c>
+      <c r="D57" t="n">
+        <v>4109</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-21</v>
+      </c>
+      <c r="F57" t="n">
+        <v>296</v>
+      </c>
+      <c r="G57" t="n">
+        <v>176</v>
+      </c>
+      <c r="H57" t="n">
+        <v>120</v>
+      </c>
+      <c r="I57" t="n">
+        <v>3485</v>
+      </c>
+      <c r="J57" t="n">
+        <v>5107</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-1622</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>44574.34580534686</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2654</v>
+      </c>
+      <c r="D58" t="n">
+        <v>5588</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-2934</v>
+      </c>
+      <c r="F58" t="n">
+        <v>335</v>
+      </c>
+      <c r="G58" t="n">
+        <v>463</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-128</v>
+      </c>
+      <c r="I58" t="n">
+        <v>3231</v>
+      </c>
+      <c r="J58" t="n">
+        <v>5367</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-2136</v>
       </c>
     </row>
   </sheetData>

--- a/Data/marketmomentum.xlsx
+++ b/Data/marketmomentum.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2454,7 +2454,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>44574.34580534686</v>
+        <v>44574.34580534722</v>
       </c>
       <c r="C58" t="n">
         <v>2654</v>
@@ -2482,6 +2482,41 @@
       </c>
       <c r="K58" t="n">
         <v>-2136</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>44575.50548902571</v>
+      </c>
+      <c r="C59" t="n">
+        <v>3713</v>
+      </c>
+      <c r="D59" t="n">
+        <v>4487</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-774</v>
+      </c>
+      <c r="F59" t="n">
+        <v>213</v>
+      </c>
+      <c r="G59" t="n">
+        <v>840</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-627</v>
+      </c>
+      <c r="I59" t="n">
+        <v>3169</v>
+      </c>
+      <c r="J59" t="n">
+        <v>5429</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-2260</v>
       </c>
     </row>
   </sheetData>

--- a/Data/marketmomentum.xlsx
+++ b/Data/marketmomentum.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:K62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2489,7 +2489,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>44575.50548902571</v>
+        <v>44575.50548902778</v>
       </c>
       <c r="C59" t="n">
         <v>3713</v>
@@ -2517,6 +2517,111 @@
       </c>
       <c r="K59" t="n">
         <v>-2260</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>44579.34822121528</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1218</v>
+      </c>
+      <c r="D60" t="n">
+        <v>7082</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-5864</v>
+      </c>
+      <c r="F60" t="n">
+        <v>216</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1154</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-938</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2545</v>
+      </c>
+      <c r="J60" t="n">
+        <v>6051</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-3506</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>44580.34558532407</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2538</v>
+      </c>
+      <c r="D61" t="n">
+        <v>5702</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-3164</v>
+      </c>
+      <c r="F61" t="n">
+        <v>108</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1033</v>
+      </c>
+      <c r="H61" t="n">
+        <v>-925</v>
+      </c>
+      <c r="I61" t="n">
+        <v>2343</v>
+      </c>
+      <c r="J61" t="n">
+        <v>6253</v>
+      </c>
+      <c r="K61" t="n">
+        <v>-3910</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>44581.37797462037</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1956</v>
+      </c>
+      <c r="D62" t="n">
+        <v>6281</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-4325</v>
+      </c>
+      <c r="F62" t="n">
+        <v>73</v>
+      </c>
+      <c r="G62" t="n">
+        <v>903</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-830</v>
+      </c>
+      <c r="I62" t="n">
+        <v>2033</v>
+      </c>
+      <c r="J62" t="n">
+        <v>6563</v>
+      </c>
+      <c r="K62" t="n">
+        <v>-4530</v>
       </c>
     </row>
   </sheetData>

--- a/Data/marketmomentum.xlsx
+++ b/Data/marketmomentum.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K62"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2594,7 +2594,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>44581.37797462037</v>
+        <v>44581.37797461806</v>
       </c>
       <c r="C62" t="n">
         <v>1956</v>
@@ -2622,6 +2622,41 @@
       </c>
       <c r="K62" t="n">
         <v>-4530</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>44582.55874290292</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1422</v>
+      </c>
+      <c r="D63" t="n">
+        <v>6922</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-5500</v>
+      </c>
+      <c r="F63" t="n">
+        <v>22</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1691</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-1669</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1590</v>
+      </c>
+      <c r="J63" t="n">
+        <v>7006</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-5416</v>
       </c>
     </row>
   </sheetData>

--- a/Data/marketmomentum.xlsx
+++ b/Data/marketmomentum.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2629,7 +2629,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>44582.55874290292</v>
+        <v>44582.55874290509</v>
       </c>
       <c r="C63" t="n">
         <v>1422</v>
@@ -2657,6 +2657,76 @@
       </c>
       <c r="K63" t="n">
         <v>-5416</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>44585.33905521991</v>
+      </c>
+      <c r="C64" t="n">
+        <v>4259</v>
+      </c>
+      <c r="D64" t="n">
+        <v>4075</v>
+      </c>
+      <c r="E64" t="n">
+        <v>184</v>
+      </c>
+      <c r="F64" t="n">
+        <v>24</v>
+      </c>
+      <c r="G64" t="n">
+        <v>2345</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-2321</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1569</v>
+      </c>
+      <c r="J64" t="n">
+        <v>7011</v>
+      </c>
+      <c r="K64" t="n">
+        <v>-5442</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>44586.33795281405</v>
+      </c>
+      <c r="C65" t="n">
+        <v>3088</v>
+      </c>
+      <c r="D65" t="n">
+        <v>5171</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-2083</v>
+      </c>
+      <c r="F65" t="n">
+        <v>31</v>
+      </c>
+      <c r="G65" t="n">
+        <v>280</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-249</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J65" t="n">
+        <v>6991</v>
+      </c>
+      <c r="K65" t="n">
+        <v>-5402</v>
       </c>
     </row>
   </sheetData>

--- a/Data/marketmomentum.xlsx
+++ b/Data/marketmomentum.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:K68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2699,7 +2699,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>44586.33795281405</v>
+        <v>44586.3379528125</v>
       </c>
       <c r="C65" t="n">
         <v>3088</v>
@@ -2727,6 +2727,111 @@
       </c>
       <c r="K65" t="n">
         <v>-5402</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>44587.32361883102</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2383</v>
+      </c>
+      <c r="D66" t="n">
+        <v>5881</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-3498</v>
+      </c>
+      <c r="F66" t="n">
+        <v>82</v>
+      </c>
+      <c r="G66" t="n">
+        <v>542</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-460</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1499</v>
+      </c>
+      <c r="J66" t="n">
+        <v>7081</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-5582</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>44588.40606255787</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1970</v>
+      </c>
+      <c r="D67" t="n">
+        <v>6335</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-4365</v>
+      </c>
+      <c r="F67" t="n">
+        <v>74</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1112</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-1038</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1335</v>
+      </c>
+      <c r="J67" t="n">
+        <v>7245</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-5910</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>44589.35466844417</v>
+      </c>
+      <c r="C68" t="n">
+        <v>6063</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2174</v>
+      </c>
+      <c r="E68" t="n">
+        <v>3889</v>
+      </c>
+      <c r="F68" t="n">
+        <v>46</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1514</v>
+      </c>
+      <c r="H68" t="n">
+        <v>-1468</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1504</v>
+      </c>
+      <c r="J68" t="n">
+        <v>7076</v>
+      </c>
+      <c r="K68" t="n">
+        <v>-5572</v>
       </c>
     </row>
   </sheetData>

--- a/Data/marketmomentum.xlsx
+++ b/Data/marketmomentum.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K68"/>
+  <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2804,7 +2804,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>44589.35466844417</v>
+        <v>44589.35466844907</v>
       </c>
       <c r="C68" t="n">
         <v>6063</v>
@@ -2832,6 +2832,41 @@
       </c>
       <c r="K68" t="n">
         <v>-5572</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>44592.35286337934</v>
+      </c>
+      <c r="C69" t="n">
+        <v>7142</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1143</v>
+      </c>
+      <c r="E69" t="n">
+        <v>5999</v>
+      </c>
+      <c r="F69" t="n">
+        <v>54</v>
+      </c>
+      <c r="G69" t="n">
+        <v>167</v>
+      </c>
+      <c r="H69" t="n">
+        <v>-113</v>
+      </c>
+      <c r="I69" t="n">
+        <v>1984</v>
+      </c>
+      <c r="J69" t="n">
+        <v>6597</v>
+      </c>
+      <c r="K69" t="n">
+        <v>-4613</v>
       </c>
     </row>
   </sheetData>

--- a/Data/marketmomentum.xlsx
+++ b/Data/marketmomentum.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K69"/>
+  <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2839,7 +2839,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>44592.35286337934</v>
+        <v>44592.35286337963</v>
       </c>
       <c r="C69" t="n">
         <v>7142</v>
@@ -2867,6 +2867,41 @@
       </c>
       <c r="K69" t="n">
         <v>-4613</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>44593.45125046625</v>
+      </c>
+      <c r="C70" t="n">
+        <v>6265</v>
+      </c>
+      <c r="D70" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E70" t="n">
+        <v>4259</v>
+      </c>
+      <c r="F70" t="n">
+        <v>130</v>
+      </c>
+      <c r="G70" t="n">
+        <v>109</v>
+      </c>
+      <c r="H70" t="n">
+        <v>21</v>
+      </c>
+      <c r="I70" t="n">
+        <v>2359</v>
+      </c>
+      <c r="J70" t="n">
+        <v>6222</v>
+      </c>
+      <c r="K70" t="n">
+        <v>-3863</v>
       </c>
     </row>
   </sheetData>

--- a/Data/marketmomentum.xlsx
+++ b/Data/marketmomentum.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K70"/>
+  <dimension ref="A1:K74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2874,7 +2874,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>44593.45125046625</v>
+        <v>44593.45125046296</v>
       </c>
       <c r="C70" t="n">
         <v>6265</v>
@@ -2902,6 +2902,146 @@
       </c>
       <c r="K70" t="n">
         <v>-3863</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>44594.3423778125</v>
+      </c>
+      <c r="C71" t="n">
+        <v>3757</v>
+      </c>
+      <c r="D71" t="n">
+        <v>4476</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-719</v>
+      </c>
+      <c r="F71" t="n">
+        <v>158</v>
+      </c>
+      <c r="G71" t="n">
+        <v>95</v>
+      </c>
+      <c r="H71" t="n">
+        <v>63</v>
+      </c>
+      <c r="I71" t="n">
+        <v>2425</v>
+      </c>
+      <c r="J71" t="n">
+        <v>6156</v>
+      </c>
+      <c r="K71" t="n">
+        <v>-3731</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>44595.32776372685</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1350</v>
+      </c>
+      <c r="D72" t="n">
+        <v>6909</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-5559</v>
+      </c>
+      <c r="F72" t="n">
+        <v>95</v>
+      </c>
+      <c r="G72" t="n">
+        <v>295</v>
+      </c>
+      <c r="H72" t="n">
+        <v>-200</v>
+      </c>
+      <c r="I72" t="n">
+        <v>2036</v>
+      </c>
+      <c r="J72" t="n">
+        <v>6545</v>
+      </c>
+      <c r="K72" t="n">
+        <v>-4509</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>44596.38204256944</v>
+      </c>
+      <c r="C73" t="n">
+        <v>4836</v>
+      </c>
+      <c r="D73" t="n">
+        <v>3359</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1477</v>
+      </c>
+      <c r="F73" t="n">
+        <v>130</v>
+      </c>
+      <c r="G73" t="n">
+        <v>544</v>
+      </c>
+      <c r="H73" t="n">
+        <v>-414</v>
+      </c>
+      <c r="I73" t="n">
+        <v>2140</v>
+      </c>
+      <c r="J73" t="n">
+        <v>6441</v>
+      </c>
+      <c r="K73" t="n">
+        <v>-4301</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>44599.41646485024</v>
+      </c>
+      <c r="C74" t="n">
+        <v>4637</v>
+      </c>
+      <c r="D74" t="n">
+        <v>3548</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1089</v>
+      </c>
+      <c r="F74" t="n">
+        <v>103</v>
+      </c>
+      <c r="G74" t="n">
+        <v>258</v>
+      </c>
+      <c r="H74" t="n">
+        <v>-155</v>
+      </c>
+      <c r="I74" t="n">
+        <v>2292</v>
+      </c>
+      <c r="J74" t="n">
+        <v>6281</v>
+      </c>
+      <c r="K74" t="n">
+        <v>-3989</v>
       </c>
     </row>
   </sheetData>

--- a/Data/marketmomentum.xlsx
+++ b/Data/marketmomentum.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K74"/>
+  <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3014,7 +3014,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>44599.41646485024</v>
+        <v>44599.41646484954</v>
       </c>
       <c r="C74" t="n">
         <v>4637</v>
@@ -3042,6 +3042,76 @@
       </c>
       <c r="K74" t="n">
         <v>-3989</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>44600.3967803125</v>
+      </c>
+      <c r="C75" t="n">
+        <v>5581</v>
+      </c>
+      <c r="D75" t="n">
+        <v>2622</v>
+      </c>
+      <c r="E75" t="n">
+        <v>2959</v>
+      </c>
+      <c r="F75" t="n">
+        <v>124</v>
+      </c>
+      <c r="G75" t="n">
+        <v>309</v>
+      </c>
+      <c r="H75" t="n">
+        <v>-185</v>
+      </c>
+      <c r="I75" t="n">
+        <v>2649</v>
+      </c>
+      <c r="J75" t="n">
+        <v>5924</v>
+      </c>
+      <c r="K75" t="n">
+        <v>-3275</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>44601.38028433165</v>
+      </c>
+      <c r="C76" t="n">
+        <v>6418</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1788</v>
+      </c>
+      <c r="E76" t="n">
+        <v>4630</v>
+      </c>
+      <c r="F76" t="n">
+        <v>181</v>
+      </c>
+      <c r="G76" t="n">
+        <v>131</v>
+      </c>
+      <c r="H76" t="n">
+        <v>50</v>
+      </c>
+      <c r="I76" t="n">
+        <v>3171</v>
+      </c>
+      <c r="J76" t="n">
+        <v>5402</v>
+      </c>
+      <c r="K76" t="n">
+        <v>-2231</v>
       </c>
     </row>
   </sheetData>

--- a/Data/marketmomentum.xlsx
+++ b/Data/marketmomentum.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K76"/>
+  <dimension ref="A1:K80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3084,7 +3084,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>44601.38028433165</v>
+        <v>44601.3802843287</v>
       </c>
       <c r="C76" t="n">
         <v>6418</v>
@@ -3112,6 +3112,146 @@
       </c>
       <c r="K76" t="n">
         <v>-2231</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>44602.39486453704</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1885</v>
+      </c>
+      <c r="D77" t="n">
+        <v>6385</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-4500</v>
+      </c>
+      <c r="F77" t="n">
+        <v>194</v>
+      </c>
+      <c r="G77" t="n">
+        <v>486</v>
+      </c>
+      <c r="H77" t="n">
+        <v>-292</v>
+      </c>
+      <c r="I77" t="n">
+        <v>2779</v>
+      </c>
+      <c r="J77" t="n">
+        <v>5794</v>
+      </c>
+      <c r="K77" t="n">
+        <v>-3015</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>44603.32290997685</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2289</v>
+      </c>
+      <c r="D78" t="n">
+        <v>5936</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-3647</v>
+      </c>
+      <c r="F78" t="n">
+        <v>139</v>
+      </c>
+      <c r="G78" t="n">
+        <v>598</v>
+      </c>
+      <c r="H78" t="n">
+        <v>-459</v>
+      </c>
+      <c r="I78" t="n">
+        <v>2542</v>
+      </c>
+      <c r="J78" t="n">
+        <v>6035</v>
+      </c>
+      <c r="K78" t="n">
+        <v>-3493</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>44606.38058643518</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2207</v>
+      </c>
+      <c r="D79" t="n">
+        <v>6018</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-3811</v>
+      </c>
+      <c r="F79" t="n">
+        <v>61</v>
+      </c>
+      <c r="G79" t="n">
+        <v>677</v>
+      </c>
+      <c r="H79" t="n">
+        <v>-616</v>
+      </c>
+      <c r="I79" t="n">
+        <v>2319</v>
+      </c>
+      <c r="J79" t="n">
+        <v>6254</v>
+      </c>
+      <c r="K79" t="n">
+        <v>-3935</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>44607.36974143232</v>
+      </c>
+      <c r="C80" t="n">
+        <v>6717</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1534</v>
+      </c>
+      <c r="E80" t="n">
+        <v>5183</v>
+      </c>
+      <c r="F80" t="n">
+        <v>73</v>
+      </c>
+      <c r="G80" t="n">
+        <v>311</v>
+      </c>
+      <c r="H80" t="n">
+        <v>-238</v>
+      </c>
+      <c r="I80" t="n">
+        <v>2966</v>
+      </c>
+      <c r="J80" t="n">
+        <v>5607</v>
+      </c>
+      <c r="K80" t="n">
+        <v>-2641</v>
       </c>
     </row>
   </sheetData>

--- a/Data/marketmomentum.xlsx
+++ b/Data/marketmomentum.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K80"/>
+  <dimension ref="A1:K82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3224,7 +3224,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>44607.36974143232</v>
+        <v>44607.36974143518</v>
       </c>
       <c r="C80" t="n">
         <v>6717</v>
@@ -3252,6 +3252,76 @@
       </c>
       <c r="K80" t="n">
         <v>-2641</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>44608.39985342592</v>
+      </c>
+      <c r="C81" t="n">
+        <v>5003</v>
+      </c>
+      <c r="D81" t="n">
+        <v>3185</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1818</v>
+      </c>
+      <c r="F81" t="n">
+        <v>127</v>
+      </c>
+      <c r="G81" t="n">
+        <v>304</v>
+      </c>
+      <c r="H81" t="n">
+        <v>-177</v>
+      </c>
+      <c r="I81" t="n">
+        <v>3126</v>
+      </c>
+      <c r="J81" t="n">
+        <v>5447</v>
+      </c>
+      <c r="K81" t="n">
+        <v>-2321</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>44609.37823882189</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1663</v>
+      </c>
+      <c r="D82" t="n">
+        <v>6582</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-4919</v>
+      </c>
+      <c r="F82" t="n">
+        <v>45</v>
+      </c>
+      <c r="G82" t="n">
+        <v>354</v>
+      </c>
+      <c r="H82" t="n">
+        <v>-309</v>
+      </c>
+      <c r="I82" t="n">
+        <v>2605</v>
+      </c>
+      <c r="J82" t="n">
+        <v>5968</v>
+      </c>
+      <c r="K82" t="n">
+        <v>-3363</v>
       </c>
     </row>
   </sheetData>

--- a/Data/marketmomentum.xlsx
+++ b/Data/marketmomentum.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K82"/>
+  <dimension ref="A1:K87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3294,7 +3294,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>44609.37823882189</v>
+        <v>44609.37823881944</v>
       </c>
       <c r="C82" t="n">
         <v>1663</v>
@@ -3322,6 +3322,181 @@
       </c>
       <c r="K82" t="n">
         <v>-3363</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>44610.39972234954</v>
+      </c>
+      <c r="C83" t="n">
+        <v>2407</v>
+      </c>
+      <c r="D83" t="n">
+        <v>5756</v>
+      </c>
+      <c r="E83" t="n">
+        <v>-3349</v>
+      </c>
+      <c r="F83" t="n">
+        <v>46</v>
+      </c>
+      <c r="G83" t="n">
+        <v>554</v>
+      </c>
+      <c r="H83" t="n">
+        <v>-508</v>
+      </c>
+      <c r="I83" t="n">
+        <v>2409</v>
+      </c>
+      <c r="J83" t="n">
+        <v>6164</v>
+      </c>
+      <c r="K83" t="n">
+        <v>-3755</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>44614.34768446759</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1686</v>
+      </c>
+      <c r="D84" t="n">
+        <v>6594</v>
+      </c>
+      <c r="E84" t="n">
+        <v>-4908</v>
+      </c>
+      <c r="F84" t="n">
+        <v>77</v>
+      </c>
+      <c r="G84" t="n">
+        <v>947</v>
+      </c>
+      <c r="H84" t="n">
+        <v>-870</v>
+      </c>
+      <c r="I84" t="n">
+        <v>2052</v>
+      </c>
+      <c r="J84" t="n">
+        <v>6525</v>
+      </c>
+      <c r="K84" t="n">
+        <v>-4473</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>44615.36392350694</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1809</v>
+      </c>
+      <c r="D85" t="n">
+        <v>6386</v>
+      </c>
+      <c r="E85" t="n">
+        <v>-4577</v>
+      </c>
+      <c r="F85" t="n">
+        <v>71</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1123</v>
+      </c>
+      <c r="H85" t="n">
+        <v>-1052</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1841</v>
+      </c>
+      <c r="J85" t="n">
+        <v>6736</v>
+      </c>
+      <c r="K85" t="n">
+        <v>-4895</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>44616.42517129629</v>
+      </c>
+      <c r="C86" t="n">
+        <v>5172</v>
+      </c>
+      <c r="D86" t="n">
+        <v>3139</v>
+      </c>
+      <c r="E86" t="n">
+        <v>2033</v>
+      </c>
+      <c r="F86" t="n">
+        <v>96</v>
+      </c>
+      <c r="G86" t="n">
+        <v>2285</v>
+      </c>
+      <c r="H86" t="n">
+        <v>-2189</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1921</v>
+      </c>
+      <c r="J86" t="n">
+        <v>6656</v>
+      </c>
+      <c r="K86" t="n">
+        <v>-4735</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>44617.34194312734</v>
+      </c>
+      <c r="C87" t="n">
+        <v>6551</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1661</v>
+      </c>
+      <c r="E87" t="n">
+        <v>4890</v>
+      </c>
+      <c r="F87" t="n">
+        <v>88</v>
+      </c>
+      <c r="G87" t="n">
+        <v>122</v>
+      </c>
+      <c r="H87" t="n">
+        <v>-34</v>
+      </c>
+      <c r="I87" t="n">
+        <v>2536</v>
+      </c>
+      <c r="J87" t="n">
+        <v>6041</v>
+      </c>
+      <c r="K87" t="n">
+        <v>-3505</v>
       </c>
     </row>
   </sheetData>

--- a/Data/marketmomentum.xlsx
+++ b/Data/marketmomentum.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K87"/>
+  <dimension ref="A1:K96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3469,7 +3469,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>44617.34194312734</v>
+        <v>44617.341943125</v>
       </c>
       <c r="C87" t="n">
         <v>6551</v>
@@ -3497,6 +3497,321 @@
       </c>
       <c r="K87" t="n">
         <v>-3505</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>44620.33955344908</v>
+      </c>
+      <c r="C88" t="n">
+        <v>3987</v>
+      </c>
+      <c r="D88" t="n">
+        <v>4232</v>
+      </c>
+      <c r="E88" t="n">
+        <v>-245</v>
+      </c>
+      <c r="F88" t="n">
+        <v>141</v>
+      </c>
+      <c r="G88" t="n">
+        <v>164</v>
+      </c>
+      <c r="H88" t="n">
+        <v>-23</v>
+      </c>
+      <c r="I88" t="n">
+        <v>2529</v>
+      </c>
+      <c r="J88" t="n">
+        <v>6042</v>
+      </c>
+      <c r="K88" t="n">
+        <v>-3513</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>44621.34937418981</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2596</v>
+      </c>
+      <c r="D89" t="n">
+        <v>5647</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-3051</v>
+      </c>
+      <c r="F89" t="n">
+        <v>214</v>
+      </c>
+      <c r="G89" t="n">
+        <v>321</v>
+      </c>
+      <c r="H89" t="n">
+        <v>-107</v>
+      </c>
+      <c r="I89" t="n">
+        <v>2231</v>
+      </c>
+      <c r="J89" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K89" t="n">
+        <v>-4109</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>44622.43820824074</v>
+      </c>
+      <c r="C90" t="n">
+        <v>6019</v>
+      </c>
+      <c r="D90" t="n">
+        <v>2190</v>
+      </c>
+      <c r="E90" t="n">
+        <v>3829</v>
+      </c>
+      <c r="F90" t="n">
+        <v>258</v>
+      </c>
+      <c r="G90" t="n">
+        <v>231</v>
+      </c>
+      <c r="H90" t="n">
+        <v>27</v>
+      </c>
+      <c r="I90" t="n">
+        <v>2725</v>
+      </c>
+      <c r="J90" t="n">
+        <v>5846</v>
+      </c>
+      <c r="K90" t="n">
+        <v>-3121</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>44623.36671223379</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2718</v>
+      </c>
+      <c r="D91" t="n">
+        <v>5433</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-2715</v>
+      </c>
+      <c r="F91" t="n">
+        <v>215</v>
+      </c>
+      <c r="G91" t="n">
+        <v>414</v>
+      </c>
+      <c r="H91" t="n">
+        <v>-199</v>
+      </c>
+      <c r="I91" t="n">
+        <v>2611</v>
+      </c>
+      <c r="J91" t="n">
+        <v>5960</v>
+      </c>
+      <c r="K91" t="n">
+        <v>-3349</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>44624.39029635417</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2289</v>
+      </c>
+      <c r="D92" t="n">
+        <v>5902</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-3613</v>
+      </c>
+      <c r="F92" t="n">
+        <v>278</v>
+      </c>
+      <c r="G92" t="n">
+        <v>911</v>
+      </c>
+      <c r="H92" t="n">
+        <v>-633</v>
+      </c>
+      <c r="I92" t="n">
+        <v>2389</v>
+      </c>
+      <c r="J92" t="n">
+        <v>6182</v>
+      </c>
+      <c r="K92" t="n">
+        <v>-3793</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>44627.32911982639</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1781</v>
+      </c>
+      <c r="D93" t="n">
+        <v>6481</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-4700</v>
+      </c>
+      <c r="F93" t="n">
+        <v>363</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1481</v>
+      </c>
+      <c r="H93" t="n">
+        <v>-1118</v>
+      </c>
+      <c r="I93" t="n">
+        <v>2048</v>
+      </c>
+      <c r="J93" t="n">
+        <v>6516</v>
+      </c>
+      <c r="K93" t="n">
+        <v>-4468</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>44628.52345460648</v>
+      </c>
+      <c r="C94" t="n">
+        <v>4161</v>
+      </c>
+      <c r="D94" t="n">
+        <v>4017</v>
+      </c>
+      <c r="E94" t="n">
+        <v>144</v>
+      </c>
+      <c r="F94" t="n">
+        <v>250</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1436</v>
+      </c>
+      <c r="H94" t="n">
+        <v>-1186</v>
+      </c>
+      <c r="I94" t="n">
+        <v>2104</v>
+      </c>
+      <c r="J94" t="n">
+        <v>6460</v>
+      </c>
+      <c r="K94" t="n">
+        <v>-4356</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>44629.37360998843</v>
+      </c>
+      <c r="C95" t="n">
+        <v>6520</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1704</v>
+      </c>
+      <c r="E95" t="n">
+        <v>4816</v>
+      </c>
+      <c r="F95" t="n">
+        <v>48</v>
+      </c>
+      <c r="G95" t="n">
+        <v>204</v>
+      </c>
+      <c r="H95" t="n">
+        <v>-156</v>
+      </c>
+      <c r="I95" t="n">
+        <v>2460</v>
+      </c>
+      <c r="J95" t="n">
+        <v>6104</v>
+      </c>
+      <c r="K95" t="n">
+        <v>-3644</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>44630.36042526609</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2940</v>
+      </c>
+      <c r="D96" t="n">
+        <v>5208</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-2268</v>
+      </c>
+      <c r="F96" t="n">
+        <v>69</v>
+      </c>
+      <c r="G96" t="n">
+        <v>568</v>
+      </c>
+      <c r="H96" t="n">
+        <v>-499</v>
+      </c>
+      <c r="I96" t="n">
+        <v>2439</v>
+      </c>
+      <c r="J96" t="n">
+        <v>6125</v>
+      </c>
+      <c r="K96" t="n">
+        <v>-3686</v>
       </c>
     </row>
   </sheetData>

--- a/Data/marketmomentum.xlsx
+++ b/Data/marketmomentum.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K96"/>
+  <dimension ref="A1:K115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3784,7 +3784,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>44630.36042526609</v>
+        <v>44630.3604252662</v>
       </c>
       <c r="C96" t="n">
         <v>2940</v>
@@ -3812,6 +3812,671 @@
       </c>
       <c r="K96" t="n">
         <v>-3686</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>44631.34329800926</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1845</v>
+      </c>
+      <c r="D97" t="n">
+        <v>6345</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-4500</v>
+      </c>
+      <c r="F97" t="n">
+        <v>114</v>
+      </c>
+      <c r="G97" t="n">
+        <v>786</v>
+      </c>
+      <c r="H97" t="n">
+        <v>-672</v>
+      </c>
+      <c r="I97" t="n">
+        <v>2265</v>
+      </c>
+      <c r="J97" t="n">
+        <v>6299</v>
+      </c>
+      <c r="K97" t="n">
+        <v>-4034</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>44634.37713215277</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D98" t="n">
+        <v>6233</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-4216</v>
+      </c>
+      <c r="F98" t="n">
+        <v>73</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1624</v>
+      </c>
+      <c r="H98" t="n">
+        <v>-1551</v>
+      </c>
+      <c r="I98" t="n">
+        <v>2029</v>
+      </c>
+      <c r="J98" t="n">
+        <v>6536</v>
+      </c>
+      <c r="K98" t="n">
+        <v>-4507</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>44635.33390997685</v>
+      </c>
+      <c r="C99" t="n">
+        <v>5673</v>
+      </c>
+      <c r="D99" t="n">
+        <v>2495</v>
+      </c>
+      <c r="E99" t="n">
+        <v>3178</v>
+      </c>
+      <c r="F99" t="n">
+        <v>60</v>
+      </c>
+      <c r="G99" t="n">
+        <v>914</v>
+      </c>
+      <c r="H99" t="n">
+        <v>-854</v>
+      </c>
+      <c r="I99" t="n">
+        <v>2167</v>
+      </c>
+      <c r="J99" t="n">
+        <v>6398</v>
+      </c>
+      <c r="K99" t="n">
+        <v>-4231</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>44636.33996486111</v>
+      </c>
+      <c r="C100" t="n">
+        <v>6849</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1376</v>
+      </c>
+      <c r="E100" t="n">
+        <v>5473</v>
+      </c>
+      <c r="F100" t="n">
+        <v>70</v>
+      </c>
+      <c r="G100" t="n">
+        <v>361</v>
+      </c>
+      <c r="H100" t="n">
+        <v>-291</v>
+      </c>
+      <c r="I100" t="n">
+        <v>2762</v>
+      </c>
+      <c r="J100" t="n">
+        <v>5803</v>
+      </c>
+      <c r="K100" t="n">
+        <v>-3041</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" s="2" t="n">
+        <v>44637.39102240741</v>
+      </c>
+      <c r="C101" t="n">
+        <v>6573</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1690</v>
+      </c>
+      <c r="E101" t="n">
+        <v>4883</v>
+      </c>
+      <c r="F101" t="n">
+        <v>98</v>
+      </c>
+      <c r="G101" t="n">
+        <v>79</v>
+      </c>
+      <c r="H101" t="n">
+        <v>19</v>
+      </c>
+      <c r="I101" t="n">
+        <v>3435</v>
+      </c>
+      <c r="J101" t="n">
+        <v>5130</v>
+      </c>
+      <c r="K101" t="n">
+        <v>-1695</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" s="2" t="n">
+        <v>44638.37040452546</v>
+      </c>
+      <c r="C102" t="n">
+        <v>5806</v>
+      </c>
+      <c r="D102" t="n">
+        <v>2382</v>
+      </c>
+      <c r="E102" t="n">
+        <v>3424</v>
+      </c>
+      <c r="F102" t="n">
+        <v>120</v>
+      </c>
+      <c r="G102" t="n">
+        <v>62</v>
+      </c>
+      <c r="H102" t="n">
+        <v>58</v>
+      </c>
+      <c r="I102" t="n">
+        <v>4070</v>
+      </c>
+      <c r="J102" t="n">
+        <v>4495</v>
+      </c>
+      <c r="K102" t="n">
+        <v>-425</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>44641.3635871412</v>
+      </c>
+      <c r="C103" t="n">
+        <v>2926</v>
+      </c>
+      <c r="D103" t="n">
+        <v>5296</v>
+      </c>
+      <c r="E103" t="n">
+        <v>-2370</v>
+      </c>
+      <c r="F103" t="n">
+        <v>211</v>
+      </c>
+      <c r="G103" t="n">
+        <v>195</v>
+      </c>
+      <c r="H103" t="n">
+        <v>16</v>
+      </c>
+      <c r="I103" t="n">
+        <v>3885</v>
+      </c>
+      <c r="J103" t="n">
+        <v>4667</v>
+      </c>
+      <c r="K103" t="n">
+        <v>-782</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>44642.45112188657</v>
+      </c>
+      <c r="C104" t="n">
+        <v>5861</v>
+      </c>
+      <c r="D104" t="n">
+        <v>2322</v>
+      </c>
+      <c r="E104" t="n">
+        <v>3539</v>
+      </c>
+      <c r="F104" t="n">
+        <v>193</v>
+      </c>
+      <c r="G104" t="n">
+        <v>238</v>
+      </c>
+      <c r="H104" t="n">
+        <v>-45</v>
+      </c>
+      <c r="I104" t="n">
+        <v>4424</v>
+      </c>
+      <c r="J104" t="n">
+        <v>4128</v>
+      </c>
+      <c r="K104" t="n">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>44643.37532565972</v>
+      </c>
+      <c r="C105" t="n">
+        <v>2470</v>
+      </c>
+      <c r="D105" t="n">
+        <v>5714</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-3244</v>
+      </c>
+      <c r="F105" t="n">
+        <v>147</v>
+      </c>
+      <c r="G105" t="n">
+        <v>168</v>
+      </c>
+      <c r="H105" t="n">
+        <v>-21</v>
+      </c>
+      <c r="I105" t="n">
+        <v>3952</v>
+      </c>
+      <c r="J105" t="n">
+        <v>4600</v>
+      </c>
+      <c r="K105" t="n">
+        <v>-648</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>44644.34222395833</v>
+      </c>
+      <c r="C106" t="n">
+        <v>5684</v>
+      </c>
+      <c r="D106" t="n">
+        <v>2524</v>
+      </c>
+      <c r="E106" t="n">
+        <v>3160</v>
+      </c>
+      <c r="F106" t="n">
+        <v>198</v>
+      </c>
+      <c r="G106" t="n">
+        <v>235</v>
+      </c>
+      <c r="H106" t="n">
+        <v>-37</v>
+      </c>
+      <c r="I106" t="n">
+        <v>4454</v>
+      </c>
+      <c r="J106" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K106" t="n">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>44645.38216239584</v>
+      </c>
+      <c r="C107" t="n">
+        <v>3923</v>
+      </c>
+      <c r="D107" t="n">
+        <v>4274</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-351</v>
+      </c>
+      <c r="F107" t="n">
+        <v>333</v>
+      </c>
+      <c r="G107" t="n">
+        <v>413</v>
+      </c>
+      <c r="H107" t="n">
+        <v>-80</v>
+      </c>
+      <c r="I107" t="n">
+        <v>4442</v>
+      </c>
+      <c r="J107" t="n">
+        <v>4110</v>
+      </c>
+      <c r="K107" t="n">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>44648.37797178241</v>
+      </c>
+      <c r="C108" t="n">
+        <v>3951</v>
+      </c>
+      <c r="D108" t="n">
+        <v>4261</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-310</v>
+      </c>
+      <c r="F108" t="n">
+        <v>154</v>
+      </c>
+      <c r="G108" t="n">
+        <v>314</v>
+      </c>
+      <c r="H108" t="n">
+        <v>-160</v>
+      </c>
+      <c r="I108" t="n">
+        <v>4497</v>
+      </c>
+      <c r="J108" t="n">
+        <v>4052</v>
+      </c>
+      <c r="K108" t="n">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>44649.38815961806</v>
+      </c>
+      <c r="C109" t="n">
+        <v>6699</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1571</v>
+      </c>
+      <c r="E109" t="n">
+        <v>5128</v>
+      </c>
+      <c r="F109" t="n">
+        <v>259</v>
+      </c>
+      <c r="G109" t="n">
+        <v>154</v>
+      </c>
+      <c r="H109" t="n">
+        <v>105</v>
+      </c>
+      <c r="I109" t="n">
+        <v>5253</v>
+      </c>
+      <c r="J109" t="n">
+        <v>3296</v>
+      </c>
+      <c r="K109" t="n">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>44650.40930723379</v>
+      </c>
+      <c r="C110" t="n">
+        <v>2727</v>
+      </c>
+      <c r="D110" t="n">
+        <v>5471</v>
+      </c>
+      <c r="E110" t="n">
+        <v>-2744</v>
+      </c>
+      <c r="F110" t="n">
+        <v>242</v>
+      </c>
+      <c r="G110" t="n">
+        <v>86</v>
+      </c>
+      <c r="H110" t="n">
+        <v>156</v>
+      </c>
+      <c r="I110" t="n">
+        <v>4913</v>
+      </c>
+      <c r="J110" t="n">
+        <v>3636</v>
+      </c>
+      <c r="K110" t="n">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>44651.35055310185</v>
+      </c>
+      <c r="C111" t="n">
+        <v>2447</v>
+      </c>
+      <c r="D111" t="n">
+        <v>5775</v>
+      </c>
+      <c r="E111" t="n">
+        <v>-3328</v>
+      </c>
+      <c r="F111" t="n">
+        <v>219</v>
+      </c>
+      <c r="G111" t="n">
+        <v>162</v>
+      </c>
+      <c r="H111" t="n">
+        <v>57</v>
+      </c>
+      <c r="I111" t="n">
+        <v>4547</v>
+      </c>
+      <c r="J111" t="n">
+        <v>4002</v>
+      </c>
+      <c r="K111" t="n">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>44652.81677052083</v>
+      </c>
+      <c r="C112" t="n">
+        <v>5253</v>
+      </c>
+      <c r="D112" t="n">
+        <v>2908</v>
+      </c>
+      <c r="E112" t="n">
+        <v>2345</v>
+      </c>
+      <c r="F112" t="n">
+        <v>198</v>
+      </c>
+      <c r="G112" t="n">
+        <v>201</v>
+      </c>
+      <c r="H112" t="n">
+        <v>-3</v>
+      </c>
+      <c r="I112" t="n">
+        <v>4808</v>
+      </c>
+      <c r="J112" t="n">
+        <v>3741</v>
+      </c>
+      <c r="K112" t="n">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>44655.36145189815</v>
+      </c>
+      <c r="C113" t="n">
+        <v>5110</v>
+      </c>
+      <c r="D113" t="n">
+        <v>3110</v>
+      </c>
+      <c r="E113" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F113" t="n">
+        <v>192</v>
+      </c>
+      <c r="G113" t="n">
+        <v>102</v>
+      </c>
+      <c r="H113" t="n">
+        <v>90</v>
+      </c>
+      <c r="I113" t="n">
+        <v>5098</v>
+      </c>
+      <c r="J113" t="n">
+        <v>3440</v>
+      </c>
+      <c r="K113" t="n">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>44656.40464458333</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1444</v>
+      </c>
+      <c r="D114" t="n">
+        <v>6780</v>
+      </c>
+      <c r="E114" t="n">
+        <v>-5336</v>
+      </c>
+      <c r="F114" t="n">
+        <v>219</v>
+      </c>
+      <c r="G114" t="n">
+        <v>306</v>
+      </c>
+      <c r="H114" t="n">
+        <v>-87</v>
+      </c>
+      <c r="I114" t="n">
+        <v>4374</v>
+      </c>
+      <c r="J114" t="n">
+        <v>4164</v>
+      </c>
+      <c r="K114" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>44657.35333596385</v>
+      </c>
+      <c r="C115" t="n">
+        <v>2086</v>
+      </c>
+      <c r="D115" t="n">
+        <v>6111</v>
+      </c>
+      <c r="E115" t="n">
+        <v>-4025</v>
+      </c>
+      <c r="F115" t="n">
+        <v>136</v>
+      </c>
+      <c r="G115" t="n">
+        <v>606</v>
+      </c>
+      <c r="H115" t="n">
+        <v>-470</v>
+      </c>
+      <c r="I115" t="n">
+        <v>3818</v>
+      </c>
+      <c r="J115" t="n">
+        <v>4720</v>
+      </c>
+      <c r="K115" t="n">
+        <v>-902</v>
       </c>
     </row>
   </sheetData>

--- a/Data/marketmomentum.xlsx
+++ b/Data/marketmomentum.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K115"/>
+  <dimension ref="A1:K133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4449,7 +4449,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="2" t="n">
-        <v>44657.35333596385</v>
+        <v>44657.35333596065</v>
       </c>
       <c r="C115" t="n">
         <v>2086</v>
@@ -4477,6 +4477,636 @@
       </c>
       <c r="K115" t="n">
         <v>-902</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>44658.41599037037</v>
+      </c>
+      <c r="C116" t="n">
+        <v>3546</v>
+      </c>
+      <c r="D116" t="n">
+        <v>4585</v>
+      </c>
+      <c r="E116" t="n">
+        <v>-1039</v>
+      </c>
+      <c r="F116" t="n">
+        <v>151</v>
+      </c>
+      <c r="G116" t="n">
+        <v>559</v>
+      </c>
+      <c r="H116" t="n">
+        <v>-408</v>
+      </c>
+      <c r="I116" t="n">
+        <v>3727</v>
+      </c>
+      <c r="J116" t="n">
+        <v>4811</v>
+      </c>
+      <c r="K116" t="n">
+        <v>-1084</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>44659.61469894676</v>
+      </c>
+      <c r="C117" t="n">
+        <v>3329</v>
+      </c>
+      <c r="D117" t="n">
+        <v>4815</v>
+      </c>
+      <c r="E117" t="n">
+        <v>-1486</v>
+      </c>
+      <c r="F117" t="n">
+        <v>251</v>
+      </c>
+      <c r="G117" t="n">
+        <v>520</v>
+      </c>
+      <c r="H117" t="n">
+        <v>-269</v>
+      </c>
+      <c r="I117" t="n">
+        <v>3613</v>
+      </c>
+      <c r="J117" t="n">
+        <v>4925</v>
+      </c>
+      <c r="K117" t="n">
+        <v>-1312</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>44662.37909722222</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2159</v>
+      </c>
+      <c r="D118" t="n">
+        <v>6007</v>
+      </c>
+      <c r="E118" t="n">
+        <v>-3848</v>
+      </c>
+      <c r="F118" t="n">
+        <v>143</v>
+      </c>
+      <c r="G118" t="n">
+        <v>729</v>
+      </c>
+      <c r="H118" t="n">
+        <v>-586</v>
+      </c>
+      <c r="I118" t="n">
+        <v>3120</v>
+      </c>
+      <c r="J118" t="n">
+        <v>5407</v>
+      </c>
+      <c r="K118" t="n">
+        <v>-2287</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>44663.44993422454</v>
+      </c>
+      <c r="C119" t="n">
+        <v>3621</v>
+      </c>
+      <c r="D119" t="n">
+        <v>4483</v>
+      </c>
+      <c r="E119" t="n">
+        <v>-862</v>
+      </c>
+      <c r="F119" t="n">
+        <v>173</v>
+      </c>
+      <c r="G119" t="n">
+        <v>476</v>
+      </c>
+      <c r="H119" t="n">
+        <v>-303</v>
+      </c>
+      <c r="I119" t="n">
+        <v>3058</v>
+      </c>
+      <c r="J119" t="n">
+        <v>5469</v>
+      </c>
+      <c r="K119" t="n">
+        <v>-2411</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>44664.41960386574</v>
+      </c>
+      <c r="C120" t="n">
+        <v>6544</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1636</v>
+      </c>
+      <c r="E120" t="n">
+        <v>4908</v>
+      </c>
+      <c r="F120" t="n">
+        <v>211</v>
+      </c>
+      <c r="G120" t="n">
+        <v>357</v>
+      </c>
+      <c r="H120" t="n">
+        <v>-146</v>
+      </c>
+      <c r="I120" t="n">
+        <v>3610</v>
+      </c>
+      <c r="J120" t="n">
+        <v>4917</v>
+      </c>
+      <c r="K120" t="n">
+        <v>-1307</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>44665.53575064815</v>
+      </c>
+      <c r="C121" t="n">
+        <v>2396</v>
+      </c>
+      <c r="D121" t="n">
+        <v>5772</v>
+      </c>
+      <c r="E121" t="n">
+        <v>-3376</v>
+      </c>
+      <c r="F121" t="n">
+        <v>283</v>
+      </c>
+      <c r="G121" t="n">
+        <v>544</v>
+      </c>
+      <c r="H121" t="n">
+        <v>-261</v>
+      </c>
+      <c r="I121" t="n">
+        <v>3308</v>
+      </c>
+      <c r="J121" t="n">
+        <v>5219</v>
+      </c>
+      <c r="K121" t="n">
+        <v>-1911</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" s="2" t="n">
+        <v>44669.36353797454</v>
+      </c>
+      <c r="C122" t="n">
+        <v>2591</v>
+      </c>
+      <c r="D122" t="n">
+        <v>5594</v>
+      </c>
+      <c r="E122" t="n">
+        <v>-3003</v>
+      </c>
+      <c r="F122" t="n">
+        <v>292</v>
+      </c>
+      <c r="G122" t="n">
+        <v>858</v>
+      </c>
+      <c r="H122" t="n">
+        <v>-566</v>
+      </c>
+      <c r="I122" t="n">
+        <v>3080</v>
+      </c>
+      <c r="J122" t="n">
+        <v>5428</v>
+      </c>
+      <c r="K122" t="n">
+        <v>-2348</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>44670.35265877315</v>
+      </c>
+      <c r="C123" t="n">
+        <v>5933</v>
+      </c>
+      <c r="D123" t="n">
+        <v>2228</v>
+      </c>
+      <c r="E123" t="n">
+        <v>3705</v>
+      </c>
+      <c r="F123" t="n">
+        <v>205</v>
+      </c>
+      <c r="G123" t="n">
+        <v>582</v>
+      </c>
+      <c r="H123" t="n">
+        <v>-377</v>
+      </c>
+      <c r="I123" t="n">
+        <v>3705</v>
+      </c>
+      <c r="J123" t="n">
+        <v>4803</v>
+      </c>
+      <c r="K123" t="n">
+        <v>-1098</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" s="2" t="n">
+        <v>44671.3877184838</v>
+      </c>
+      <c r="C124" t="n">
+        <v>4789</v>
+      </c>
+      <c r="D124" t="n">
+        <v>3361</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1428</v>
+      </c>
+      <c r="F124" t="n">
+        <v>339</v>
+      </c>
+      <c r="G124" t="n">
+        <v>280</v>
+      </c>
+      <c r="H124" t="n">
+        <v>59</v>
+      </c>
+      <c r="I124" t="n">
+        <v>3836</v>
+      </c>
+      <c r="J124" t="n">
+        <v>4672</v>
+      </c>
+      <c r="K124" t="n">
+        <v>-836</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" s="2" t="n">
+        <v>44672.33363002315</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D125" t="n">
+        <v>6908</v>
+      </c>
+      <c r="E125" t="n">
+        <v>-5608</v>
+      </c>
+      <c r="F125" t="n">
+        <v>336</v>
+      </c>
+      <c r="G125" t="n">
+        <v>722</v>
+      </c>
+      <c r="H125" t="n">
+        <v>-386</v>
+      </c>
+      <c r="I125" t="n">
+        <v>3169</v>
+      </c>
+      <c r="J125" t="n">
+        <v>5339</v>
+      </c>
+      <c r="K125" t="n">
+        <v>-2170</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" s="2" t="n">
+        <v>44673.33766561343</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1265</v>
+      </c>
+      <c r="D126" t="n">
+        <v>6889</v>
+      </c>
+      <c r="E126" t="n">
+        <v>-5624</v>
+      </c>
+      <c r="F126" t="n">
+        <v>39</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1040</v>
+      </c>
+      <c r="H126" t="n">
+        <v>-1001</v>
+      </c>
+      <c r="I126" t="n">
+        <v>2403</v>
+      </c>
+      <c r="J126" t="n">
+        <v>6105</v>
+      </c>
+      <c r="K126" t="n">
+        <v>-3702</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" s="2" t="n">
+        <v>44676.31783071759</v>
+      </c>
+      <c r="C127" t="n">
+        <v>4317</v>
+      </c>
+      <c r="D127" t="n">
+        <v>3859</v>
+      </c>
+      <c r="E127" t="n">
+        <v>458</v>
+      </c>
+      <c r="F127" t="n">
+        <v>31</v>
+      </c>
+      <c r="G127" t="n">
+        <v>1095</v>
+      </c>
+      <c r="H127" t="n">
+        <v>-1064</v>
+      </c>
+      <c r="I127" t="n">
+        <v>2317</v>
+      </c>
+      <c r="J127" t="n">
+        <v>6187</v>
+      </c>
+      <c r="K127" t="n">
+        <v>-3870</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" s="2" t="n">
+        <v>44677.41830925926</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1152</v>
+      </c>
+      <c r="D128" t="n">
+        <v>7046</v>
+      </c>
+      <c r="E128" t="n">
+        <v>-5894</v>
+      </c>
+      <c r="F128" t="n">
+        <v>31</v>
+      </c>
+      <c r="G128" t="n">
+        <v>1296</v>
+      </c>
+      <c r="H128" t="n">
+        <v>-1265</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1784</v>
+      </c>
+      <c r="J128" t="n">
+        <v>6720</v>
+      </c>
+      <c r="K128" t="n">
+        <v>-4936</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" s="2" t="n">
+        <v>44678.39372800926</v>
+      </c>
+      <c r="C129" t="n">
+        <v>3676</v>
+      </c>
+      <c r="D129" t="n">
+        <v>4426</v>
+      </c>
+      <c r="E129" t="n">
+        <v>-750</v>
+      </c>
+      <c r="F129" t="n">
+        <v>34</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1420</v>
+      </c>
+      <c r="H129" t="n">
+        <v>-1386</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1831</v>
+      </c>
+      <c r="J129" t="n">
+        <v>6675</v>
+      </c>
+      <c r="K129" t="n">
+        <v>-4844</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" s="2" t="n">
+        <v>44679.36367872686</v>
+      </c>
+      <c r="C130" t="n">
+        <v>6161</v>
+      </c>
+      <c r="D130" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E130" t="n">
+        <v>4154</v>
+      </c>
+      <c r="F130" t="n">
+        <v>52</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1286</v>
+      </c>
+      <c r="H130" t="n">
+        <v>-1234</v>
+      </c>
+      <c r="I130" t="n">
+        <v>2190</v>
+      </c>
+      <c r="J130" t="n">
+        <v>6316</v>
+      </c>
+      <c r="K130" t="n">
+        <v>-4126</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" s="2" t="n">
+        <v>44680.38831943287</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1412</v>
+      </c>
+      <c r="D131" t="n">
+        <v>6796</v>
+      </c>
+      <c r="E131" t="n">
+        <v>-5384</v>
+      </c>
+      <c r="F131" t="n">
+        <v>41</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1013</v>
+      </c>
+      <c r="H131" t="n">
+        <v>-972</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1679</v>
+      </c>
+      <c r="J131" t="n">
+        <v>6836</v>
+      </c>
+      <c r="K131" t="n">
+        <v>-5157</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" s="2" t="n">
+        <v>44683.42889842593</v>
+      </c>
+      <c r="C132" t="n">
+        <v>4430</v>
+      </c>
+      <c r="D132" t="n">
+        <v>3705</v>
+      </c>
+      <c r="E132" t="n">
+        <v>725</v>
+      </c>
+      <c r="F132" t="n">
+        <v>44</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1683</v>
+      </c>
+      <c r="H132" t="n">
+        <v>-1639</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1684</v>
+      </c>
+      <c r="J132" t="n">
+        <v>6827</v>
+      </c>
+      <c r="K132" t="n">
+        <v>-5143</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" s="2" t="n">
+        <v>44684.37591445562</v>
+      </c>
+      <c r="C133" t="n">
+        <v>5345</v>
+      </c>
+      <c r="D133" t="n">
+        <v>2770</v>
+      </c>
+      <c r="E133" t="n">
+        <v>2575</v>
+      </c>
+      <c r="F133" t="n">
+        <v>47</v>
+      </c>
+      <c r="G133" t="n">
+        <v>379</v>
+      </c>
+      <c r="H133" t="n">
+        <v>-332</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1873</v>
+      </c>
+      <c r="J133" t="n">
+        <v>6638</v>
+      </c>
+      <c r="K133" t="n">
+        <v>-4765</v>
       </c>
     </row>
   </sheetData>

--- a/Data/marketmomentum.xlsx
+++ b/Data/marketmomentum.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K133"/>
+  <dimension ref="A1:K135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5079,7 +5079,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="2" t="n">
-        <v>44684.37591445562</v>
+        <v>44684.37591445602</v>
       </c>
       <c r="C133" t="n">
         <v>5345</v>
@@ -5107,6 +5107,76 @@
       </c>
       <c r="K133" t="n">
         <v>-4765</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" s="2" t="n">
+        <v>44685.34883126157</v>
+      </c>
+      <c r="C134" t="n">
+        <v>6712</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1471</v>
+      </c>
+      <c r="E134" t="n">
+        <v>5241</v>
+      </c>
+      <c r="F134" t="n">
+        <v>91</v>
+      </c>
+      <c r="G134" t="n">
+        <v>755</v>
+      </c>
+      <c r="H134" t="n">
+        <v>-664</v>
+      </c>
+      <c r="I134" t="n">
+        <v>2449</v>
+      </c>
+      <c r="J134" t="n">
+        <v>6067</v>
+      </c>
+      <c r="K134" t="n">
+        <v>-3618</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" s="2" t="n">
+        <v>44686.4004675678</v>
+      </c>
+      <c r="C135" t="n">
+        <v>862</v>
+      </c>
+      <c r="D135" t="n">
+        <v>7347</v>
+      </c>
+      <c r="E135" t="n">
+        <v>-6485</v>
+      </c>
+      <c r="F135" t="n">
+        <v>93</v>
+      </c>
+      <c r="G135" t="n">
+        <v>1142</v>
+      </c>
+      <c r="H135" t="n">
+        <v>-1049</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1786</v>
+      </c>
+      <c r="J135" t="n">
+        <v>6730</v>
+      </c>
+      <c r="K135" t="n">
+        <v>-4944</v>
       </c>
     </row>
   </sheetData>

--- a/Data/marketmomentum.xlsx
+++ b/Data/marketmomentum.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K135"/>
+  <dimension ref="A1:K143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5149,7 +5149,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="2" t="n">
-        <v>44686.4004675678</v>
+        <v>44686.40046756945</v>
       </c>
       <c r="C135" t="n">
         <v>862</v>
@@ -5177,6 +5177,286 @@
       </c>
       <c r="K135" t="n">
         <v>-4944</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" s="2" t="n">
+        <v>44687.35496318287</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1937</v>
+      </c>
+      <c r="D136" t="n">
+        <v>6234</v>
+      </c>
+      <c r="E136" t="n">
+        <v>-4297</v>
+      </c>
+      <c r="F136" t="n">
+        <v>68</v>
+      </c>
+      <c r="G136" t="n">
+        <v>2022</v>
+      </c>
+      <c r="H136" t="n">
+        <v>-1954</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1625</v>
+      </c>
+      <c r="J136" t="n">
+        <v>6891</v>
+      </c>
+      <c r="K136" t="n">
+        <v>-5266</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" s="2" t="n">
+        <v>44690.33843474537</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1085</v>
+      </c>
+      <c r="D137" t="n">
+        <v>7214</v>
+      </c>
+      <c r="E137" t="n">
+        <v>-6129</v>
+      </c>
+      <c r="F137" t="n">
+        <v>55</v>
+      </c>
+      <c r="G137" t="n">
+        <v>3136</v>
+      </c>
+      <c r="H137" t="n">
+        <v>-3081</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1107</v>
+      </c>
+      <c r="J137" t="n">
+        <v>7401</v>
+      </c>
+      <c r="K137" t="n">
+        <v>-6294</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" s="2" t="n">
+        <v>44691.34141314815</v>
+      </c>
+      <c r="C138" t="n">
+        <v>3734</v>
+      </c>
+      <c r="D138" t="n">
+        <v>4479</v>
+      </c>
+      <c r="E138" t="n">
+        <v>-745</v>
+      </c>
+      <c r="F138" t="n">
+        <v>40</v>
+      </c>
+      <c r="G138" t="n">
+        <v>2602</v>
+      </c>
+      <c r="H138" t="n">
+        <v>-2562</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J138" t="n">
+        <v>7508</v>
+      </c>
+      <c r="K138" t="n">
+        <v>-6508</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" s="2" t="n">
+        <v>44692.33990525463</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1919</v>
+      </c>
+      <c r="D139" t="n">
+        <v>6310</v>
+      </c>
+      <c r="E139" t="n">
+        <v>-4391</v>
+      </c>
+      <c r="F139" t="n">
+        <v>42</v>
+      </c>
+      <c r="G139" t="n">
+        <v>2605</v>
+      </c>
+      <c r="H139" t="n">
+        <v>-2563</v>
+      </c>
+      <c r="I139" t="n">
+        <v>897</v>
+      </c>
+      <c r="J139" t="n">
+        <v>7616</v>
+      </c>
+      <c r="K139" t="n">
+        <v>-6719</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" s="2" t="n">
+        <v>44693.35964423611</v>
+      </c>
+      <c r="C140" t="n">
+        <v>4463</v>
+      </c>
+      <c r="D140" t="n">
+        <v>3762</v>
+      </c>
+      <c r="E140" t="n">
+        <v>701</v>
+      </c>
+      <c r="F140" t="n">
+        <v>46</v>
+      </c>
+      <c r="G140" t="n">
+        <v>3226</v>
+      </c>
+      <c r="H140" t="n">
+        <v>-3180</v>
+      </c>
+      <c r="I140" t="n">
+        <v>896</v>
+      </c>
+      <c r="J140" t="n">
+        <v>7617</v>
+      </c>
+      <c r="K140" t="n">
+        <v>-6721</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" s="2" t="n">
+        <v>44694.38573180555</v>
+      </c>
+      <c r="C141" t="n">
+        <v>6719</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1526</v>
+      </c>
+      <c r="E141" t="n">
+        <v>5193</v>
+      </c>
+      <c r="F141" t="n">
+        <v>25</v>
+      </c>
+      <c r="G141" t="n">
+        <v>352</v>
+      </c>
+      <c r="H141" t="n">
+        <v>-327</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1189</v>
+      </c>
+      <c r="J141" t="n">
+        <v>7324</v>
+      </c>
+      <c r="K141" t="n">
+        <v>-6135</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" s="2" t="n">
+        <v>44697.34778409722</v>
+      </c>
+      <c r="C142" t="n">
+        <v>3731</v>
+      </c>
+      <c r="D142" t="n">
+        <v>4423</v>
+      </c>
+      <c r="E142" t="n">
+        <v>-692</v>
+      </c>
+      <c r="F142" t="n">
+        <v>59</v>
+      </c>
+      <c r="G142" t="n">
+        <v>360</v>
+      </c>
+      <c r="H142" t="n">
+        <v>-301</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1216</v>
+      </c>
+      <c r="J142" t="n">
+        <v>7285</v>
+      </c>
+      <c r="K142" t="n">
+        <v>-6069</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" s="2" t="n">
+        <v>44698.35194676617</v>
+      </c>
+      <c r="C143" t="n">
+        <v>6702</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1478</v>
+      </c>
+      <c r="E143" t="n">
+        <v>5224</v>
+      </c>
+      <c r="F143" t="n">
+        <v>84</v>
+      </c>
+      <c r="G143" t="n">
+        <v>254</v>
+      </c>
+      <c r="H143" t="n">
+        <v>-170</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1636</v>
+      </c>
+      <c r="J143" t="n">
+        <v>6865</v>
+      </c>
+      <c r="K143" t="n">
+        <v>-5229</v>
       </c>
     </row>
   </sheetData>

--- a/Data/marketmomentum.xlsx
+++ b/Data/marketmomentum.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K143"/>
+  <dimension ref="A1:K144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5429,7 +5429,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="2" t="n">
-        <v>44698.35194676617</v>
+        <v>44698.35194677083</v>
       </c>
       <c r="C143" t="n">
         <v>6702</v>
@@ -5457,6 +5457,41 @@
       </c>
       <c r="K143" t="n">
         <v>-5229</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" s="2" t="n">
+        <v>44699.25876100581</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1177</v>
+      </c>
+      <c r="D144" t="n">
+        <v>6982</v>
+      </c>
+      <c r="E144" t="n">
+        <v>-5805</v>
+      </c>
+      <c r="F144" t="n">
+        <v>46</v>
+      </c>
+      <c r="G144" t="n">
+        <v>590</v>
+      </c>
+      <c r="H144" t="n">
+        <v>-544</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1205</v>
+      </c>
+      <c r="J144" t="n">
+        <v>7296</v>
+      </c>
+      <c r="K144" t="n">
+        <v>-6091</v>
       </c>
     </row>
   </sheetData>

--- a/Data/marketmomentum.xlsx
+++ b/Data/marketmomentum.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K144"/>
+  <dimension ref="A1:K145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5464,7 +5464,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="2" t="n">
-        <v>44699.25876100581</v>
+        <v>44699.25876100695</v>
       </c>
       <c r="C144" t="n">
         <v>1177</v>
@@ -5492,6 +5492,41 @@
       </c>
       <c r="K144" t="n">
         <v>-6091</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" s="2" t="n">
+        <v>44700.3461826311</v>
+      </c>
+      <c r="C145" t="n">
+        <v>4483</v>
+      </c>
+      <c r="D145" t="n">
+        <v>3625</v>
+      </c>
+      <c r="E145" t="n">
+        <v>858</v>
+      </c>
+      <c r="F145" t="n">
+        <v>20</v>
+      </c>
+      <c r="G145" t="n">
+        <v>638</v>
+      </c>
+      <c r="H145" t="n">
+        <v>-618</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1203</v>
+      </c>
+      <c r="J145" t="n">
+        <v>7298</v>
+      </c>
+      <c r="K145" t="n">
+        <v>-6095</v>
       </c>
     </row>
   </sheetData>

--- a/Data/marketmomentum.xlsx
+++ b/Data/marketmomentum.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K145"/>
+  <dimension ref="A1:K150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5499,7 +5499,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="2" t="n">
-        <v>44700.3461826311</v>
+        <v>44700.34618262731</v>
       </c>
       <c r="C145" t="n">
         <v>4483</v>
@@ -5527,6 +5527,181 @@
       </c>
       <c r="K145" t="n">
         <v>-6095</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" s="2" t="n">
+        <v>44701.37096746528</v>
+      </c>
+      <c r="C146" t="n">
+        <v>3956</v>
+      </c>
+      <c r="D146" t="n">
+        <v>4122</v>
+      </c>
+      <c r="E146" t="n">
+        <v>-166</v>
+      </c>
+      <c r="F146" t="n">
+        <v>41</v>
+      </c>
+      <c r="G146" t="n">
+        <v>1018</v>
+      </c>
+      <c r="H146" t="n">
+        <v>-977</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1214</v>
+      </c>
+      <c r="J146" t="n">
+        <v>7295</v>
+      </c>
+      <c r="K146" t="n">
+        <v>-6081</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" s="2" t="n">
+        <v>44704.49089359953</v>
+      </c>
+      <c r="C147" t="n">
+        <v>5658</v>
+      </c>
+      <c r="D147" t="n">
+        <v>2537</v>
+      </c>
+      <c r="E147" t="n">
+        <v>3121</v>
+      </c>
+      <c r="F147" t="n">
+        <v>57</v>
+      </c>
+      <c r="G147" t="n">
+        <v>234</v>
+      </c>
+      <c r="H147" t="n">
+        <v>-177</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1448</v>
+      </c>
+      <c r="J147" t="n">
+        <v>7168</v>
+      </c>
+      <c r="K147" t="n">
+        <v>-5720</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" s="2" t="n">
+        <v>44705.35665401621</v>
+      </c>
+      <c r="C148" t="n">
+        <v>2735</v>
+      </c>
+      <c r="D148" t="n">
+        <v>5529</v>
+      </c>
+      <c r="E148" t="n">
+        <v>-2794</v>
+      </c>
+      <c r="F148" t="n">
+        <v>54</v>
+      </c>
+      <c r="G148" t="n">
+        <v>749</v>
+      </c>
+      <c r="H148" t="n">
+        <v>-695</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1378</v>
+      </c>
+      <c r="J148" t="n">
+        <v>7238</v>
+      </c>
+      <c r="K148" t="n">
+        <v>-5860</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" s="2" t="n">
+        <v>44706.35588740741</v>
+      </c>
+      <c r="C149" t="n">
+        <v>6258</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1974</v>
+      </c>
+      <c r="E149" t="n">
+        <v>4284</v>
+      </c>
+      <c r="F149" t="n">
+        <v>98</v>
+      </c>
+      <c r="G149" t="n">
+        <v>335</v>
+      </c>
+      <c r="H149" t="n">
+        <v>-237</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1657</v>
+      </c>
+      <c r="J149" t="n">
+        <v>6960</v>
+      </c>
+      <c r="K149" t="n">
+        <v>-5303</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" s="2" t="n">
+        <v>44707.34665931982</v>
+      </c>
+      <c r="C150" t="n">
+        <v>6735</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1522</v>
+      </c>
+      <c r="E150" t="n">
+        <v>5213</v>
+      </c>
+      <c r="F150" t="n">
+        <v>146</v>
+      </c>
+      <c r="G150" t="n">
+        <v>152</v>
+      </c>
+      <c r="H150" t="n">
+        <v>-6</v>
+      </c>
+      <c r="I150" t="n">
+        <v>2129</v>
+      </c>
+      <c r="J150" t="n">
+        <v>6488</v>
+      </c>
+      <c r="K150" t="n">
+        <v>-4359</v>
       </c>
     </row>
   </sheetData>

--- a/Data/marketmomentum.xlsx
+++ b/Data/marketmomentum.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K150"/>
+  <dimension ref="A1:K159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5674,7 +5674,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="2" t="n">
-        <v>44707.34665931982</v>
+        <v>44707.34665931713</v>
       </c>
       <c r="C150" t="n">
         <v>6735</v>
@@ -5702,6 +5702,321 @@
       </c>
       <c r="K150" t="n">
         <v>-4359</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" s="2" t="n">
+        <v>44708.47832788195</v>
+      </c>
+      <c r="C151" t="n">
+        <v>7176</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1122</v>
+      </c>
+      <c r="E151" t="n">
+        <v>6054</v>
+      </c>
+      <c r="F151" t="n">
+        <v>160</v>
+      </c>
+      <c r="G151" t="n">
+        <v>95</v>
+      </c>
+      <c r="H151" t="n">
+        <v>65</v>
+      </c>
+      <c r="I151" t="n">
+        <v>2831</v>
+      </c>
+      <c r="J151" t="n">
+        <v>5786</v>
+      </c>
+      <c r="K151" t="n">
+        <v>-2955</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" s="2" t="n">
+        <v>44712.35975739583</v>
+      </c>
+      <c r="C152" t="n">
+        <v>2721</v>
+      </c>
+      <c r="D152" t="n">
+        <v>5535</v>
+      </c>
+      <c r="E152" t="n">
+        <v>-2814</v>
+      </c>
+      <c r="F152" t="n">
+        <v>189</v>
+      </c>
+      <c r="G152" t="n">
+        <v>87</v>
+      </c>
+      <c r="H152" t="n">
+        <v>102</v>
+      </c>
+      <c r="I152" t="n">
+        <v>2650</v>
+      </c>
+      <c r="J152" t="n">
+        <v>5961</v>
+      </c>
+      <c r="K152" t="n">
+        <v>-3311</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" s="2" t="n">
+        <v>44713.41894678241</v>
+      </c>
+      <c r="C153" t="n">
+        <v>2648</v>
+      </c>
+      <c r="D153" t="n">
+        <v>5621</v>
+      </c>
+      <c r="E153" t="n">
+        <v>-2973</v>
+      </c>
+      <c r="F153" t="n">
+        <v>80</v>
+      </c>
+      <c r="G153" t="n">
+        <v>164</v>
+      </c>
+      <c r="H153" t="n">
+        <v>-84</v>
+      </c>
+      <c r="I153" t="n">
+        <v>2472</v>
+      </c>
+      <c r="J153" t="n">
+        <v>6139</v>
+      </c>
+      <c r="K153" t="n">
+        <v>-3667</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" s="2" t="n">
+        <v>44714.35040380787</v>
+      </c>
+      <c r="C154" t="n">
+        <v>6772</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1495</v>
+      </c>
+      <c r="E154" t="n">
+        <v>5277</v>
+      </c>
+      <c r="F154" t="n">
+        <v>98</v>
+      </c>
+      <c r="G154" t="n">
+        <v>126</v>
+      </c>
+      <c r="H154" t="n">
+        <v>-28</v>
+      </c>
+      <c r="I154" t="n">
+        <v>3245</v>
+      </c>
+      <c r="J154" t="n">
+        <v>5366</v>
+      </c>
+      <c r="K154" t="n">
+        <v>-2121</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" s="2" t="n">
+        <v>44715.28297453704</v>
+      </c>
+      <c r="C155" t="n">
+        <v>2206</v>
+      </c>
+      <c r="D155" t="n">
+        <v>6050</v>
+      </c>
+      <c r="E155" t="n">
+        <v>-3844</v>
+      </c>
+      <c r="F155" t="n">
+        <v>95</v>
+      </c>
+      <c r="G155" t="n">
+        <v>110</v>
+      </c>
+      <c r="H155" t="n">
+        <v>-15</v>
+      </c>
+      <c r="I155" t="n">
+        <v>2863</v>
+      </c>
+      <c r="J155" t="n">
+        <v>5748</v>
+      </c>
+      <c r="K155" t="n">
+        <v>-2885</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" s="2" t="n">
+        <v>44718.42230751157</v>
+      </c>
+      <c r="C156" t="n">
+        <v>4660</v>
+      </c>
+      <c r="D156" t="n">
+        <v>3608</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1052</v>
+      </c>
+      <c r="F156" t="n">
+        <v>162</v>
+      </c>
+      <c r="G156" t="n">
+        <v>170</v>
+      </c>
+      <c r="H156" t="n">
+        <v>-8</v>
+      </c>
+      <c r="I156" t="n">
+        <v>3023</v>
+      </c>
+      <c r="J156" t="n">
+        <v>5567</v>
+      </c>
+      <c r="K156" t="n">
+        <v>-2544</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" s="2" t="n">
+        <v>44719.37562577546</v>
+      </c>
+      <c r="C157" t="n">
+        <v>5908</v>
+      </c>
+      <c r="D157" t="n">
+        <v>2347</v>
+      </c>
+      <c r="E157" t="n">
+        <v>3561</v>
+      </c>
+      <c r="F157" t="n">
+        <v>207</v>
+      </c>
+      <c r="G157" t="n">
+        <v>169</v>
+      </c>
+      <c r="H157" t="n">
+        <v>38</v>
+      </c>
+      <c r="I157" t="n">
+        <v>3480</v>
+      </c>
+      <c r="J157" t="n">
+        <v>5110</v>
+      </c>
+      <c r="K157" t="n">
+        <v>-1630</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" s="2" t="n">
+        <v>44720.36000672454</v>
+      </c>
+      <c r="C158" t="n">
+        <v>2569</v>
+      </c>
+      <c r="D158" t="n">
+        <v>5693</v>
+      </c>
+      <c r="E158" t="n">
+        <v>-3124</v>
+      </c>
+      <c r="F158" t="n">
+        <v>186</v>
+      </c>
+      <c r="G158" t="n">
+        <v>122</v>
+      </c>
+      <c r="H158" t="n">
+        <v>64</v>
+      </c>
+      <c r="I158" t="n">
+        <v>2999</v>
+      </c>
+      <c r="J158" t="n">
+        <v>5592</v>
+      </c>
+      <c r="K158" t="n">
+        <v>-2593</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" s="2" t="n">
+        <v>44721.34229250384</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1412</v>
+      </c>
+      <c r="D159" t="n">
+        <v>6876</v>
+      </c>
+      <c r="E159" t="n">
+        <v>-5464</v>
+      </c>
+      <c r="F159" t="n">
+        <v>35</v>
+      </c>
+      <c r="G159" t="n">
+        <v>238</v>
+      </c>
+      <c r="H159" t="n">
+        <v>-203</v>
+      </c>
+      <c r="I159" t="n">
+        <v>2389</v>
+      </c>
+      <c r="J159" t="n">
+        <v>6202</v>
+      </c>
+      <c r="K159" t="n">
+        <v>-3813</v>
       </c>
     </row>
   </sheetData>

--- a/Data/marketmomentum.xlsx
+++ b/Data/marketmomentum.xlsx
@@ -1,40 +1,80 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ondrej.finke\GIT\stocksandloss\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="1125" yWindow="0" windowWidth="37275" windowHeight="18285"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>advancing</t>
+  </si>
+  <si>
+    <t>declining</t>
+  </si>
+  <si>
+    <t>addiff</t>
+  </si>
+  <si>
+    <t>highs</t>
+  </si>
+  <si>
+    <t>lows</t>
+  </si>
+  <si>
+    <t>hldiff</t>
+  </si>
+  <si>
+    <t>above50</t>
+  </si>
+  <si>
+    <t>below50</t>
+  </si>
+  <si>
+    <t>abdiff</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,94 +89,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -424,5599 +414,5718 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K159"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K163"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="S159" sqref="S159"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>advancing</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>declining</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>addiff</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>highs</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>lows</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>hldiff</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>above50</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>below50</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>abdiff</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
         <v>44491</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>3800</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>4215</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>-415</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>570</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>204</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>366</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>4724</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>3628</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>1096</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="2">
         <v>44494</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>5281</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>2805</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>2476</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>739</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>140</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>599</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>4957</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>3411</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>1546</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="2">
         <v>44495</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>3393</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>4647</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>-1254</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>694</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>141</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>553</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>4900</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>3469</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>1431</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>44496.32727542824</v>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5" s="2">
+        <v>44496.327275428237</v>
+      </c>
+      <c r="C5">
         <v>1928</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>6141</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>-4213</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>204</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>170</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>34</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>4364</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>4005</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>359</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>44497.39635795139</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6" s="2">
+        <v>44497.396357951387</v>
+      </c>
+      <c r="C6">
         <v>5952</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>2089</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>3863</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>313</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>146</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>167</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>4833</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>3544</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>1289</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="n">
-        <v>44498.38242039352</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7" s="2">
+        <v>44498.382420393522</v>
+      </c>
+      <c r="C7">
         <v>3602</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>4423</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>-821</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>424</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>137</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>287</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>4677</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>3700</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>977</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="2">
         <v>44501.34745335648</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>6210</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>1904</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>4306</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>715</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>101</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>614</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>5281</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>3089</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>2192</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="n">
-        <v>44502.34450280092</v>
-      </c>
-      <c r="C9" t="n">
+      <c r="B9" s="2">
+        <v>44502.344502800923</v>
+      </c>
+      <c r="C9">
         <v>3935</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>4118</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>-183</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>759</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>113</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>646</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>5167</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>3203</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>1964</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="n">
-        <v>44503.31491887732</v>
-      </c>
-      <c r="C10" t="n">
+      <c r="B10" s="2">
+        <v>44503.314918877317</v>
+      </c>
+      <c r="C10">
         <v>5654</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>2372</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>3282</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>986</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>92</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>894</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>5447</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>2923</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>2524</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="n">
-        <v>44504.34310040509</v>
-      </c>
-      <c r="C11" t="n">
+      <c r="B11" s="2">
+        <v>44504.343100405087</v>
+      </c>
+      <c r="C11">
         <v>3537</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>4526</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>-989</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>985</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>90</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>895</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>5322</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>3057</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>2265</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="2">
         <v>44505.34596392361</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>5172</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>2886</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>2286</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>1156</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>139</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>1017</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>5635</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>2744</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12">
         <v>2891</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="2">
         <v>44508.41778773148</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>4619</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>3420</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>1199</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>847</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>90</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>757</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>5720</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>2657</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13">
         <v>3063</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="n">
-        <v>44509.41014563658</v>
-      </c>
-      <c r="C14" t="n">
+      <c r="B14" s="2">
+        <v>44509.410145636582</v>
+      </c>
+      <c r="C14">
         <v>3487</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>4524</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>-1037</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>415</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>93</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>322</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>5675</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>2702</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14">
         <v>2973</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="n">
-        <v>44510.35686868055</v>
-      </c>
-      <c r="C15" t="n">
+      <c r="B15" s="2">
+        <v>44510.356868680552</v>
+      </c>
+      <c r="C15">
         <v>2154</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>5916</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>-3762</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>252</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>161</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>91</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>5209</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>3168</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15">
         <v>2041</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="n">
-        <v>44512.34431009259</v>
-      </c>
-      <c r="C16" t="n">
+      <c r="B16" s="2">
+        <v>44512.344310092587</v>
+      </c>
+      <c r="C16">
         <v>4691</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>3350</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>1341</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>382</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>121</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>261</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>5447</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>2942</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16">
         <v>2505</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="n">
+      <c r="B17" s="2">
         <v>44515.31699525463</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>3356</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>4731</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>-1375</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>467</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>178</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>289</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>5356</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>3041</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17">
         <v>2315</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="n">
-        <v>44516.39541506945</v>
-      </c>
-      <c r="C18" t="n">
+      <c r="B18" s="2">
+        <v>44516.395415069448</v>
+      </c>
+      <c r="C18">
         <v>3664</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>4373</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>-709</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>560</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>276</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>284</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>5243</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18">
         <v>3156</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18">
         <v>2087</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="n">
-        <v>44517.36899303241</v>
-      </c>
-      <c r="C19" t="n">
+      <c r="B19" s="2">
+        <v>44517.368993032411</v>
+      </c>
+      <c r="C19">
         <v>2312</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>5789</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>-3477</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>266</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>325</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>-59</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
         <v>4951</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19">
         <v>3448</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19">
         <v>1503</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="n">
-        <v>44518.37329525463</v>
-      </c>
-      <c r="C20" t="n">
+      <c r="B20" s="2">
+        <v>44518.373295254627</v>
+      </c>
+      <c r="C20">
         <v>2669</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>5409</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>-2740</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>283</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>502</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>-219</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20">
         <v>4639</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20">
         <v>3765</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20">
         <v>874</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="n">
-        <v>44519.38869476852</v>
-      </c>
-      <c r="C21" t="n">
+      <c r="B21" s="2">
+        <v>44519.388694768517</v>
+      </c>
+      <c r="C21">
         <v>2533</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>5552</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>-3019</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>291</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>426</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>-135</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
         <v>4311</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21">
         <v>4093</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21">
         <v>218</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="2" t="n">
-        <v>44522.34680422454</v>
-      </c>
-      <c r="C22" t="n">
+      <c r="B22" s="2">
+        <v>44522.346804224537</v>
+      </c>
+      <c r="C22">
         <v>3137</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>5013</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>-1876</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>467</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>715</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>-248</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22">
         <v>4143</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22">
         <v>4270</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22">
         <v>-127</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="2" t="n">
-        <v>44523.32231409722</v>
-      </c>
-      <c r="C23" t="n">
+      <c r="B23" s="2">
+        <v>44523.322314097219</v>
+      </c>
+      <c r="C23">
         <v>3611</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>4498</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>-887</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>131</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>712</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
         <v>-581</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23">
         <v>4056</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23">
         <v>4357</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K23">
         <v>-301</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="2" t="n">
-        <v>44524.3977200463</v>
-      </c>
-      <c r="C24" t="n">
+      <c r="B24" s="2">
+        <v>44524.397720046298</v>
+      </c>
+      <c r="C24">
         <v>4602</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>3459</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>1143</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>142</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>382</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
         <v>-240</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24">
         <v>4108</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J24">
         <v>4305</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K24">
         <v>-197</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="2" t="n">
-        <v>44526.35256924768</v>
-      </c>
-      <c r="C25" t="n">
+      <c r="B25" s="2">
+        <v>44526.352569247683</v>
+      </c>
+      <c r="C25">
         <v>1256</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>6876</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>-5620</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>34</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>562</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
         <v>-528</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25">
         <v>3144</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J25">
         <v>5269</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K25">
         <v>-2125</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="2" t="n">
-        <v>44529.39455379629</v>
-      </c>
-      <c r="C26" t="n">
+      <c r="B26" s="2">
+        <v>44529.394553796294</v>
+      </c>
+      <c r="C26">
         <v>4129</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>4006</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>123</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>61</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>444</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
         <v>-383</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26">
         <v>3132</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J26">
         <v>5281</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K26">
         <v>-2149</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="2" t="n">
+      <c r="B27" s="2">
         <v>44530.40994409722</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>1788</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>6360</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>-4572</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>46</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>887</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
         <v>-841</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I27">
         <v>2419</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J27">
         <v>5994</v>
       </c>
-      <c r="K27" t="n">
+      <c r="K27">
         <v>-3575</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="2" t="n">
-        <v>44531.38076332176</v>
-      </c>
-      <c r="C28" t="n">
+      <c r="B28" s="2">
+        <v>44531.380763321758</v>
+      </c>
+      <c r="C28">
         <v>1670</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>6492</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>-4822</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>73</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>824</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
         <v>-751</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28">
         <v>1940</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J28">
         <v>6473</v>
       </c>
-      <c r="K28" t="n">
+      <c r="K28">
         <v>-4533</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="2" t="n">
-        <v>44532.33020797453</v>
-      </c>
-      <c r="C29" t="n">
+      <c r="B29" s="2">
+        <v>44532.330207974534</v>
+      </c>
+      <c r="C29">
         <v>6014</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>2118</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>3896</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>24</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>816</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
         <v>-792</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I29">
         <v>2476</v>
       </c>
-      <c r="J29" t="n">
+      <c r="J29">
         <v>5956</v>
       </c>
-      <c r="K29" t="n">
+      <c r="K29">
         <v>-3480</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="2" t="n">
-        <v>44533.73936934028</v>
-      </c>
-      <c r="C30" t="n">
+      <c r="B30" s="2">
+        <v>44533.739369340277</v>
+      </c>
+      <c r="C30">
         <v>1854</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>6270</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>-4416</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>40</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>961</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
         <v>-921</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I30">
         <v>2075</v>
       </c>
-      <c r="J30" t="n">
+      <c r="J30">
         <v>6357</v>
       </c>
-      <c r="K30" t="n">
+      <c r="K30">
         <v>-4282</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="2" t="n">
-        <v>44536.35170128472</v>
-      </c>
-      <c r="C31" t="n">
+      <c r="B31" s="2">
+        <v>44536.351701284722</v>
+      </c>
+      <c r="C31">
         <v>5983</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>2187</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>3796</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>82</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>785</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
         <v>-703</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I31">
         <v>2535</v>
       </c>
-      <c r="J31" t="n">
+      <c r="J31">
         <v>5893</v>
       </c>
-      <c r="K31" t="n">
+      <c r="K31">
         <v>-3358</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="2" t="n">
-        <v>44537.34204623842</v>
-      </c>
-      <c r="C32" t="n">
+      <c r="B32" s="2">
+        <v>44537.342046238417</v>
+      </c>
+      <c r="C32">
         <v>6750</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>1403</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>5347</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>168</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>75</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
         <v>93</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I32">
         <v>3268</v>
       </c>
-      <c r="J32" t="n">
+      <c r="J32">
         <v>5160</v>
       </c>
-      <c r="K32" t="n">
+      <c r="K32">
         <v>-1892</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="2" t="n">
-        <v>44538.51368725694</v>
-      </c>
-      <c r="C33" t="n">
+      <c r="B33" s="2">
+        <v>44538.513687256942</v>
+      </c>
+      <c r="C33">
         <v>5523</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>2569</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>2954</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>160</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>79</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
         <v>81</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I33">
         <v>3469</v>
       </c>
-      <c r="J33" t="n">
+      <c r="J33">
         <v>4959</v>
       </c>
-      <c r="K33" t="n">
+      <c r="K33">
         <v>-1490</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="2" t="n">
-        <v>44539.34259184028</v>
-      </c>
-      <c r="C34" t="n">
+      <c r="B34" s="2">
+        <v>44539.342591840279</v>
+      </c>
+      <c r="C34">
         <v>1508</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>6613</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>-5105</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>97</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>99</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
         <v>-2</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I34">
         <v>2883</v>
       </c>
-      <c r="J34" t="n">
+      <c r="J34">
         <v>5545</v>
       </c>
-      <c r="K34" t="n">
+      <c r="K34">
         <v>-2662</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="2" t="n">
-        <v>44540.70868229167</v>
-      </c>
-      <c r="C35" t="n">
+      <c r="B35" s="2">
+        <v>44540.708682291668</v>
+      </c>
+      <c r="C35">
         <v>4044</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>4018</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>26</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>134</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>186</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
         <v>-52</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I35">
         <v>2918</v>
       </c>
-      <c r="J35" t="n">
+      <c r="J35">
         <v>5510</v>
       </c>
-      <c r="K35" t="n">
+      <c r="K35">
         <v>-2592</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="2" t="n">
-        <v>44543.36199491898</v>
-      </c>
-      <c r="C36" t="n">
+      <c r="B36" s="2">
+        <v>44543.361994918982</v>
+      </c>
+      <c r="C36">
         <v>2150</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>6007</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>-3857</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>172</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>420</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
         <v>-248</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I36">
         <v>2519</v>
       </c>
-      <c r="J36" t="n">
+      <c r="J36">
         <v>5925</v>
       </c>
-      <c r="K36" t="n">
+      <c r="K36">
         <v>-3406</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" s="2" t="n">
+      <c r="B37" s="2">
         <v>44544.36404479167</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>2044</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>6072</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>-4028</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>45</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>581</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
         <v>-536</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I37">
         <v>2217</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J37">
         <v>6226</v>
       </c>
-      <c r="K37" t="n">
+      <c r="K37">
         <v>-4009</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" s="2" t="n">
-        <v>44545.37888293982</v>
-      </c>
-      <c r="C38" t="n">
+      <c r="B38" s="2">
+        <v>44545.378882939818</v>
+      </c>
+      <c r="C38">
         <v>5680</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>2427</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>3253</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>174</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>860</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
         <v>-686</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I38">
         <v>2550</v>
       </c>
-      <c r="J38" t="n">
+      <c r="J38">
         <v>5893</v>
       </c>
-      <c r="K38" t="n">
+      <c r="K38">
         <v>-3343</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" s="2" t="n">
-        <v>44546.39054237268</v>
-      </c>
-      <c r="C39" t="n">
+      <c r="B39" s="2">
+        <v>44546.390542372683</v>
+      </c>
+      <c r="C39">
         <v>3045</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>5098</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>-2053</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>285</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>244</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
         <v>41</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I39">
         <v>2371</v>
       </c>
-      <c r="J39" t="n">
+      <c r="J39">
         <v>6073</v>
       </c>
-      <c r="K39" t="n">
+      <c r="K39">
         <v>-3702</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" s="2" t="n">
-        <v>44547.60768001158</v>
-      </c>
-      <c r="C40" t="n">
+      <c r="B40" s="2">
+        <v>44547.607680011577</v>
+      </c>
+      <c r="C40">
         <v>3717</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>4393</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>-676</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>82</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>561</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40">
         <v>-479</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I40">
         <v>2206</v>
       </c>
-      <c r="J40" t="n">
+      <c r="J40">
         <v>6238</v>
       </c>
-      <c r="K40" t="n">
+      <c r="K40">
         <v>-4032</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" s="2" t="n">
+      <c r="B41" s="2">
         <v>44550.35789284722</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>1669</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>6480</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>-4811</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>29</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>640</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41">
         <v>-611</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I41">
         <v>1710</v>
       </c>
-      <c r="J41" t="n">
+      <c r="J41">
         <v>6726</v>
       </c>
-      <c r="K41" t="n">
+      <c r="K41">
         <v>-5016</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" s="2" t="n">
-        <v>44551.3291940162</v>
-      </c>
-      <c r="C42" t="n">
+      <c r="B42" s="2">
+        <v>44551.329194016202</v>
+      </c>
+      <c r="C42">
         <v>6625</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>1468</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>5157</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>67</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>166</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42">
         <v>-99</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I42">
         <v>2355</v>
       </c>
-      <c r="J42" t="n">
+      <c r="J42">
         <v>6081</v>
       </c>
-      <c r="K42" t="n">
+      <c r="K42">
         <v>-3726</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" s="2" t="n">
-        <v>44552.4115341088</v>
-      </c>
-      <c r="C43" t="n">
+      <c r="B43" s="2">
+        <v>44552.411534108804</v>
+      </c>
+      <c r="C43">
         <v>5866</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>2214</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>3652</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>111</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>128</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43">
         <v>-17</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I43">
         <v>2714</v>
       </c>
-      <c r="J43" t="n">
+      <c r="J43">
         <v>5722</v>
       </c>
-      <c r="K43" t="n">
+      <c r="K43">
         <v>-3008</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" s="2" t="n">
-        <v>44553.39582753472</v>
-      </c>
-      <c r="C44" t="n">
+      <c r="B44" s="2">
+        <v>44553.395827534718</v>
+      </c>
+      <c r="C44">
         <v>5948</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>2155</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>3793</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>222</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>105</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
         <v>117</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I44">
         <v>3033</v>
       </c>
-      <c r="J44" t="n">
+      <c r="J44">
         <v>5406</v>
       </c>
-      <c r="K44" t="n">
+      <c r="K44">
         <v>-2373</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" s="2" t="n">
-        <v>44557.4311341088</v>
-      </c>
-      <c r="C45" t="n">
+      <c r="B45" s="2">
+        <v>44557.431134108803</v>
+      </c>
+      <c r="C45">
         <v>5316</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>2814</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>2502</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>468</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>182</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45">
         <v>286</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I45">
         <v>3426</v>
       </c>
-      <c r="J45" t="n">
+      <c r="J45">
         <v>5004</v>
       </c>
-      <c r="K45" t="n">
+      <c r="K45">
         <v>-1578</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" s="2" t="n">
-        <v>44558.45346303241</v>
-      </c>
-      <c r="C46" t="n">
+      <c r="B46" s="2">
+        <v>44558.453463032412</v>
+      </c>
+      <c r="C46">
         <v>3146</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>4929</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>-1783</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>559</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>311</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46">
         <v>248</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I46">
         <v>3390</v>
       </c>
-      <c r="J46" t="n">
+      <c r="J46">
         <v>5041</v>
       </c>
-      <c r="K46" t="n">
+      <c r="K46">
         <v>-1651</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" s="2" t="n">
-        <v>44559.43552010417</v>
-      </c>
-      <c r="C47" t="n">
+      <c r="B47" s="2">
+        <v>44559.435520104169</v>
+      </c>
+      <c r="C47">
         <v>3864</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>4222</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>-358</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>420</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>488</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47">
         <v>-68</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I47">
         <v>3351</v>
       </c>
-      <c r="J47" t="n">
+      <c r="J47">
         <v>5082</v>
       </c>
-      <c r="K47" t="n">
+      <c r="K47">
         <v>-1731</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" s="2" t="n">
-        <v>44560.38234918981</v>
-      </c>
-      <c r="C48" t="n">
+      <c r="B48" s="2">
+        <v>44560.382349189807</v>
+      </c>
+      <c r="C48">
         <v>4324</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>3769</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>555</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>444</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>194</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48">
         <v>250</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I48">
         <v>3378</v>
       </c>
-      <c r="J48" t="n">
+      <c r="J48">
         <v>5055</v>
       </c>
-      <c r="K48" t="n">
+      <c r="K48">
         <v>-1677</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" s="2" t="n">
-        <v>44561.4389515162</v>
-      </c>
-      <c r="C49" t="n">
+      <c r="B49" s="2">
+        <v>44561.438951516197</v>
+      </c>
+      <c r="C49">
         <v>3919</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>4148</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>-229</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>246</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>158</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49">
         <v>88</v>
       </c>
-      <c r="I49" t="n">
+      <c r="I49">
         <v>3436</v>
       </c>
-      <c r="J49" t="n">
+      <c r="J49">
         <v>4997</v>
       </c>
-      <c r="K49" t="n">
+      <c r="K49">
         <v>-1561</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" s="2" t="n">
-        <v>44564.34829358797</v>
-      </c>
-      <c r="C50" t="n">
+      <c r="B50" s="2">
+        <v>44564.348293587973</v>
+      </c>
+      <c r="C50">
         <v>5459</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>2711</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>2748</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>240</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>103</v>
       </c>
-      <c r="H50" t="n">
+      <c r="H50">
         <v>137</v>
       </c>
-      <c r="I50" t="n">
+      <c r="I50">
         <v>3838</v>
       </c>
-      <c r="J50" t="n">
+      <c r="J50">
         <v>4595</v>
       </c>
-      <c r="K50" t="n">
+      <c r="K50">
         <v>-757</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" s="2" t="n">
-        <v>44565.35102104166</v>
-      </c>
-      <c r="C51" t="n">
+      <c r="B51" s="2">
+        <v>44565.351021041657</v>
+      </c>
+      <c r="C51">
         <v>4007</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>4110</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>-103</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>453</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>216</v>
       </c>
-      <c r="H51" t="n">
+      <c r="H51">
         <v>237</v>
       </c>
-      <c r="I51" t="n">
+      <c r="I51">
         <v>3990</v>
       </c>
-      <c r="J51" t="n">
+      <c r="J51">
         <v>4436</v>
       </c>
-      <c r="K51" t="n">
+      <c r="K51">
         <v>-446</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" s="2" t="n">
-        <v>44566.37143184028</v>
-      </c>
-      <c r="C52" t="n">
+      <c r="B52" s="2">
+        <v>44566.371431840278</v>
+      </c>
+      <c r="C52">
         <v>1237</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>6917</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>-5680</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>349</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>543</v>
       </c>
-      <c r="H52" t="n">
+      <c r="H52">
         <v>-194</v>
       </c>
-      <c r="I52" t="n">
+      <c r="I52">
         <v>3187</v>
       </c>
-      <c r="J52" t="n">
+      <c r="J52">
         <v>5239</v>
       </c>
-      <c r="K52" t="n">
+      <c r="K52">
         <v>-2052</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" s="2" t="n">
-        <v>44567.35282760417</v>
-      </c>
-      <c r="C53" t="n">
+      <c r="B53" s="2">
+        <v>44567.352827604169</v>
+      </c>
+      <c r="C53">
         <v>4006</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>4085</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>-79</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>145</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>822</v>
       </c>
-      <c r="H53" t="n">
+      <c r="H53">
         <v>-677</v>
       </c>
-      <c r="I53" t="n">
+      <c r="I53">
         <v>3213</v>
       </c>
-      <c r="J53" t="n">
+      <c r="J53">
         <v>5213</v>
       </c>
-      <c r="K53" t="n">
+      <c r="K53">
         <v>-2000</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" s="2" t="n">
-        <v>44568.51203725694</v>
-      </c>
-      <c r="C54" t="n">
+      <c r="B54" s="2">
+        <v>44568.512037256944</v>
+      </c>
+      <c r="C54">
         <v>3608</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>4430</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>-822</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>215</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>447</v>
       </c>
-      <c r="H54" t="n">
+      <c r="H54">
         <v>-232</v>
       </c>
-      <c r="I54" t="n">
+      <c r="I54">
         <v>3129</v>
       </c>
-      <c r="J54" t="n">
+      <c r="J54">
         <v>5297</v>
       </c>
-      <c r="K54" t="n">
+      <c r="K54">
         <v>-2168</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" s="2" t="n">
-        <v>44571.34912231482</v>
-      </c>
-      <c r="C55" t="n">
+      <c r="B55" s="2">
+        <v>44571.349122314823</v>
+      </c>
+      <c r="C55">
         <v>2724</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>5508</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>-2784</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>202</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>1005</v>
       </c>
-      <c r="H55" t="n">
+      <c r="H55">
         <v>-803</v>
       </c>
-      <c r="I55" t="n">
+      <c r="I55">
         <v>2942</v>
       </c>
-      <c r="J55" t="n">
+      <c r="J55">
         <v>5650</v>
       </c>
-      <c r="K55" t="n">
+      <c r="K55">
         <v>-2708</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" s="2" t="n">
-        <v>44572.34881621528</v>
-      </c>
-      <c r="C56" t="n">
+      <c r="B56" s="2">
+        <v>44572.348816215279</v>
+      </c>
+      <c r="C56">
         <v>6243</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>1985</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>4258</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>186</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>212</v>
       </c>
-      <c r="H56" t="n">
+      <c r="H56">
         <v>-26</v>
       </c>
-      <c r="I56" t="n">
+      <c r="I56">
         <v>3382</v>
       </c>
-      <c r="J56" t="n">
+      <c r="J56">
         <v>5210</v>
       </c>
-      <c r="K56" t="n">
+      <c r="K56">
         <v>-1828</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" s="2" t="n">
-        <v>44573.34207251157</v>
-      </c>
-      <c r="C57" t="n">
+      <c r="B57" s="2">
+        <v>44573.342072511572</v>
+      </c>
+      <c r="C57">
         <v>4088</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>4109</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>-21</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>296</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57">
         <v>176</v>
       </c>
-      <c r="H57" t="n">
+      <c r="H57">
         <v>120</v>
       </c>
-      <c r="I57" t="n">
+      <c r="I57">
         <v>3485</v>
       </c>
-      <c r="J57" t="n">
+      <c r="J57">
         <v>5107</v>
       </c>
-      <c r="K57" t="n">
+      <c r="K57">
         <v>-1622</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" s="2" t="n">
+      <c r="B58" s="2">
         <v>44574.34580534722</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>2654</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>5588</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>-2934</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>335</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>463</v>
       </c>
-      <c r="H58" t="n">
+      <c r="H58">
         <v>-128</v>
       </c>
-      <c r="I58" t="n">
+      <c r="I58">
         <v>3231</v>
       </c>
-      <c r="J58" t="n">
+      <c r="J58">
         <v>5367</v>
       </c>
-      <c r="K58" t="n">
+      <c r="K58">
         <v>-2136</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" s="2" t="n">
-        <v>44575.50548902778</v>
-      </c>
-      <c r="C59" t="n">
+      <c r="B59" s="2">
+        <v>44575.505489027782</v>
+      </c>
+      <c r="C59">
         <v>3713</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>4487</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>-774</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>213</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>840</v>
       </c>
-      <c r="H59" t="n">
+      <c r="H59">
         <v>-627</v>
       </c>
-      <c r="I59" t="n">
+      <c r="I59">
         <v>3169</v>
       </c>
-      <c r="J59" t="n">
+      <c r="J59">
         <v>5429</v>
       </c>
-      <c r="K59" t="n">
+      <c r="K59">
         <v>-2260</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" s="2" t="n">
-        <v>44579.34822121528</v>
-      </c>
-      <c r="C60" t="n">
+      <c r="B60" s="2">
+        <v>44579.348221215281</v>
+      </c>
+      <c r="C60">
         <v>1218</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>7082</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>-5864</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>216</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>1154</v>
       </c>
-      <c r="H60" t="n">
+      <c r="H60">
         <v>-938</v>
       </c>
-      <c r="I60" t="n">
+      <c r="I60">
         <v>2545</v>
       </c>
-      <c r="J60" t="n">
+      <c r="J60">
         <v>6051</v>
       </c>
-      <c r="K60" t="n">
+      <c r="K60">
         <v>-3506</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" s="2" t="n">
-        <v>44580.34558532407</v>
-      </c>
-      <c r="C61" t="n">
+      <c r="B61" s="2">
+        <v>44580.345585324067</v>
+      </c>
+      <c r="C61">
         <v>2538</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>5702</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>-3164</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>108</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>1033</v>
       </c>
-      <c r="H61" t="n">
+      <c r="H61">
         <v>-925</v>
       </c>
-      <c r="I61" t="n">
+      <c r="I61">
         <v>2343</v>
       </c>
-      <c r="J61" t="n">
+      <c r="J61">
         <v>6253</v>
       </c>
-      <c r="K61" t="n">
+      <c r="K61">
         <v>-3910</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" s="2" t="n">
-        <v>44581.37797461806</v>
-      </c>
-      <c r="C62" t="n">
+      <c r="B62" s="2">
+        <v>44581.377974618059</v>
+      </c>
+      <c r="C62">
         <v>1956</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>6281</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>-4325</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>73</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62">
         <v>903</v>
       </c>
-      <c r="H62" t="n">
+      <c r="H62">
         <v>-830</v>
       </c>
-      <c r="I62" t="n">
+      <c r="I62">
         <v>2033</v>
       </c>
-      <c r="J62" t="n">
+      <c r="J62">
         <v>6563</v>
       </c>
-      <c r="K62" t="n">
+      <c r="K62">
         <v>-4530</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" s="2" t="n">
-        <v>44582.55874290509</v>
-      </c>
-      <c r="C63" t="n">
+      <c r="B63" s="2">
+        <v>44582.558742905087</v>
+      </c>
+      <c r="C63">
         <v>1422</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>6922</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>-5500</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>22</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63">
         <v>1691</v>
       </c>
-      <c r="H63" t="n">
+      <c r="H63">
         <v>-1669</v>
       </c>
-      <c r="I63" t="n">
+      <c r="I63">
         <v>1590</v>
       </c>
-      <c r="J63" t="n">
+      <c r="J63">
         <v>7006</v>
       </c>
-      <c r="K63" t="n">
+      <c r="K63">
         <v>-5416</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" s="2" t="n">
-        <v>44585.33905521991</v>
-      </c>
-      <c r="C64" t="n">
+      <c r="B64" s="2">
+        <v>44585.339055219913</v>
+      </c>
+      <c r="C64">
         <v>4259</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>4075</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>184</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>24</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64">
         <v>2345</v>
       </c>
-      <c r="H64" t="n">
+      <c r="H64">
         <v>-2321</v>
       </c>
-      <c r="I64" t="n">
+      <c r="I64">
         <v>1569</v>
       </c>
-      <c r="J64" t="n">
+      <c r="J64">
         <v>7011</v>
       </c>
-      <c r="K64" t="n">
+      <c r="K64">
         <v>-5442</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" s="2" t="n">
-        <v>44586.3379528125</v>
-      </c>
-      <c r="C65" t="n">
+      <c r="B65" s="2">
+        <v>44586.337952812501</v>
+      </c>
+      <c r="C65">
         <v>3088</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>5171</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>-2083</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>31</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G65">
         <v>280</v>
       </c>
-      <c r="H65" t="n">
+      <c r="H65">
         <v>-249</v>
       </c>
-      <c r="I65" t="n">
+      <c r="I65">
         <v>1589</v>
       </c>
-      <c r="J65" t="n">
+      <c r="J65">
         <v>6991</v>
       </c>
-      <c r="K65" t="n">
+      <c r="K65">
         <v>-5402</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" s="2" t="n">
-        <v>44587.32361883102</v>
-      </c>
-      <c r="C66" t="n">
+      <c r="B66" s="2">
+        <v>44587.323618831018</v>
+      </c>
+      <c r="C66">
         <v>2383</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>5881</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>-3498</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>82</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G66">
         <v>542</v>
       </c>
-      <c r="H66" t="n">
+      <c r="H66">
         <v>-460</v>
       </c>
-      <c r="I66" t="n">
+      <c r="I66">
         <v>1499</v>
       </c>
-      <c r="J66" t="n">
+      <c r="J66">
         <v>7081</v>
       </c>
-      <c r="K66" t="n">
+      <c r="K66">
         <v>-5582</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" s="2" t="n">
-        <v>44588.40606255787</v>
-      </c>
-      <c r="C67" t="n">
+      <c r="B67" s="2">
+        <v>44588.406062557871</v>
+      </c>
+      <c r="C67">
         <v>1970</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>6335</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>-4365</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>74</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67">
         <v>1112</v>
       </c>
-      <c r="H67" t="n">
+      <c r="H67">
         <v>-1038</v>
       </c>
-      <c r="I67" t="n">
+      <c r="I67">
         <v>1335</v>
       </c>
-      <c r="J67" t="n">
+      <c r="J67">
         <v>7245</v>
       </c>
-      <c r="K67" t="n">
+      <c r="K67">
         <v>-5910</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" s="2" t="n">
-        <v>44589.35466844907</v>
-      </c>
-      <c r="C68" t="n">
+      <c r="B68" s="2">
+        <v>44589.354668449072</v>
+      </c>
+      <c r="C68">
         <v>6063</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>2174</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>3889</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68">
         <v>46</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G68">
         <v>1514</v>
       </c>
-      <c r="H68" t="n">
+      <c r="H68">
         <v>-1468</v>
       </c>
-      <c r="I68" t="n">
+      <c r="I68">
         <v>1504</v>
       </c>
-      <c r="J68" t="n">
+      <c r="J68">
         <v>7076</v>
       </c>
-      <c r="K68" t="n">
+      <c r="K68">
         <v>-5572</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" s="2" t="n">
+      <c r="B69" s="2">
         <v>44592.35286337963</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>7142</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>1143</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>5999</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69">
         <v>54</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G69">
         <v>167</v>
       </c>
-      <c r="H69" t="n">
+      <c r="H69">
         <v>-113</v>
       </c>
-      <c r="I69" t="n">
+      <c r="I69">
         <v>1984</v>
       </c>
-      <c r="J69" t="n">
+      <c r="J69">
         <v>6597</v>
       </c>
-      <c r="K69" t="n">
+      <c r="K69">
         <v>-4613</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" s="2" t="n">
+      <c r="B70" s="2">
         <v>44593.45125046296</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>6265</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>2006</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>4259</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>130</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70">
         <v>109</v>
       </c>
-      <c r="H70" t="n">
+      <c r="H70">
         <v>21</v>
       </c>
-      <c r="I70" t="n">
+      <c r="I70">
         <v>2359</v>
       </c>
-      <c r="J70" t="n">
+      <c r="J70">
         <v>6222</v>
       </c>
-      <c r="K70" t="n">
+      <c r="K70">
         <v>-3863</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" s="2" t="n">
+      <c r="B71" s="2">
         <v>44594.3423778125</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>3757</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>4476</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>-719</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>158</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71">
         <v>95</v>
       </c>
-      <c r="H71" t="n">
+      <c r="H71">
         <v>63</v>
       </c>
-      <c r="I71" t="n">
+      <c r="I71">
         <v>2425</v>
       </c>
-      <c r="J71" t="n">
+      <c r="J71">
         <v>6156</v>
       </c>
-      <c r="K71" t="n">
+      <c r="K71">
         <v>-3731</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" s="2" t="n">
-        <v>44595.32776372685</v>
-      </c>
-      <c r="C72" t="n">
+      <c r="B72" s="2">
+        <v>44595.327763726847</v>
+      </c>
+      <c r="C72">
         <v>1350</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>6909</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>-5559</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72">
         <v>95</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72">
         <v>295</v>
       </c>
-      <c r="H72" t="n">
+      <c r="H72">
         <v>-200</v>
       </c>
-      <c r="I72" t="n">
+      <c r="I72">
         <v>2036</v>
       </c>
-      <c r="J72" t="n">
+      <c r="J72">
         <v>6545</v>
       </c>
-      <c r="K72" t="n">
+      <c r="K72">
         <v>-4509</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" s="2" t="n">
-        <v>44596.38204256944</v>
-      </c>
-      <c r="C73" t="n">
+      <c r="B73" s="2">
+        <v>44596.382042569443</v>
+      </c>
+      <c r="C73">
         <v>4836</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>3359</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>1477</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73">
         <v>130</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G73">
         <v>544</v>
       </c>
-      <c r="H73" t="n">
+      <c r="H73">
         <v>-414</v>
       </c>
-      <c r="I73" t="n">
+      <c r="I73">
         <v>2140</v>
       </c>
-      <c r="J73" t="n">
+      <c r="J73">
         <v>6441</v>
       </c>
-      <c r="K73" t="n">
+      <c r="K73">
         <v>-4301</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" s="2" t="n">
-        <v>44599.41646484954</v>
-      </c>
-      <c r="C74" t="n">
+      <c r="B74" s="2">
+        <v>44599.416464849543</v>
+      </c>
+      <c r="C74">
         <v>4637</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>3548</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>1089</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F74">
         <v>103</v>
       </c>
-      <c r="G74" t="n">
+      <c r="G74">
         <v>258</v>
       </c>
-      <c r="H74" t="n">
+      <c r="H74">
         <v>-155</v>
       </c>
-      <c r="I74" t="n">
+      <c r="I74">
         <v>2292</v>
       </c>
-      <c r="J74" t="n">
+      <c r="J74">
         <v>6281</v>
       </c>
-      <c r="K74" t="n">
+      <c r="K74">
         <v>-3989</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" s="2" t="n">
-        <v>44600.3967803125</v>
-      </c>
-      <c r="C75" t="n">
+      <c r="B75" s="2">
+        <v>44600.396780312498</v>
+      </c>
+      <c r="C75">
         <v>5581</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>2622</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>2959</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F75">
         <v>124</v>
       </c>
-      <c r="G75" t="n">
+      <c r="G75">
         <v>309</v>
       </c>
-      <c r="H75" t="n">
+      <c r="H75">
         <v>-185</v>
       </c>
-      <c r="I75" t="n">
+      <c r="I75">
         <v>2649</v>
       </c>
-      <c r="J75" t="n">
+      <c r="J75">
         <v>5924</v>
       </c>
-      <c r="K75" t="n">
+      <c r="K75">
         <v>-3275</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" s="2" t="n">
-        <v>44601.3802843287</v>
-      </c>
-      <c r="C76" t="n">
+      <c r="B76" s="2">
+        <v>44601.380284328698</v>
+      </c>
+      <c r="C76">
         <v>6418</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>1788</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>4630</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76">
         <v>181</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G76">
         <v>131</v>
       </c>
-      <c r="H76" t="n">
+      <c r="H76">
         <v>50</v>
       </c>
-      <c r="I76" t="n">
+      <c r="I76">
         <v>3171</v>
       </c>
-      <c r="J76" t="n">
+      <c r="J76">
         <v>5402</v>
       </c>
-      <c r="K76" t="n">
+      <c r="K76">
         <v>-2231</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" s="2" t="n">
+      <c r="B77" s="2">
         <v>44602.39486453704</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>1885</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>6385</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>-4500</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77">
         <v>194</v>
       </c>
-      <c r="G77" t="n">
+      <c r="G77">
         <v>486</v>
       </c>
-      <c r="H77" t="n">
+      <c r="H77">
         <v>-292</v>
       </c>
-      <c r="I77" t="n">
+      <c r="I77">
         <v>2779</v>
       </c>
-      <c r="J77" t="n">
+      <c r="J77">
         <v>5794</v>
       </c>
-      <c r="K77" t="n">
+      <c r="K77">
         <v>-3015</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" s="2" t="n">
+      <c r="B78" s="2">
         <v>44603.32290997685</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>2289</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>5936</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>-3647</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78">
         <v>139</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G78">
         <v>598</v>
       </c>
-      <c r="H78" t="n">
+      <c r="H78">
         <v>-459</v>
       </c>
-      <c r="I78" t="n">
+      <c r="I78">
         <v>2542</v>
       </c>
-      <c r="J78" t="n">
+      <c r="J78">
         <v>6035</v>
       </c>
-      <c r="K78" t="n">
+      <c r="K78">
         <v>-3493</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" s="2" t="n">
-        <v>44606.38058643518</v>
-      </c>
-      <c r="C79" t="n">
+      <c r="B79" s="2">
+        <v>44606.380586435182</v>
+      </c>
+      <c r="C79">
         <v>2207</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>6018</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>-3811</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79">
         <v>61</v>
       </c>
-      <c r="G79" t="n">
+      <c r="G79">
         <v>677</v>
       </c>
-      <c r="H79" t="n">
+      <c r="H79">
         <v>-616</v>
       </c>
-      <c r="I79" t="n">
+      <c r="I79">
         <v>2319</v>
       </c>
-      <c r="J79" t="n">
+      <c r="J79">
         <v>6254</v>
       </c>
-      <c r="K79" t="n">
+      <c r="K79">
         <v>-3935</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" s="2" t="n">
-        <v>44607.36974143518</v>
-      </c>
-      <c r="C80" t="n">
+      <c r="B80" s="2">
+        <v>44607.369741435177</v>
+      </c>
+      <c r="C80">
         <v>6717</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>1534</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>5183</v>
       </c>
-      <c r="F80" t="n">
+      <c r="F80">
         <v>73</v>
       </c>
-      <c r="G80" t="n">
+      <c r="G80">
         <v>311</v>
       </c>
-      <c r="H80" t="n">
+      <c r="H80">
         <v>-238</v>
       </c>
-      <c r="I80" t="n">
+      <c r="I80">
         <v>2966</v>
       </c>
-      <c r="J80" t="n">
+      <c r="J80">
         <v>5607</v>
       </c>
-      <c r="K80" t="n">
+      <c r="K80">
         <v>-2641</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" s="2" t="n">
-        <v>44608.39985342592</v>
-      </c>
-      <c r="C81" t="n">
+      <c r="B81" s="2">
+        <v>44608.399853425923</v>
+      </c>
+      <c r="C81">
         <v>5003</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>3185</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>1818</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81">
         <v>127</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G81">
         <v>304</v>
       </c>
-      <c r="H81" t="n">
+      <c r="H81">
         <v>-177</v>
       </c>
-      <c r="I81" t="n">
+      <c r="I81">
         <v>3126</v>
       </c>
-      <c r="J81" t="n">
+      <c r="J81">
         <v>5447</v>
       </c>
-      <c r="K81" t="n">
+      <c r="K81">
         <v>-2321</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" s="2" t="n">
-        <v>44609.37823881944</v>
-      </c>
-      <c r="C82" t="n">
+      <c r="B82" s="2">
+        <v>44609.378238819438</v>
+      </c>
+      <c r="C82">
         <v>1663</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>6582</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>-4919</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F82">
         <v>45</v>
       </c>
-      <c r="G82" t="n">
+      <c r="G82">
         <v>354</v>
       </c>
-      <c r="H82" t="n">
+      <c r="H82">
         <v>-309</v>
       </c>
-      <c r="I82" t="n">
+      <c r="I82">
         <v>2605</v>
       </c>
-      <c r="J82" t="n">
+      <c r="J82">
         <v>5968</v>
       </c>
-      <c r="K82" t="n">
+      <c r="K82">
         <v>-3363</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" s="2" t="n">
-        <v>44610.39972234954</v>
-      </c>
-      <c r="C83" t="n">
+      <c r="B83" s="2">
+        <v>44610.399722349539</v>
+      </c>
+      <c r="C83">
         <v>2407</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>5756</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>-3349</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F83">
         <v>46</v>
       </c>
-      <c r="G83" t="n">
+      <c r="G83">
         <v>554</v>
       </c>
-      <c r="H83" t="n">
+      <c r="H83">
         <v>-508</v>
       </c>
-      <c r="I83" t="n">
+      <c r="I83">
         <v>2409</v>
       </c>
-      <c r="J83" t="n">
+      <c r="J83">
         <v>6164</v>
       </c>
-      <c r="K83" t="n">
+      <c r="K83">
         <v>-3755</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" s="2" t="n">
+      <c r="B84" s="2">
         <v>44614.34768446759</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>1686</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>6594</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>-4908</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F84">
         <v>77</v>
       </c>
-      <c r="G84" t="n">
+      <c r="G84">
         <v>947</v>
       </c>
-      <c r="H84" t="n">
+      <c r="H84">
         <v>-870</v>
       </c>
-      <c r="I84" t="n">
+      <c r="I84">
         <v>2052</v>
       </c>
-      <c r="J84" t="n">
+      <c r="J84">
         <v>6525</v>
       </c>
-      <c r="K84" t="n">
+      <c r="K84">
         <v>-4473</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" s="2" t="n">
-        <v>44615.36392350694</v>
-      </c>
-      <c r="C85" t="n">
+      <c r="B85" s="2">
+        <v>44615.363923506942</v>
+      </c>
+      <c r="C85">
         <v>1809</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>6386</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>-4577</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F85">
         <v>71</v>
       </c>
-      <c r="G85" t="n">
+      <c r="G85">
         <v>1123</v>
       </c>
-      <c r="H85" t="n">
+      <c r="H85">
         <v>-1052</v>
       </c>
-      <c r="I85" t="n">
+      <c r="I85">
         <v>1841</v>
       </c>
-      <c r="J85" t="n">
+      <c r="J85">
         <v>6736</v>
       </c>
-      <c r="K85" t="n">
+      <c r="K85">
         <v>-4895</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" s="2" t="n">
-        <v>44616.42517129629</v>
-      </c>
-      <c r="C86" t="n">
+      <c r="B86" s="2">
+        <v>44616.425171296287</v>
+      </c>
+      <c r="C86">
         <v>5172</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>3139</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86">
         <v>2033</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F86">
         <v>96</v>
       </c>
-      <c r="G86" t="n">
+      <c r="G86">
         <v>2285</v>
       </c>
-      <c r="H86" t="n">
+      <c r="H86">
         <v>-2189</v>
       </c>
-      <c r="I86" t="n">
+      <c r="I86">
         <v>1921</v>
       </c>
-      <c r="J86" t="n">
+      <c r="J86">
         <v>6656</v>
       </c>
-      <c r="K86" t="n">
+      <c r="K86">
         <v>-4735</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" s="2" t="n">
+      <c r="B87" s="2">
         <v>44617.341943125</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>6551</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>1661</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>4890</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F87">
         <v>88</v>
       </c>
-      <c r="G87" t="n">
+      <c r="G87">
         <v>122</v>
       </c>
-      <c r="H87" t="n">
+      <c r="H87">
         <v>-34</v>
       </c>
-      <c r="I87" t="n">
+      <c r="I87">
         <v>2536</v>
       </c>
-      <c r="J87" t="n">
+      <c r="J87">
         <v>6041</v>
       </c>
-      <c r="K87" t="n">
+      <c r="K87">
         <v>-3505</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" s="2" t="n">
-        <v>44620.33955344908</v>
-      </c>
-      <c r="C88" t="n">
+      <c r="B88" s="2">
+        <v>44620.339553449077</v>
+      </c>
+      <c r="C88">
         <v>3987</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>4232</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88">
         <v>-245</v>
       </c>
-      <c r="F88" t="n">
+      <c r="F88">
         <v>141</v>
       </c>
-      <c r="G88" t="n">
+      <c r="G88">
         <v>164</v>
       </c>
-      <c r="H88" t="n">
+      <c r="H88">
         <v>-23</v>
       </c>
-      <c r="I88" t="n">
+      <c r="I88">
         <v>2529</v>
       </c>
-      <c r="J88" t="n">
+      <c r="J88">
         <v>6042</v>
       </c>
-      <c r="K88" t="n">
+      <c r="K88">
         <v>-3513</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" s="2" t="n">
-        <v>44621.34937418981</v>
-      </c>
-      <c r="C89" t="n">
+      <c r="B89" s="2">
+        <v>44621.349374189813</v>
+      </c>
+      <c r="C89">
         <v>2596</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>5647</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>-3051</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F89">
         <v>214</v>
       </c>
-      <c r="G89" t="n">
+      <c r="G89">
         <v>321</v>
       </c>
-      <c r="H89" t="n">
+      <c r="H89">
         <v>-107</v>
       </c>
-      <c r="I89" t="n">
+      <c r="I89">
         <v>2231</v>
       </c>
-      <c r="J89" t="n">
+      <c r="J89">
         <v>6340</v>
       </c>
-      <c r="K89" t="n">
+      <c r="K89">
         <v>-4109</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" s="2" t="n">
-        <v>44622.43820824074</v>
-      </c>
-      <c r="C90" t="n">
+      <c r="B90" s="2">
+        <v>44622.438208240739</v>
+      </c>
+      <c r="C90">
         <v>6019</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>2190</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90">
         <v>3829</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F90">
         <v>258</v>
       </c>
-      <c r="G90" t="n">
+      <c r="G90">
         <v>231</v>
       </c>
-      <c r="H90" t="n">
+      <c r="H90">
         <v>27</v>
       </c>
-      <c r="I90" t="n">
+      <c r="I90">
         <v>2725</v>
       </c>
-      <c r="J90" t="n">
+      <c r="J90">
         <v>5846</v>
       </c>
-      <c r="K90" t="n">
+      <c r="K90">
         <v>-3121</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" s="2" t="n">
-        <v>44623.36671223379</v>
-      </c>
-      <c r="C91" t="n">
+      <c r="B91" s="2">
+        <v>44623.366712233787</v>
+      </c>
+      <c r="C91">
         <v>2718</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>5433</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>-2715</v>
       </c>
-      <c r="F91" t="n">
+      <c r="F91">
         <v>215</v>
       </c>
-      <c r="G91" t="n">
+      <c r="G91">
         <v>414</v>
       </c>
-      <c r="H91" t="n">
+      <c r="H91">
         <v>-199</v>
       </c>
-      <c r="I91" t="n">
+      <c r="I91">
         <v>2611</v>
       </c>
-      <c r="J91" t="n">
+      <c r="J91">
         <v>5960</v>
       </c>
-      <c r="K91" t="n">
+      <c r="K91">
         <v>-3349</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" s="2" t="n">
+      <c r="B92" s="2">
         <v>44624.39029635417</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>2289</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>5902</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92">
         <v>-3613</v>
       </c>
-      <c r="F92" t="n">
+      <c r="F92">
         <v>278</v>
       </c>
-      <c r="G92" t="n">
+      <c r="G92">
         <v>911</v>
       </c>
-      <c r="H92" t="n">
+      <c r="H92">
         <v>-633</v>
       </c>
-      <c r="I92" t="n">
+      <c r="I92">
         <v>2389</v>
       </c>
-      <c r="J92" t="n">
+      <c r="J92">
         <v>6182</v>
       </c>
-      <c r="K92" t="n">
+      <c r="K92">
         <v>-3793</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" s="2" t="n">
-        <v>44627.32911982639</v>
-      </c>
-      <c r="C93" t="n">
+      <c r="B93" s="2">
+        <v>44627.329119826391</v>
+      </c>
+      <c r="C93">
         <v>1781</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>6481</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E93">
         <v>-4700</v>
       </c>
-      <c r="F93" t="n">
+      <c r="F93">
         <v>363</v>
       </c>
-      <c r="G93" t="n">
+      <c r="G93">
         <v>1481</v>
       </c>
-      <c r="H93" t="n">
+      <c r="H93">
         <v>-1118</v>
       </c>
-      <c r="I93" t="n">
+      <c r="I93">
         <v>2048</v>
       </c>
-      <c r="J93" t="n">
+      <c r="J93">
         <v>6516</v>
       </c>
-      <c r="K93" t="n">
+      <c r="K93">
         <v>-4468</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" s="2" t="n">
-        <v>44628.52345460648</v>
-      </c>
-      <c r="C94" t="n">
+      <c r="B94" s="2">
+        <v>44628.523454606482</v>
+      </c>
+      <c r="C94">
         <v>4161</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>4017</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94">
         <v>144</v>
       </c>
-      <c r="F94" t="n">
+      <c r="F94">
         <v>250</v>
       </c>
-      <c r="G94" t="n">
+      <c r="G94">
         <v>1436</v>
       </c>
-      <c r="H94" t="n">
+      <c r="H94">
         <v>-1186</v>
       </c>
-      <c r="I94" t="n">
+      <c r="I94">
         <v>2104</v>
       </c>
-      <c r="J94" t="n">
+      <c r="J94">
         <v>6460</v>
       </c>
-      <c r="K94" t="n">
+      <c r="K94">
         <v>-4356</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" s="2" t="n">
-        <v>44629.37360998843</v>
-      </c>
-      <c r="C95" t="n">
+      <c r="B95" s="2">
+        <v>44629.373609988434</v>
+      </c>
+      <c r="C95">
         <v>6520</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>1704</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95">
         <v>4816</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F95">
         <v>48</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G95">
         <v>204</v>
       </c>
-      <c r="H95" t="n">
+      <c r="H95">
         <v>-156</v>
       </c>
-      <c r="I95" t="n">
+      <c r="I95">
         <v>2460</v>
       </c>
-      <c r="J95" t="n">
+      <c r="J95">
         <v>6104</v>
       </c>
-      <c r="K95" t="n">
+      <c r="K95">
         <v>-3644</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" s="2" t="n">
-        <v>44630.3604252662</v>
-      </c>
-      <c r="C96" t="n">
+      <c r="B96" s="2">
+        <v>44630.360425266197</v>
+      </c>
+      <c r="C96">
         <v>2940</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>5208</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96">
         <v>-2268</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F96">
         <v>69</v>
       </c>
-      <c r="G96" t="n">
+      <c r="G96">
         <v>568</v>
       </c>
-      <c r="H96" t="n">
+      <c r="H96">
         <v>-499</v>
       </c>
-      <c r="I96" t="n">
+      <c r="I96">
         <v>2439</v>
       </c>
-      <c r="J96" t="n">
+      <c r="J96">
         <v>6125</v>
       </c>
-      <c r="K96" t="n">
+      <c r="K96">
         <v>-3686</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" s="2" t="n">
-        <v>44631.34329800926</v>
-      </c>
-      <c r="C97" t="n">
+      <c r="B97" s="2">
+        <v>44631.343298009262</v>
+      </c>
+      <c r="C97">
         <v>1845</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>6345</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97">
         <v>-4500</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F97">
         <v>114</v>
       </c>
-      <c r="G97" t="n">
+      <c r="G97">
         <v>786</v>
       </c>
-      <c r="H97" t="n">
+      <c r="H97">
         <v>-672</v>
       </c>
-      <c r="I97" t="n">
+      <c r="I97">
         <v>2265</v>
       </c>
-      <c r="J97" t="n">
+      <c r="J97">
         <v>6299</v>
       </c>
-      <c r="K97" t="n">
+      <c r="K97">
         <v>-4034</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" s="2" t="n">
-        <v>44634.37713215277</v>
-      </c>
-      <c r="C98" t="n">
+      <c r="B98" s="2">
+        <v>44634.377132152767</v>
+      </c>
+      <c r="C98">
         <v>2017</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>6233</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98">
         <v>-4216</v>
       </c>
-      <c r="F98" t="n">
+      <c r="F98">
         <v>73</v>
       </c>
-      <c r="G98" t="n">
+      <c r="G98">
         <v>1624</v>
       </c>
-      <c r="H98" t="n">
+      <c r="H98">
         <v>-1551</v>
       </c>
-      <c r="I98" t="n">
+      <c r="I98">
         <v>2029</v>
       </c>
-      <c r="J98" t="n">
+      <c r="J98">
         <v>6536</v>
       </c>
-      <c r="K98" t="n">
+      <c r="K98">
         <v>-4507</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" s="2" t="n">
-        <v>44635.33390997685</v>
-      </c>
-      <c r="C99" t="n">
+      <c r="B99" s="2">
+        <v>44635.333909976849</v>
+      </c>
+      <c r="C99">
         <v>5673</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>2495</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99">
         <v>3178</v>
       </c>
-      <c r="F99" t="n">
+      <c r="F99">
         <v>60</v>
       </c>
-      <c r="G99" t="n">
+      <c r="G99">
         <v>914</v>
       </c>
-      <c r="H99" t="n">
+      <c r="H99">
         <v>-854</v>
       </c>
-      <c r="I99" t="n">
+      <c r="I99">
         <v>2167</v>
       </c>
-      <c r="J99" t="n">
+      <c r="J99">
         <v>6398</v>
       </c>
-      <c r="K99" t="n">
+      <c r="K99">
         <v>-4231</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" s="2" t="n">
-        <v>44636.33996486111</v>
-      </c>
-      <c r="C100" t="n">
+      <c r="B100" s="2">
+        <v>44636.339964861108</v>
+      </c>
+      <c r="C100">
         <v>6849</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>1376</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100">
         <v>5473</v>
       </c>
-      <c r="F100" t="n">
+      <c r="F100">
         <v>70</v>
       </c>
-      <c r="G100" t="n">
+      <c r="G100">
         <v>361</v>
       </c>
-      <c r="H100" t="n">
+      <c r="H100">
         <v>-291</v>
       </c>
-      <c r="I100" t="n">
+      <c r="I100">
         <v>2762</v>
       </c>
-      <c r="J100" t="n">
+      <c r="J100">
         <v>5803</v>
       </c>
-      <c r="K100" t="n">
+      <c r="K100">
         <v>-3041</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" s="2" t="n">
-        <v>44637.39102240741</v>
-      </c>
-      <c r="C101" t="n">
+      <c r="B101" s="2">
+        <v>44637.391022407413</v>
+      </c>
+      <c r="C101">
         <v>6573</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>1690</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101">
         <v>4883</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F101">
         <v>98</v>
       </c>
-      <c r="G101" t="n">
+      <c r="G101">
         <v>79</v>
       </c>
-      <c r="H101" t="n">
+      <c r="H101">
         <v>19</v>
       </c>
-      <c r="I101" t="n">
+      <c r="I101">
         <v>3435</v>
       </c>
-      <c r="J101" t="n">
+      <c r="J101">
         <v>5130</v>
       </c>
-      <c r="K101" t="n">
+      <c r="K101">
         <v>-1695</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" s="2" t="n">
-        <v>44638.37040452546</v>
-      </c>
-      <c r="C102" t="n">
+      <c r="B102" s="2">
+        <v>44638.370404525464</v>
+      </c>
+      <c r="C102">
         <v>5806</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>2382</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E102">
         <v>3424</v>
       </c>
-      <c r="F102" t="n">
+      <c r="F102">
         <v>120</v>
       </c>
-      <c r="G102" t="n">
+      <c r="G102">
         <v>62</v>
       </c>
-      <c r="H102" t="n">
+      <c r="H102">
         <v>58</v>
       </c>
-      <c r="I102" t="n">
+      <c r="I102">
         <v>4070</v>
       </c>
-      <c r="J102" t="n">
+      <c r="J102">
         <v>4495</v>
       </c>
-      <c r="K102" t="n">
+      <c r="K102">
         <v>-425</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" s="2" t="n">
-        <v>44641.3635871412</v>
-      </c>
-      <c r="C103" t="n">
+      <c r="B103" s="2">
+        <v>44641.363587141197</v>
+      </c>
+      <c r="C103">
         <v>2926</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>5296</v>
       </c>
-      <c r="E103" t="n">
+      <c r="E103">
         <v>-2370</v>
       </c>
-      <c r="F103" t="n">
+      <c r="F103">
         <v>211</v>
       </c>
-      <c r="G103" t="n">
+      <c r="G103">
         <v>195</v>
       </c>
-      <c r="H103" t="n">
+      <c r="H103">
         <v>16</v>
       </c>
-      <c r="I103" t="n">
+      <c r="I103">
         <v>3885</v>
       </c>
-      <c r="J103" t="n">
+      <c r="J103">
         <v>4667</v>
       </c>
-      <c r="K103" t="n">
+      <c r="K103">
         <v>-782</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" s="2" t="n">
-        <v>44642.45112188657</v>
-      </c>
-      <c r="C104" t="n">
+      <c r="B104" s="2">
+        <v>44642.451121886566</v>
+      </c>
+      <c r="C104">
         <v>5861</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>2322</v>
       </c>
-      <c r="E104" t="n">
+      <c r="E104">
         <v>3539</v>
       </c>
-      <c r="F104" t="n">
+      <c r="F104">
         <v>193</v>
       </c>
-      <c r="G104" t="n">
+      <c r="G104">
         <v>238</v>
       </c>
-      <c r="H104" t="n">
+      <c r="H104">
         <v>-45</v>
       </c>
-      <c r="I104" t="n">
+      <c r="I104">
         <v>4424</v>
       </c>
-      <c r="J104" t="n">
+      <c r="J104">
         <v>4128</v>
       </c>
-      <c r="K104" t="n">
+      <c r="K104">
         <v>296</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" s="2" t="n">
-        <v>44643.37532565972</v>
-      </c>
-      <c r="C105" t="n">
+      <c r="B105" s="2">
+        <v>44643.375325659719</v>
+      </c>
+      <c r="C105">
         <v>2470</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>5714</v>
       </c>
-      <c r="E105" t="n">
+      <c r="E105">
         <v>-3244</v>
       </c>
-      <c r="F105" t="n">
+      <c r="F105">
         <v>147</v>
       </c>
-      <c r="G105" t="n">
+      <c r="G105">
         <v>168</v>
       </c>
-      <c r="H105" t="n">
+      <c r="H105">
         <v>-21</v>
       </c>
-      <c r="I105" t="n">
+      <c r="I105">
         <v>3952</v>
       </c>
-      <c r="J105" t="n">
+      <c r="J105">
         <v>4600</v>
       </c>
-      <c r="K105" t="n">
+      <c r="K105">
         <v>-648</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" s="2" t="n">
-        <v>44644.34222395833</v>
-      </c>
-      <c r="C106" t="n">
+      <c r="B106" s="2">
+        <v>44644.342223958331</v>
+      </c>
+      <c r="C106">
         <v>5684</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>2524</v>
       </c>
-      <c r="E106" t="n">
+      <c r="E106">
         <v>3160</v>
       </c>
-      <c r="F106" t="n">
+      <c r="F106">
         <v>198</v>
       </c>
-      <c r="G106" t="n">
+      <c r="G106">
         <v>235</v>
       </c>
-      <c r="H106" t="n">
+      <c r="H106">
         <v>-37</v>
       </c>
-      <c r="I106" t="n">
+      <c r="I106">
         <v>4454</v>
       </c>
-      <c r="J106" t="n">
+      <c r="J106">
         <v>4098</v>
       </c>
-      <c r="K106" t="n">
+      <c r="K106">
         <v>356</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107" s="2" t="n">
-        <v>44645.38216239584</v>
-      </c>
-      <c r="C107" t="n">
+      <c r="B107" s="2">
+        <v>44645.382162395843</v>
+      </c>
+      <c r="C107">
         <v>3923</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>4274</v>
       </c>
-      <c r="E107" t="n">
+      <c r="E107">
         <v>-351</v>
       </c>
-      <c r="F107" t="n">
+      <c r="F107">
         <v>333</v>
       </c>
-      <c r="G107" t="n">
+      <c r="G107">
         <v>413</v>
       </c>
-      <c r="H107" t="n">
+      <c r="H107">
         <v>-80</v>
       </c>
-      <c r="I107" t="n">
+      <c r="I107">
         <v>4442</v>
       </c>
-      <c r="J107" t="n">
+      <c r="J107">
         <v>4110</v>
       </c>
-      <c r="K107" t="n">
+      <c r="K107">
         <v>332</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108" s="2" t="n">
-        <v>44648.37797178241</v>
-      </c>
-      <c r="C108" t="n">
+      <c r="B108" s="2">
+        <v>44648.377971782407</v>
+      </c>
+      <c r="C108">
         <v>3951</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>4261</v>
       </c>
-      <c r="E108" t="n">
+      <c r="E108">
         <v>-310</v>
       </c>
-      <c r="F108" t="n">
+      <c r="F108">
         <v>154</v>
       </c>
-      <c r="G108" t="n">
+      <c r="G108">
         <v>314</v>
       </c>
-      <c r="H108" t="n">
+      <c r="H108">
         <v>-160</v>
       </c>
-      <c r="I108" t="n">
+      <c r="I108">
         <v>4497</v>
       </c>
-      <c r="J108" t="n">
+      <c r="J108">
         <v>4052</v>
       </c>
-      <c r="K108" t="n">
+      <c r="K108">
         <v>445</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109" s="2" t="n">
-        <v>44649.38815961806</v>
-      </c>
-      <c r="C109" t="n">
+      <c r="B109" s="2">
+        <v>44649.388159618058</v>
+      </c>
+      <c r="C109">
         <v>6699</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>1571</v>
       </c>
-      <c r="E109" t="n">
+      <c r="E109">
         <v>5128</v>
       </c>
-      <c r="F109" t="n">
+      <c r="F109">
         <v>259</v>
       </c>
-      <c r="G109" t="n">
+      <c r="G109">
         <v>154</v>
       </c>
-      <c r="H109" t="n">
+      <c r="H109">
         <v>105</v>
       </c>
-      <c r="I109" t="n">
+      <c r="I109">
         <v>5253</v>
       </c>
-      <c r="J109" t="n">
+      <c r="J109">
         <v>3296</v>
       </c>
-      <c r="K109" t="n">
+      <c r="K109">
         <v>1957</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110" s="2" t="n">
-        <v>44650.40930723379</v>
-      </c>
-      <c r="C110" t="n">
+      <c r="B110" s="2">
+        <v>44650.409307233793</v>
+      </c>
+      <c r="C110">
         <v>2727</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>5471</v>
       </c>
-      <c r="E110" t="n">
+      <c r="E110">
         <v>-2744</v>
       </c>
-      <c r="F110" t="n">
+      <c r="F110">
         <v>242</v>
       </c>
-      <c r="G110" t="n">
+      <c r="G110">
         <v>86</v>
       </c>
-      <c r="H110" t="n">
+      <c r="H110">
         <v>156</v>
       </c>
-      <c r="I110" t="n">
+      <c r="I110">
         <v>4913</v>
       </c>
-      <c r="J110" t="n">
+      <c r="J110">
         <v>3636</v>
       </c>
-      <c r="K110" t="n">
+      <c r="K110">
         <v>1277</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111" s="2" t="n">
-        <v>44651.35055310185</v>
-      </c>
-      <c r="C111" t="n">
+      <c r="B111" s="2">
+        <v>44651.350553101853</v>
+      </c>
+      <c r="C111">
         <v>2447</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>5775</v>
       </c>
-      <c r="E111" t="n">
+      <c r="E111">
         <v>-3328</v>
       </c>
-      <c r="F111" t="n">
+      <c r="F111">
         <v>219</v>
       </c>
-      <c r="G111" t="n">
+      <c r="G111">
         <v>162</v>
       </c>
-      <c r="H111" t="n">
+      <c r="H111">
         <v>57</v>
       </c>
-      <c r="I111" t="n">
+      <c r="I111">
         <v>4547</v>
       </c>
-      <c r="J111" t="n">
+      <c r="J111">
         <v>4002</v>
       </c>
-      <c r="K111" t="n">
+      <c r="K111">
         <v>545</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" s="2" t="n">
-        <v>44652.81677052083</v>
-      </c>
-      <c r="C112" t="n">
+      <c r="B112" s="2">
+        <v>44652.816770520833</v>
+      </c>
+      <c r="C112">
         <v>5253</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>2908</v>
       </c>
-      <c r="E112" t="n">
+      <c r="E112">
         <v>2345</v>
       </c>
-      <c r="F112" t="n">
+      <c r="F112">
         <v>198</v>
       </c>
-      <c r="G112" t="n">
+      <c r="G112">
         <v>201</v>
       </c>
-      <c r="H112" t="n">
+      <c r="H112">
         <v>-3</v>
       </c>
-      <c r="I112" t="n">
+      <c r="I112">
         <v>4808</v>
       </c>
-      <c r="J112" t="n">
+      <c r="J112">
         <v>3741</v>
       </c>
-      <c r="K112" t="n">
+      <c r="K112">
         <v>1067</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" s="2" t="n">
-        <v>44655.36145189815</v>
-      </c>
-      <c r="C113" t="n">
+      <c r="B113" s="2">
+        <v>44655.361451898149</v>
+      </c>
+      <c r="C113">
         <v>5110</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>3110</v>
       </c>
-      <c r="E113" t="n">
+      <c r="E113">
         <v>2000</v>
       </c>
-      <c r="F113" t="n">
+      <c r="F113">
         <v>192</v>
       </c>
-      <c r="G113" t="n">
+      <c r="G113">
         <v>102</v>
       </c>
-      <c r="H113" t="n">
+      <c r="H113">
         <v>90</v>
       </c>
-      <c r="I113" t="n">
+      <c r="I113">
         <v>5098</v>
       </c>
-      <c r="J113" t="n">
+      <c r="J113">
         <v>3440</v>
       </c>
-      <c r="K113" t="n">
+      <c r="K113">
         <v>1658</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114" s="2" t="n">
+      <c r="B114" s="2">
         <v>44656.40464458333</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>1444</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>6780</v>
       </c>
-      <c r="E114" t="n">
+      <c r="E114">
         <v>-5336</v>
       </c>
-      <c r="F114" t="n">
+      <c r="F114">
         <v>219</v>
       </c>
-      <c r="G114" t="n">
+      <c r="G114">
         <v>306</v>
       </c>
-      <c r="H114" t="n">
+      <c r="H114">
         <v>-87</v>
       </c>
-      <c r="I114" t="n">
+      <c r="I114">
         <v>4374</v>
       </c>
-      <c r="J114" t="n">
+      <c r="J114">
         <v>4164</v>
       </c>
-      <c r="K114" t="n">
+      <c r="K114">
         <v>210</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115" s="2" t="n">
-        <v>44657.35333596065</v>
-      </c>
-      <c r="C115" t="n">
+      <c r="B115" s="2">
+        <v>44657.353335960652</v>
+      </c>
+      <c r="C115">
         <v>2086</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>6111</v>
       </c>
-      <c r="E115" t="n">
+      <c r="E115">
         <v>-4025</v>
       </c>
-      <c r="F115" t="n">
+      <c r="F115">
         <v>136</v>
       </c>
-      <c r="G115" t="n">
+      <c r="G115">
         <v>606</v>
       </c>
-      <c r="H115" t="n">
+      <c r="H115">
         <v>-470</v>
       </c>
-      <c r="I115" t="n">
+      <c r="I115">
         <v>3818</v>
       </c>
-      <c r="J115" t="n">
+      <c r="J115">
         <v>4720</v>
       </c>
-      <c r="K115" t="n">
+      <c r="K115">
         <v>-902</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" s="2" t="n">
-        <v>44658.41599037037</v>
-      </c>
-      <c r="C116" t="n">
+      <c r="B116" s="2">
+        <v>44658.415990370369</v>
+      </c>
+      <c r="C116">
         <v>3546</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>4585</v>
       </c>
-      <c r="E116" t="n">
+      <c r="E116">
         <v>-1039</v>
       </c>
-      <c r="F116" t="n">
+      <c r="F116">
         <v>151</v>
       </c>
-      <c r="G116" t="n">
+      <c r="G116">
         <v>559</v>
       </c>
-      <c r="H116" t="n">
+      <c r="H116">
         <v>-408</v>
       </c>
-      <c r="I116" t="n">
+      <c r="I116">
         <v>3727</v>
       </c>
-      <c r="J116" t="n">
+      <c r="J116">
         <v>4811</v>
       </c>
-      <c r="K116" t="n">
+      <c r="K116">
         <v>-1084</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" s="2" t="n">
+      <c r="B117" s="2">
         <v>44659.61469894676</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>3329</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>4815</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E117">
         <v>-1486</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F117">
         <v>251</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G117">
         <v>520</v>
       </c>
-      <c r="H117" t="n">
+      <c r="H117">
         <v>-269</v>
       </c>
-      <c r="I117" t="n">
+      <c r="I117">
         <v>3613</v>
       </c>
-      <c r="J117" t="n">
+      <c r="J117">
         <v>4925</v>
       </c>
-      <c r="K117" t="n">
+      <c r="K117">
         <v>-1312</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" s="2" t="n">
+      <c r="B118" s="2">
         <v>44662.37909722222</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>2159</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>6007</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E118">
         <v>-3848</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F118">
         <v>143</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G118">
         <v>729</v>
       </c>
-      <c r="H118" t="n">
+      <c r="H118">
         <v>-586</v>
       </c>
-      <c r="I118" t="n">
+      <c r="I118">
         <v>3120</v>
       </c>
-      <c r="J118" t="n">
+      <c r="J118">
         <v>5407</v>
       </c>
-      <c r="K118" t="n">
+      <c r="K118">
         <v>-2287</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119" s="2" t="n">
+      <c r="B119" s="2">
         <v>44663.44993422454</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>3621</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>4483</v>
       </c>
-      <c r="E119" t="n">
+      <c r="E119">
         <v>-862</v>
       </c>
-      <c r="F119" t="n">
+      <c r="F119">
         <v>173</v>
       </c>
-      <c r="G119" t="n">
+      <c r="G119">
         <v>476</v>
       </c>
-      <c r="H119" t="n">
+      <c r="H119">
         <v>-303</v>
       </c>
-      <c r="I119" t="n">
+      <c r="I119">
         <v>3058</v>
       </c>
-      <c r="J119" t="n">
+      <c r="J119">
         <v>5469</v>
       </c>
-      <c r="K119" t="n">
+      <c r="K119">
         <v>-2411</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120" s="2" t="n">
-        <v>44664.41960386574</v>
-      </c>
-      <c r="C120" t="n">
+      <c r="B120" s="2">
+        <v>44664.419603865739</v>
+      </c>
+      <c r="C120">
         <v>6544</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>1636</v>
       </c>
-      <c r="E120" t="n">
+      <c r="E120">
         <v>4908</v>
       </c>
-      <c r="F120" t="n">
+      <c r="F120">
         <v>211</v>
       </c>
-      <c r="G120" t="n">
+      <c r="G120">
         <v>357</v>
       </c>
-      <c r="H120" t="n">
+      <c r="H120">
         <v>-146</v>
       </c>
-      <c r="I120" t="n">
+      <c r="I120">
         <v>3610</v>
       </c>
-      <c r="J120" t="n">
+      <c r="J120">
         <v>4917</v>
       </c>
-      <c r="K120" t="n">
+      <c r="K120">
         <v>-1307</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121" s="2" t="n">
-        <v>44665.53575064815</v>
-      </c>
-      <c r="C121" t="n">
+      <c r="B121" s="2">
+        <v>44665.535750648152</v>
+      </c>
+      <c r="C121">
         <v>2396</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>5772</v>
       </c>
-      <c r="E121" t="n">
+      <c r="E121">
         <v>-3376</v>
       </c>
-      <c r="F121" t="n">
+      <c r="F121">
         <v>283</v>
       </c>
-      <c r="G121" t="n">
+      <c r="G121">
         <v>544</v>
       </c>
-      <c r="H121" t="n">
+      <c r="H121">
         <v>-261</v>
       </c>
-      <c r="I121" t="n">
+      <c r="I121">
         <v>3308</v>
       </c>
-      <c r="J121" t="n">
+      <c r="J121">
         <v>5219</v>
       </c>
-      <c r="K121" t="n">
+      <c r="K121">
         <v>-1911</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122" s="2" t="n">
-        <v>44669.36353797454</v>
-      </c>
-      <c r="C122" t="n">
+      <c r="B122" s="2">
+        <v>44669.363537974539</v>
+      </c>
+      <c r="C122">
         <v>2591</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122">
         <v>5594</v>
       </c>
-      <c r="E122" t="n">
+      <c r="E122">
         <v>-3003</v>
       </c>
-      <c r="F122" t="n">
+      <c r="F122">
         <v>292</v>
       </c>
-      <c r="G122" t="n">
+      <c r="G122">
         <v>858</v>
       </c>
-      <c r="H122" t="n">
+      <c r="H122">
         <v>-566</v>
       </c>
-      <c r="I122" t="n">
+      <c r="I122">
         <v>3080</v>
       </c>
-      <c r="J122" t="n">
+      <c r="J122">
         <v>5428</v>
       </c>
-      <c r="K122" t="n">
+      <c r="K122">
         <v>-2348</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123" s="2" t="n">
-        <v>44670.35265877315</v>
-      </c>
-      <c r="C123" t="n">
+      <c r="B123" s="2">
+        <v>44670.352658773147</v>
+      </c>
+      <c r="C123">
         <v>5933</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123">
         <v>2228</v>
       </c>
-      <c r="E123" t="n">
+      <c r="E123">
         <v>3705</v>
       </c>
-      <c r="F123" t="n">
+      <c r="F123">
         <v>205</v>
       </c>
-      <c r="G123" t="n">
+      <c r="G123">
         <v>582</v>
       </c>
-      <c r="H123" t="n">
+      <c r="H123">
         <v>-377</v>
       </c>
-      <c r="I123" t="n">
+      <c r="I123">
         <v>3705</v>
       </c>
-      <c r="J123" t="n">
+      <c r="J123">
         <v>4803</v>
       </c>
-      <c r="K123" t="n">
+      <c r="K123">
         <v>-1098</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124" s="2" t="n">
-        <v>44671.3877184838</v>
-      </c>
-      <c r="C124" t="n">
+      <c r="B124" s="2">
+        <v>44671.387718483798</v>
+      </c>
+      <c r="C124">
         <v>4789</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124">
         <v>3361</v>
       </c>
-      <c r="E124" t="n">
+      <c r="E124">
         <v>1428</v>
       </c>
-      <c r="F124" t="n">
+      <c r="F124">
         <v>339</v>
       </c>
-      <c r="G124" t="n">
+      <c r="G124">
         <v>280</v>
       </c>
-      <c r="H124" t="n">
+      <c r="H124">
         <v>59</v>
       </c>
-      <c r="I124" t="n">
+      <c r="I124">
         <v>3836</v>
       </c>
-      <c r="J124" t="n">
+      <c r="J124">
         <v>4672</v>
       </c>
-      <c r="K124" t="n">
+      <c r="K124">
         <v>-836</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" s="2" t="n">
-        <v>44672.33363002315</v>
-      </c>
-      <c r="C125" t="n">
+      <c r="B125" s="2">
+        <v>44672.333630023153</v>
+      </c>
+      <c r="C125">
         <v>1300</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125">
         <v>6908</v>
       </c>
-      <c r="E125" t="n">
+      <c r="E125">
         <v>-5608</v>
       </c>
-      <c r="F125" t="n">
+      <c r="F125">
         <v>336</v>
       </c>
-      <c r="G125" t="n">
+      <c r="G125">
         <v>722</v>
       </c>
-      <c r="H125" t="n">
+      <c r="H125">
         <v>-386</v>
       </c>
-      <c r="I125" t="n">
+      <c r="I125">
         <v>3169</v>
       </c>
-      <c r="J125" t="n">
+      <c r="J125">
         <v>5339</v>
       </c>
-      <c r="K125" t="n">
+      <c r="K125">
         <v>-2170</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126" s="2" t="n">
-        <v>44673.33766561343</v>
-      </c>
-      <c r="C126" t="n">
+      <c r="B126" s="2">
+        <v>44673.337665613428</v>
+      </c>
+      <c r="C126">
         <v>1265</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126">
         <v>6889</v>
       </c>
-      <c r="E126" t="n">
+      <c r="E126">
         <v>-5624</v>
       </c>
-      <c r="F126" t="n">
+      <c r="F126">
         <v>39</v>
       </c>
-      <c r="G126" t="n">
+      <c r="G126">
         <v>1040</v>
       </c>
-      <c r="H126" t="n">
+      <c r="H126">
         <v>-1001</v>
       </c>
-      <c r="I126" t="n">
+      <c r="I126">
         <v>2403</v>
       </c>
-      <c r="J126" t="n">
+      <c r="J126">
         <v>6105</v>
       </c>
-      <c r="K126" t="n">
+      <c r="K126">
         <v>-3702</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" s="2" t="n">
-        <v>44676.31783071759</v>
-      </c>
-      <c r="C127" t="n">
+      <c r="B127" s="2">
+        <v>44676.317830717591</v>
+      </c>
+      <c r="C127">
         <v>4317</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127">
         <v>3859</v>
       </c>
-      <c r="E127" t="n">
+      <c r="E127">
         <v>458</v>
       </c>
-      <c r="F127" t="n">
+      <c r="F127">
         <v>31</v>
       </c>
-      <c r="G127" t="n">
+      <c r="G127">
         <v>1095</v>
       </c>
-      <c r="H127" t="n">
+      <c r="H127">
         <v>-1064</v>
       </c>
-      <c r="I127" t="n">
+      <c r="I127">
         <v>2317</v>
       </c>
-      <c r="J127" t="n">
+      <c r="J127">
         <v>6187</v>
       </c>
-      <c r="K127" t="n">
+      <c r="K127">
         <v>-3870</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" s="2" t="n">
-        <v>44677.41830925926</v>
-      </c>
-      <c r="C128" t="n">
+      <c r="B128" s="2">
+        <v>44677.418309259258</v>
+      </c>
+      <c r="C128">
         <v>1152</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128">
         <v>7046</v>
       </c>
-      <c r="E128" t="n">
+      <c r="E128">
         <v>-5894</v>
       </c>
-      <c r="F128" t="n">
+      <c r="F128">
         <v>31</v>
       </c>
-      <c r="G128" t="n">
+      <c r="G128">
         <v>1296</v>
       </c>
-      <c r="H128" t="n">
+      <c r="H128">
         <v>-1265</v>
       </c>
-      <c r="I128" t="n">
+      <c r="I128">
         <v>1784</v>
       </c>
-      <c r="J128" t="n">
+      <c r="J128">
         <v>6720</v>
       </c>
-      <c r="K128" t="n">
+      <c r="K128">
         <v>-4936</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129" s="2" t="n">
-        <v>44678.39372800926</v>
-      </c>
-      <c r="C129" t="n">
+      <c r="B129" s="2">
+        <v>44678.393728009258</v>
+      </c>
+      <c r="C129">
         <v>3676</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D129">
         <v>4426</v>
       </c>
-      <c r="E129" t="n">
+      <c r="E129">
         <v>-750</v>
       </c>
-      <c r="F129" t="n">
+      <c r="F129">
         <v>34</v>
       </c>
-      <c r="G129" t="n">
+      <c r="G129">
         <v>1420</v>
       </c>
-      <c r="H129" t="n">
+      <c r="H129">
         <v>-1386</v>
       </c>
-      <c r="I129" t="n">
+      <c r="I129">
         <v>1831</v>
       </c>
-      <c r="J129" t="n">
+      <c r="J129">
         <v>6675</v>
       </c>
-      <c r="K129" t="n">
+      <c r="K129">
         <v>-4844</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130" s="2" t="n">
-        <v>44679.36367872686</v>
-      </c>
-      <c r="C130" t="n">
+      <c r="B130" s="2">
+        <v>44679.363678726862</v>
+      </c>
+      <c r="C130">
         <v>6161</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130">
         <v>2007</v>
       </c>
-      <c r="E130" t="n">
+      <c r="E130">
         <v>4154</v>
       </c>
-      <c r="F130" t="n">
+      <c r="F130">
         <v>52</v>
       </c>
-      <c r="G130" t="n">
+      <c r="G130">
         <v>1286</v>
       </c>
-      <c r="H130" t="n">
+      <c r="H130">
         <v>-1234</v>
       </c>
-      <c r="I130" t="n">
+      <c r="I130">
         <v>2190</v>
       </c>
-      <c r="J130" t="n">
+      <c r="J130">
         <v>6316</v>
       </c>
-      <c r="K130" t="n">
+      <c r="K130">
         <v>-4126</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131" s="2" t="n">
-        <v>44680.38831943287</v>
-      </c>
-      <c r="C131" t="n">
+      <c r="B131" s="2">
+        <v>44680.388319432866</v>
+      </c>
+      <c r="C131">
         <v>1412</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D131">
         <v>6796</v>
       </c>
-      <c r="E131" t="n">
+      <c r="E131">
         <v>-5384</v>
       </c>
-      <c r="F131" t="n">
+      <c r="F131">
         <v>41</v>
       </c>
-      <c r="G131" t="n">
+      <c r="G131">
         <v>1013</v>
       </c>
-      <c r="H131" t="n">
+      <c r="H131">
         <v>-972</v>
       </c>
-      <c r="I131" t="n">
+      <c r="I131">
         <v>1679</v>
       </c>
-      <c r="J131" t="n">
+      <c r="J131">
         <v>6836</v>
       </c>
-      <c r="K131" t="n">
+      <c r="K131">
         <v>-5157</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132" s="2" t="n">
-        <v>44683.42889842593</v>
-      </c>
-      <c r="C132" t="n">
+      <c r="B132" s="2">
+        <v>44683.428898425933</v>
+      </c>
+      <c r="C132">
         <v>4430</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132">
         <v>3705</v>
       </c>
-      <c r="E132" t="n">
+      <c r="E132">
         <v>725</v>
       </c>
-      <c r="F132" t="n">
+      <c r="F132">
         <v>44</v>
       </c>
-      <c r="G132" t="n">
+      <c r="G132">
         <v>1683</v>
       </c>
-      <c r="H132" t="n">
+      <c r="H132">
         <v>-1639</v>
       </c>
-      <c r="I132" t="n">
+      <c r="I132">
         <v>1684</v>
       </c>
-      <c r="J132" t="n">
+      <c r="J132">
         <v>6827</v>
       </c>
-      <c r="K132" t="n">
+      <c r="K132">
         <v>-5143</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133" s="2" t="n">
-        <v>44684.37591445602</v>
-      </c>
-      <c r="C133" t="n">
+      <c r="B133" s="2">
+        <v>44684.375914456017</v>
+      </c>
+      <c r="C133">
         <v>5345</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D133">
         <v>2770</v>
       </c>
-      <c r="E133" t="n">
+      <c r="E133">
         <v>2575</v>
       </c>
-      <c r="F133" t="n">
+      <c r="F133">
         <v>47</v>
       </c>
-      <c r="G133" t="n">
+      <c r="G133">
         <v>379</v>
       </c>
-      <c r="H133" t="n">
+      <c r="H133">
         <v>-332</v>
       </c>
-      <c r="I133" t="n">
+      <c r="I133">
         <v>1873</v>
       </c>
-      <c r="J133" t="n">
+      <c r="J133">
         <v>6638</v>
       </c>
-      <c r="K133" t="n">
+      <c r="K133">
         <v>-4765</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134" s="2" t="n">
-        <v>44685.34883126157</v>
-      </c>
-      <c r="C134" t="n">
+      <c r="B134" s="2">
+        <v>44685.348831261566</v>
+      </c>
+      <c r="C134">
         <v>6712</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D134">
         <v>1471</v>
       </c>
-      <c r="E134" t="n">
+      <c r="E134">
         <v>5241</v>
       </c>
-      <c r="F134" t="n">
+      <c r="F134">
         <v>91</v>
       </c>
-      <c r="G134" t="n">
+      <c r="G134">
         <v>755</v>
       </c>
-      <c r="H134" t="n">
+      <c r="H134">
         <v>-664</v>
       </c>
-      <c r="I134" t="n">
+      <c r="I134">
         <v>2449</v>
       </c>
-      <c r="J134" t="n">
+      <c r="J134">
         <v>6067</v>
       </c>
-      <c r="K134" t="n">
+      <c r="K134">
         <v>-3618</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135" s="2" t="n">
-        <v>44686.40046756945</v>
-      </c>
-      <c r="C135" t="n">
+      <c r="B135" s="2">
+        <v>44686.400467569452</v>
+      </c>
+      <c r="C135">
         <v>862</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D135">
         <v>7347</v>
       </c>
-      <c r="E135" t="n">
+      <c r="E135">
         <v>-6485</v>
       </c>
-      <c r="F135" t="n">
+      <c r="F135">
         <v>93</v>
       </c>
-      <c r="G135" t="n">
+      <c r="G135">
         <v>1142</v>
       </c>
-      <c r="H135" t="n">
+      <c r="H135">
         <v>-1049</v>
       </c>
-      <c r="I135" t="n">
+      <c r="I135">
         <v>1786</v>
       </c>
-      <c r="J135" t="n">
+      <c r="J135">
         <v>6730</v>
       </c>
-      <c r="K135" t="n">
+      <c r="K135">
         <v>-4944</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B136" s="2" t="n">
-        <v>44687.35496318287</v>
-      </c>
-      <c r="C136" t="n">
+      <c r="B136" s="2">
+        <v>44687.354963182872</v>
+      </c>
+      <c r="C136">
         <v>1937</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D136">
         <v>6234</v>
       </c>
-      <c r="E136" t="n">
+      <c r="E136">
         <v>-4297</v>
       </c>
-      <c r="F136" t="n">
+      <c r="F136">
         <v>68</v>
       </c>
-      <c r="G136" t="n">
+      <c r="G136">
         <v>2022</v>
       </c>
-      <c r="H136" t="n">
+      <c r="H136">
         <v>-1954</v>
       </c>
-      <c r="I136" t="n">
+      <c r="I136">
         <v>1625</v>
       </c>
-      <c r="J136" t="n">
+      <c r="J136">
         <v>6891</v>
       </c>
-      <c r="K136" t="n">
+      <c r="K136">
         <v>-5266</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137" s="2" t="n">
-        <v>44690.33843474537</v>
-      </c>
-      <c r="C137" t="n">
+      <c r="B137" s="2">
+        <v>44690.338434745368</v>
+      </c>
+      <c r="C137">
         <v>1085</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137">
         <v>7214</v>
       </c>
-      <c r="E137" t="n">
+      <c r="E137">
         <v>-6129</v>
       </c>
-      <c r="F137" t="n">
+      <c r="F137">
         <v>55</v>
       </c>
-      <c r="G137" t="n">
+      <c r="G137">
         <v>3136</v>
       </c>
-      <c r="H137" t="n">
+      <c r="H137">
         <v>-3081</v>
       </c>
-      <c r="I137" t="n">
+      <c r="I137">
         <v>1107</v>
       </c>
-      <c r="J137" t="n">
+      <c r="J137">
         <v>7401</v>
       </c>
-      <c r="K137" t="n">
+      <c r="K137">
         <v>-6294</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138" s="2" t="n">
-        <v>44691.34141314815</v>
-      </c>
-      <c r="C138" t="n">
+      <c r="B138" s="2">
+        <v>44691.341413148148</v>
+      </c>
+      <c r="C138">
         <v>3734</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D138">
         <v>4479</v>
       </c>
-      <c r="E138" t="n">
+      <c r="E138">
         <v>-745</v>
       </c>
-      <c r="F138" t="n">
+      <c r="F138">
         <v>40</v>
       </c>
-      <c r="G138" t="n">
+      <c r="G138">
         <v>2602</v>
       </c>
-      <c r="H138" t="n">
+      <c r="H138">
         <v>-2562</v>
       </c>
-      <c r="I138" t="n">
+      <c r="I138">
         <v>1000</v>
       </c>
-      <c r="J138" t="n">
+      <c r="J138">
         <v>7508</v>
       </c>
-      <c r="K138" t="n">
+      <c r="K138">
         <v>-6508</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B139" s="2" t="n">
+      <c r="B139" s="2">
         <v>44692.33990525463</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139">
         <v>1919</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D139">
         <v>6310</v>
       </c>
-      <c r="E139" t="n">
+      <c r="E139">
         <v>-4391</v>
       </c>
-      <c r="F139" t="n">
+      <c r="F139">
         <v>42</v>
       </c>
-      <c r="G139" t="n">
+      <c r="G139">
         <v>2605</v>
       </c>
-      <c r="H139" t="n">
+      <c r="H139">
         <v>-2563</v>
       </c>
-      <c r="I139" t="n">
+      <c r="I139">
         <v>897</v>
       </c>
-      <c r="J139" t="n">
+      <c r="J139">
         <v>7616</v>
       </c>
-      <c r="K139" t="n">
+      <c r="K139">
         <v>-6719</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140" s="2" t="n">
-        <v>44693.35964423611</v>
-      </c>
-      <c r="C140" t="n">
+      <c r="B140" s="2">
+        <v>44693.359644236109</v>
+      </c>
+      <c r="C140">
         <v>4463</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D140">
         <v>3762</v>
       </c>
-      <c r="E140" t="n">
+      <c r="E140">
         <v>701</v>
       </c>
-      <c r="F140" t="n">
+      <c r="F140">
         <v>46</v>
       </c>
-      <c r="G140" t="n">
+      <c r="G140">
         <v>3226</v>
       </c>
-      <c r="H140" t="n">
+      <c r="H140">
         <v>-3180</v>
       </c>
-      <c r="I140" t="n">
+      <c r="I140">
         <v>896</v>
       </c>
-      <c r="J140" t="n">
+      <c r="J140">
         <v>7617</v>
       </c>
-      <c r="K140" t="n">
+      <c r="K140">
         <v>-6721</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141" s="2" t="n">
-        <v>44694.38573180555</v>
-      </c>
-      <c r="C141" t="n">
+      <c r="B141" s="2">
+        <v>44694.385731805552</v>
+      </c>
+      <c r="C141">
         <v>6719</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D141">
         <v>1526</v>
       </c>
-      <c r="E141" t="n">
+      <c r="E141">
         <v>5193</v>
       </c>
-      <c r="F141" t="n">
+      <c r="F141">
         <v>25</v>
       </c>
-      <c r="G141" t="n">
+      <c r="G141">
         <v>352</v>
       </c>
-      <c r="H141" t="n">
+      <c r="H141">
         <v>-327</v>
       </c>
-      <c r="I141" t="n">
+      <c r="I141">
         <v>1189</v>
       </c>
-      <c r="J141" t="n">
+      <c r="J141">
         <v>7324</v>
       </c>
-      <c r="K141" t="n">
+      <c r="K141">
         <v>-6135</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142" s="2" t="n">
-        <v>44697.34778409722</v>
-      </c>
-      <c r="C142" t="n">
+      <c r="B142" s="2">
+        <v>44697.347784097219</v>
+      </c>
+      <c r="C142">
         <v>3731</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D142">
         <v>4423</v>
       </c>
-      <c r="E142" t="n">
+      <c r="E142">
         <v>-692</v>
       </c>
-      <c r="F142" t="n">
+      <c r="F142">
         <v>59</v>
       </c>
-      <c r="G142" t="n">
+      <c r="G142">
         <v>360</v>
       </c>
-      <c r="H142" t="n">
+      <c r="H142">
         <v>-301</v>
       </c>
-      <c r="I142" t="n">
+      <c r="I142">
         <v>1216</v>
       </c>
-      <c r="J142" t="n">
+      <c r="J142">
         <v>7285</v>
       </c>
-      <c r="K142" t="n">
+      <c r="K142">
         <v>-6069</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143" s="2" t="n">
-        <v>44698.35194677083</v>
-      </c>
-      <c r="C143" t="n">
+      <c r="B143" s="2">
+        <v>44698.351946770832</v>
+      </c>
+      <c r="C143">
         <v>6702</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D143">
         <v>1478</v>
       </c>
-      <c r="E143" t="n">
+      <c r="E143">
         <v>5224</v>
       </c>
-      <c r="F143" t="n">
+      <c r="F143">
         <v>84</v>
       </c>
-      <c r="G143" t="n">
+      <c r="G143">
         <v>254</v>
       </c>
-      <c r="H143" t="n">
+      <c r="H143">
         <v>-170</v>
       </c>
-      <c r="I143" t="n">
+      <c r="I143">
         <v>1636</v>
       </c>
-      <c r="J143" t="n">
+      <c r="J143">
         <v>6865</v>
       </c>
-      <c r="K143" t="n">
+      <c r="K143">
         <v>-5229</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144" s="2" t="n">
-        <v>44699.25876100695</v>
-      </c>
-      <c r="C144" t="n">
+      <c r="B144" s="2">
+        <v>44699.258761006953</v>
+      </c>
+      <c r="C144">
         <v>1177</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D144">
         <v>6982</v>
       </c>
-      <c r="E144" t="n">
+      <c r="E144">
         <v>-5805</v>
       </c>
-      <c r="F144" t="n">
+      <c r="F144">
         <v>46</v>
       </c>
-      <c r="G144" t="n">
+      <c r="G144">
         <v>590</v>
       </c>
-      <c r="H144" t="n">
+      <c r="H144">
         <v>-544</v>
       </c>
-      <c r="I144" t="n">
+      <c r="I144">
         <v>1205</v>
       </c>
-      <c r="J144" t="n">
+      <c r="J144">
         <v>7296</v>
       </c>
-      <c r="K144" t="n">
+      <c r="K144">
         <v>-6091</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145" s="2" t="n">
-        <v>44700.34618262731</v>
-      </c>
-      <c r="C145" t="n">
+      <c r="B145" s="2">
+        <v>44700.346182627312</v>
+      </c>
+      <c r="C145">
         <v>4483</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D145">
         <v>3625</v>
       </c>
-      <c r="E145" t="n">
+      <c r="E145">
         <v>858</v>
       </c>
-      <c r="F145" t="n">
+      <c r="F145">
         <v>20</v>
       </c>
-      <c r="G145" t="n">
+      <c r="G145">
         <v>638</v>
       </c>
-      <c r="H145" t="n">
+      <c r="H145">
         <v>-618</v>
       </c>
-      <c r="I145" t="n">
+      <c r="I145">
         <v>1203</v>
       </c>
-      <c r="J145" t="n">
+      <c r="J145">
         <v>7298</v>
       </c>
-      <c r="K145" t="n">
+      <c r="K145">
         <v>-6095</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146" s="2" t="n">
-        <v>44701.37096746528</v>
-      </c>
-      <c r="C146" t="n">
+      <c r="B146" s="2">
+        <v>44701.370967465278</v>
+      </c>
+      <c r="C146">
         <v>3956</v>
       </c>
-      <c r="D146" t="n">
+      <c r="D146">
         <v>4122</v>
       </c>
-      <c r="E146" t="n">
+      <c r="E146">
         <v>-166</v>
       </c>
-      <c r="F146" t="n">
+      <c r="F146">
         <v>41</v>
       </c>
-      <c r="G146" t="n">
+      <c r="G146">
         <v>1018</v>
       </c>
-      <c r="H146" t="n">
+      <c r="H146">
         <v>-977</v>
       </c>
-      <c r="I146" t="n">
+      <c r="I146">
         <v>1214</v>
       </c>
-      <c r="J146" t="n">
+      <c r="J146">
         <v>7295</v>
       </c>
-      <c r="K146" t="n">
+      <c r="K146">
         <v>-6081</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147" s="2" t="n">
-        <v>44704.49089359953</v>
-      </c>
-      <c r="C147" t="n">
+      <c r="B147" s="2">
+        <v>44704.490893599534</v>
+      </c>
+      <c r="C147">
         <v>5658</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D147">
         <v>2537</v>
       </c>
-      <c r="E147" t="n">
+      <c r="E147">
         <v>3121</v>
       </c>
-      <c r="F147" t="n">
+      <c r="F147">
         <v>57</v>
       </c>
-      <c r="G147" t="n">
+      <c r="G147">
         <v>234</v>
       </c>
-      <c r="H147" t="n">
+      <c r="H147">
         <v>-177</v>
       </c>
-      <c r="I147" t="n">
+      <c r="I147">
         <v>1448</v>
       </c>
-      <c r="J147" t="n">
+      <c r="J147">
         <v>7168</v>
       </c>
-      <c r="K147" t="n">
+      <c r="K147">
         <v>-5720</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148" s="2" t="n">
-        <v>44705.35665401621</v>
-      </c>
-      <c r="C148" t="n">
+      <c r="B148" s="2">
+        <v>44705.356654016206</v>
+      </c>
+      <c r="C148">
         <v>2735</v>
       </c>
-      <c r="D148" t="n">
+      <c r="D148">
         <v>5529</v>
       </c>
-      <c r="E148" t="n">
+      <c r="E148">
         <v>-2794</v>
       </c>
-      <c r="F148" t="n">
+      <c r="F148">
         <v>54</v>
       </c>
-      <c r="G148" t="n">
+      <c r="G148">
         <v>749</v>
       </c>
-      <c r="H148" t="n">
+      <c r="H148">
         <v>-695</v>
       </c>
-      <c r="I148" t="n">
+      <c r="I148">
         <v>1378</v>
       </c>
-      <c r="J148" t="n">
+      <c r="J148">
         <v>7238</v>
       </c>
-      <c r="K148" t="n">
+      <c r="K148">
         <v>-5860</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149" s="2" t="n">
-        <v>44706.35588740741</v>
-      </c>
-      <c r="C149" t="n">
+      <c r="B149" s="2">
+        <v>44706.355887407408</v>
+      </c>
+      <c r="C149">
         <v>6258</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D149">
         <v>1974</v>
       </c>
-      <c r="E149" t="n">
+      <c r="E149">
         <v>4284</v>
       </c>
-      <c r="F149" t="n">
+      <c r="F149">
         <v>98</v>
       </c>
-      <c r="G149" t="n">
+      <c r="G149">
         <v>335</v>
       </c>
-      <c r="H149" t="n">
+      <c r="H149">
         <v>-237</v>
       </c>
-      <c r="I149" t="n">
+      <c r="I149">
         <v>1657</v>
       </c>
-      <c r="J149" t="n">
+      <c r="J149">
         <v>6960</v>
       </c>
-      <c r="K149" t="n">
+      <c r="K149">
         <v>-5303</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150" s="2" t="n">
-        <v>44707.34665931713</v>
-      </c>
-      <c r="C150" t="n">
+      <c r="B150" s="2">
+        <v>44707.346659317132</v>
+      </c>
+      <c r="C150">
         <v>6735</v>
       </c>
-      <c r="D150" t="n">
+      <c r="D150">
         <v>1522</v>
       </c>
-      <c r="E150" t="n">
+      <c r="E150">
         <v>5213</v>
       </c>
-      <c r="F150" t="n">
+      <c r="F150">
         <v>146</v>
       </c>
-      <c r="G150" t="n">
+      <c r="G150">
         <v>152</v>
       </c>
-      <c r="H150" t="n">
+      <c r="H150">
         <v>-6</v>
       </c>
-      <c r="I150" t="n">
+      <c r="I150">
         <v>2129</v>
       </c>
-      <c r="J150" t="n">
+      <c r="J150">
         <v>6488</v>
       </c>
-      <c r="K150" t="n">
+      <c r="K150">
         <v>-4359</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B151" s="2" t="n">
-        <v>44708.47832788195</v>
-      </c>
-      <c r="C151" t="n">
+      <c r="B151" s="2">
+        <v>44708.478327881952</v>
+      </c>
+      <c r="C151">
         <v>7176</v>
       </c>
-      <c r="D151" t="n">
+      <c r="D151">
         <v>1122</v>
       </c>
-      <c r="E151" t="n">
+      <c r="E151">
         <v>6054</v>
       </c>
-      <c r="F151" t="n">
+      <c r="F151">
         <v>160</v>
       </c>
-      <c r="G151" t="n">
+      <c r="G151">
         <v>95</v>
       </c>
-      <c r="H151" t="n">
+      <c r="H151">
         <v>65</v>
       </c>
-      <c r="I151" t="n">
+      <c r="I151">
         <v>2831</v>
       </c>
-      <c r="J151" t="n">
+      <c r="J151">
         <v>5786</v>
       </c>
-      <c r="K151" t="n">
+      <c r="K151">
         <v>-2955</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B152" s="2" t="n">
-        <v>44712.35975739583</v>
-      </c>
-      <c r="C152" t="n">
+      <c r="B152" s="2">
+        <v>44712.359757395832</v>
+      </c>
+      <c r="C152">
         <v>2721</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D152">
         <v>5535</v>
       </c>
-      <c r="E152" t="n">
+      <c r="E152">
         <v>-2814</v>
       </c>
-      <c r="F152" t="n">
+      <c r="F152">
         <v>189</v>
       </c>
-      <c r="G152" t="n">
+      <c r="G152">
         <v>87</v>
       </c>
-      <c r="H152" t="n">
+      <c r="H152">
         <v>102</v>
       </c>
-      <c r="I152" t="n">
+      <c r="I152">
         <v>2650</v>
       </c>
-      <c r="J152" t="n">
+      <c r="J152">
         <v>5961</v>
       </c>
-      <c r="K152" t="n">
+      <c r="K152">
         <v>-3311</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="B153" s="2" t="n">
-        <v>44713.41894678241</v>
-      </c>
-      <c r="C153" t="n">
+      <c r="B153" s="2">
+        <v>44713.418946782411</v>
+      </c>
+      <c r="C153">
         <v>2648</v>
       </c>
-      <c r="D153" t="n">
+      <c r="D153">
         <v>5621</v>
       </c>
-      <c r="E153" t="n">
+      <c r="E153">
         <v>-2973</v>
       </c>
-      <c r="F153" t="n">
+      <c r="F153">
         <v>80</v>
       </c>
-      <c r="G153" t="n">
+      <c r="G153">
         <v>164</v>
       </c>
-      <c r="H153" t="n">
+      <c r="H153">
         <v>-84</v>
       </c>
-      <c r="I153" t="n">
+      <c r="I153">
         <v>2472</v>
       </c>
-      <c r="J153" t="n">
+      <c r="J153">
         <v>6139</v>
       </c>
-      <c r="K153" t="n">
+      <c r="K153">
         <v>-3667</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
         <v>152</v>
       </c>
-      <c r="B154" s="2" t="n">
-        <v>44714.35040380787</v>
-      </c>
-      <c r="C154" t="n">
+      <c r="B154" s="2">
+        <v>44714.350403807868</v>
+      </c>
+      <c r="C154">
         <v>6772</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D154">
         <v>1495</v>
       </c>
-      <c r="E154" t="n">
+      <c r="E154">
         <v>5277</v>
       </c>
-      <c r="F154" t="n">
+      <c r="F154">
         <v>98</v>
       </c>
-      <c r="G154" t="n">
+      <c r="G154">
         <v>126</v>
       </c>
-      <c r="H154" t="n">
+      <c r="H154">
         <v>-28</v>
       </c>
-      <c r="I154" t="n">
+      <c r="I154">
         <v>3245</v>
       </c>
-      <c r="J154" t="n">
+      <c r="J154">
         <v>5366</v>
       </c>
-      <c r="K154" t="n">
+      <c r="K154">
         <v>-2121</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155" s="2" t="n">
+      <c r="B155" s="2">
         <v>44715.28297453704</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155">
         <v>2206</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D155">
         <v>6050</v>
       </c>
-      <c r="E155" t="n">
+      <c r="E155">
         <v>-3844</v>
       </c>
-      <c r="F155" t="n">
+      <c r="F155">
         <v>95</v>
       </c>
-      <c r="G155" t="n">
+      <c r="G155">
         <v>110</v>
       </c>
-      <c r="H155" t="n">
+      <c r="H155">
         <v>-15</v>
       </c>
-      <c r="I155" t="n">
+      <c r="I155">
         <v>2863</v>
       </c>
-      <c r="J155" t="n">
+      <c r="J155">
         <v>5748</v>
       </c>
-      <c r="K155" t="n">
+      <c r="K155">
         <v>-2885</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B156" s="2" t="n">
-        <v>44718.42230751157</v>
-      </c>
-      <c r="C156" t="n">
+      <c r="B156" s="2">
+        <v>44718.422307511573</v>
+      </c>
+      <c r="C156">
         <v>4660</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D156">
         <v>3608</v>
       </c>
-      <c r="E156" t="n">
+      <c r="E156">
         <v>1052</v>
       </c>
-      <c r="F156" t="n">
+      <c r="F156">
         <v>162</v>
       </c>
-      <c r="G156" t="n">
+      <c r="G156">
         <v>170</v>
       </c>
-      <c r="H156" t="n">
+      <c r="H156">
         <v>-8</v>
       </c>
-      <c r="I156" t="n">
+      <c r="I156">
         <v>3023</v>
       </c>
-      <c r="J156" t="n">
+      <c r="J156">
         <v>5567</v>
       </c>
-      <c r="K156" t="n">
+      <c r="K156">
         <v>-2544</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="B157" s="2" t="n">
-        <v>44719.37562577546</v>
-      </c>
-      <c r="C157" t="n">
+      <c r="B157" s="2">
+        <v>44719.375625775458</v>
+      </c>
+      <c r="C157">
         <v>5908</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D157">
         <v>2347</v>
       </c>
-      <c r="E157" t="n">
+      <c r="E157">
         <v>3561</v>
       </c>
-      <c r="F157" t="n">
+      <c r="F157">
         <v>207</v>
       </c>
-      <c r="G157" t="n">
+      <c r="G157">
         <v>169</v>
       </c>
-      <c r="H157" t="n">
+      <c r="H157">
         <v>38</v>
       </c>
-      <c r="I157" t="n">
+      <c r="I157">
         <v>3480</v>
       </c>
-      <c r="J157" t="n">
+      <c r="J157">
         <v>5110</v>
       </c>
-      <c r="K157" t="n">
+      <c r="K157">
         <v>-1630</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158" s="2" t="n">
-        <v>44720.36000672454</v>
-      </c>
-      <c r="C158" t="n">
+      <c r="B158" s="2">
+        <v>44720.360006724542</v>
+      </c>
+      <c r="C158">
         <v>2569</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D158">
         <v>5693</v>
       </c>
-      <c r="E158" t="n">
+      <c r="E158">
         <v>-3124</v>
       </c>
-      <c r="F158" t="n">
+      <c r="F158">
         <v>186</v>
       </c>
-      <c r="G158" t="n">
+      <c r="G158">
         <v>122</v>
       </c>
-      <c r="H158" t="n">
+      <c r="H158">
         <v>64</v>
       </c>
-      <c r="I158" t="n">
+      <c r="I158">
         <v>2999</v>
       </c>
-      <c r="J158" t="n">
+      <c r="J158">
         <v>5592</v>
       </c>
-      <c r="K158" t="n">
+      <c r="K158">
         <v>-2593</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" s="2" t="n">
-        <v>44721.34229250384</v>
-      </c>
-      <c r="C159" t="n">
+      <c r="B159" s="2">
+        <v>44721.342292499998</v>
+      </c>
+      <c r="C159">
         <v>1412</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D159">
         <v>6876</v>
       </c>
-      <c r="E159" t="n">
+      <c r="E159">
         <v>-5464</v>
       </c>
-      <c r="F159" t="n">
+      <c r="F159">
         <v>35</v>
       </c>
-      <c r="G159" t="n">
+      <c r="G159">
         <v>238</v>
       </c>
-      <c r="H159" t="n">
+      <c r="H159">
         <v>-203</v>
       </c>
-      <c r="I159" t="n">
+      <c r="I159">
         <v>2389</v>
       </c>
-      <c r="J159" t="n">
+      <c r="J159">
         <v>6202</v>
       </c>
-      <c r="K159" t="n">
+      <c r="K159">
         <v>-3813</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" s="2">
+        <v>44726.409328703703</v>
+      </c>
+      <c r="C160">
+        <v>3097</v>
+      </c>
+      <c r="D160">
+        <v>5160</v>
+      </c>
+      <c r="E160">
+        <v>-2063</v>
+      </c>
+      <c r="F160">
+        <v>59</v>
+      </c>
+      <c r="G160">
+        <v>2542</v>
+      </c>
+      <c r="H160">
+        <v>-2483</v>
+      </c>
+      <c r="I160">
+        <v>1151</v>
+      </c>
+      <c r="J160">
+        <v>7437</v>
+      </c>
+      <c r="K160">
+        <v>-6286</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" s="2">
+        <v>44727.588263888887</v>
+      </c>
+      <c r="C161">
+        <v>6316</v>
+      </c>
+      <c r="D161">
+        <v>1924</v>
+      </c>
+      <c r="E161">
+        <v>4392</v>
+      </c>
+      <c r="F161">
+        <v>21</v>
+      </c>
+      <c r="G161">
+        <v>697</v>
+      </c>
+      <c r="H161">
+        <v>-676</v>
+      </c>
+      <c r="I161">
+        <v>1328</v>
+      </c>
+      <c r="J161">
+        <v>7260</v>
+      </c>
+      <c r="K161">
+        <v>-5932</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" s="2">
+        <v>44728.362129629633</v>
+      </c>
+      <c r="C162">
+        <v>1083</v>
+      </c>
+      <c r="D162">
+        <v>7254</v>
+      </c>
+      <c r="E162">
+        <v>-6171</v>
+      </c>
+      <c r="F162">
+        <v>46</v>
+      </c>
+      <c r="G162">
+        <v>2894</v>
+      </c>
+      <c r="H162">
+        <v>-2848</v>
+      </c>
+      <c r="I162">
+        <v>1004</v>
+      </c>
+      <c r="J162">
+        <v>7590</v>
+      </c>
+      <c r="K162">
+        <v>-6586</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" s="2">
+        <v>44729.458148148151</v>
+      </c>
+      <c r="C163">
+        <v>5330</v>
+      </c>
+      <c r="D163">
+        <v>2953</v>
+      </c>
+      <c r="E163">
+        <v>2377</v>
+      </c>
+      <c r="F163">
+        <v>25</v>
+      </c>
+      <c r="G163">
+        <v>1324</v>
+      </c>
+      <c r="H163">
+        <v>-1299</v>
+      </c>
+      <c r="I163">
+        <v>1131</v>
+      </c>
+      <c r="J163">
+        <v>7463</v>
+      </c>
+      <c r="K163">
+        <v>-6332</v>
       </c>
     </row>
   </sheetData>

--- a/Data/marketmomentum.xlsx
+++ b/Data/marketmomentum.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K167"/>
+  <dimension ref="A1:K186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6269,7 +6269,7 @@
         <v>165</v>
       </c>
       <c r="B167" s="2" t="n">
-        <v>44736.38468323885</v>
+        <v>44736.38468324074</v>
       </c>
       <c r="C167" t="n">
         <v>6393</v>
@@ -6297,6 +6297,671 @@
       </c>
       <c r="K167" t="n">
         <v>-4514</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" s="2" t="n">
+        <v>44739.39972222222</v>
+      </c>
+      <c r="C168" t="n">
+        <v>4067</v>
+      </c>
+      <c r="D168" t="n">
+        <v>4172</v>
+      </c>
+      <c r="E168" t="n">
+        <v>-105</v>
+      </c>
+      <c r="F168" t="n">
+        <v>30</v>
+      </c>
+      <c r="G168" t="n">
+        <v>138</v>
+      </c>
+      <c r="H168" t="n">
+        <v>-108</v>
+      </c>
+      <c r="I168" t="n">
+        <v>2092</v>
+      </c>
+      <c r="J168" t="n">
+        <v>6470</v>
+      </c>
+      <c r="K168" t="n">
+        <v>-4378</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" s="2" t="n">
+        <v>44740.39421107639</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D169" t="n">
+        <v>6235</v>
+      </c>
+      <c r="E169" t="n">
+        <v>-4245</v>
+      </c>
+      <c r="F169" t="n">
+        <v>38</v>
+      </c>
+      <c r="G169" t="n">
+        <v>225</v>
+      </c>
+      <c r="H169" t="n">
+        <v>-187</v>
+      </c>
+      <c r="I169" t="n">
+        <v>1844</v>
+      </c>
+      <c r="J169" t="n">
+        <v>6718</v>
+      </c>
+      <c r="K169" t="n">
+        <v>-4874</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" s="2" t="n">
+        <v>44741.37340061343</v>
+      </c>
+      <c r="C170" t="n">
+        <v>2669</v>
+      </c>
+      <c r="D170" t="n">
+        <v>5496</v>
+      </c>
+      <c r="E170" t="n">
+        <v>-2827</v>
+      </c>
+      <c r="F170" t="n">
+        <v>18</v>
+      </c>
+      <c r="G170" t="n">
+        <v>521</v>
+      </c>
+      <c r="H170" t="n">
+        <v>-503</v>
+      </c>
+      <c r="I170" t="n">
+        <v>1761</v>
+      </c>
+      <c r="J170" t="n">
+        <v>6801</v>
+      </c>
+      <c r="K170" t="n">
+        <v>-5040</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" s="2" t="n">
+        <v>44742.46839253472</v>
+      </c>
+      <c r="C171" t="n">
+        <v>2982</v>
+      </c>
+      <c r="D171" t="n">
+        <v>5245</v>
+      </c>
+      <c r="E171" t="n">
+        <v>-2263</v>
+      </c>
+      <c r="F171" t="n">
+        <v>25</v>
+      </c>
+      <c r="G171" t="n">
+        <v>896</v>
+      </c>
+      <c r="H171" t="n">
+        <v>-871</v>
+      </c>
+      <c r="I171" t="n">
+        <v>1765</v>
+      </c>
+      <c r="J171" t="n">
+        <v>6797</v>
+      </c>
+      <c r="K171" t="n">
+        <v>-5032</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" s="2" t="n">
+        <v>44743.54515719907</v>
+      </c>
+      <c r="C172" t="n">
+        <v>5748</v>
+      </c>
+      <c r="D172" t="n">
+        <v>2422</v>
+      </c>
+      <c r="E172" t="n">
+        <v>3326</v>
+      </c>
+      <c r="F172" t="n">
+        <v>29</v>
+      </c>
+      <c r="G172" t="n">
+        <v>552</v>
+      </c>
+      <c r="H172" t="n">
+        <v>-523</v>
+      </c>
+      <c r="I172" t="n">
+        <v>2105</v>
+      </c>
+      <c r="J172" t="n">
+        <v>6457</v>
+      </c>
+      <c r="K172" t="n">
+        <v>-4352</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" s="2" t="n">
+        <v>44747.38194826389</v>
+      </c>
+      <c r="C173" t="n">
+        <v>4175</v>
+      </c>
+      <c r="D173" t="n">
+        <v>4082</v>
+      </c>
+      <c r="E173" t="n">
+        <v>93</v>
+      </c>
+      <c r="F173" t="n">
+        <v>31</v>
+      </c>
+      <c r="G173" t="n">
+        <v>1040</v>
+      </c>
+      <c r="H173" t="n">
+        <v>-1009</v>
+      </c>
+      <c r="I173" t="n">
+        <v>2267</v>
+      </c>
+      <c r="J173" t="n">
+        <v>6289</v>
+      </c>
+      <c r="K173" t="n">
+        <v>-4022</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" s="2" t="n">
+        <v>44748.43594785879</v>
+      </c>
+      <c r="C174" t="n">
+        <v>3212</v>
+      </c>
+      <c r="D174" t="n">
+        <v>4950</v>
+      </c>
+      <c r="E174" t="n">
+        <v>-1738</v>
+      </c>
+      <c r="F174" t="n">
+        <v>39</v>
+      </c>
+      <c r="G174" t="n">
+        <v>455</v>
+      </c>
+      <c r="H174" t="n">
+        <v>-416</v>
+      </c>
+      <c r="I174" t="n">
+        <v>2243</v>
+      </c>
+      <c r="J174" t="n">
+        <v>6313</v>
+      </c>
+      <c r="K174" t="n">
+        <v>-4070</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" s="2" t="n">
+        <v>44749.39737224537</v>
+      </c>
+      <c r="C175" t="n">
+        <v>6605</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1585</v>
+      </c>
+      <c r="E175" t="n">
+        <v>5020</v>
+      </c>
+      <c r="F175" t="n">
+        <v>34</v>
+      </c>
+      <c r="G175" t="n">
+        <v>98</v>
+      </c>
+      <c r="H175" t="n">
+        <v>-64</v>
+      </c>
+      <c r="I175" t="n">
+        <v>2616</v>
+      </c>
+      <c r="J175" t="n">
+        <v>5940</v>
+      </c>
+      <c r="K175" t="n">
+        <v>-3324</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" s="2" t="n">
+        <v>44750.5553844676</v>
+      </c>
+      <c r="C176" t="n">
+        <v>3870</v>
+      </c>
+      <c r="D176" t="n">
+        <v>4210</v>
+      </c>
+      <c r="E176" t="n">
+        <v>-340</v>
+      </c>
+      <c r="F176" t="n">
+        <v>31</v>
+      </c>
+      <c r="G176" t="n">
+        <v>103</v>
+      </c>
+      <c r="H176" t="n">
+        <v>-72</v>
+      </c>
+      <c r="I176" t="n">
+        <v>2714</v>
+      </c>
+      <c r="J176" t="n">
+        <v>5846</v>
+      </c>
+      <c r="K176" t="n">
+        <v>-3132</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" s="2" t="n">
+        <v>44753.58439575232</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1837</v>
+      </c>
+      <c r="D177" t="n">
+        <v>6372</v>
+      </c>
+      <c r="E177" t="n">
+        <v>-4535</v>
+      </c>
+      <c r="F177" t="n">
+        <v>23</v>
+      </c>
+      <c r="G177" t="n">
+        <v>299</v>
+      </c>
+      <c r="H177" t="n">
+        <v>-276</v>
+      </c>
+      <c r="I177" t="n">
+        <v>2430</v>
+      </c>
+      <c r="J177" t="n">
+        <v>6112</v>
+      </c>
+      <c r="K177" t="n">
+        <v>-3682</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" s="2" t="n">
+        <v>44754.55703174769</v>
+      </c>
+      <c r="C178" t="n">
+        <v>3365</v>
+      </c>
+      <c r="D178" t="n">
+        <v>4744</v>
+      </c>
+      <c r="E178" t="n">
+        <v>-1379</v>
+      </c>
+      <c r="F178" t="n">
+        <v>20</v>
+      </c>
+      <c r="G178" t="n">
+        <v>370</v>
+      </c>
+      <c r="H178" t="n">
+        <v>-350</v>
+      </c>
+      <c r="I178" t="n">
+        <v>2380</v>
+      </c>
+      <c r="J178" t="n">
+        <v>6162</v>
+      </c>
+      <c r="K178" t="n">
+        <v>-3782</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" s="2" t="n">
+        <v>44755.57142296296</v>
+      </c>
+      <c r="C179" t="n">
+        <v>3577</v>
+      </c>
+      <c r="D179" t="n">
+        <v>4523</v>
+      </c>
+      <c r="E179" t="n">
+        <v>-946</v>
+      </c>
+      <c r="F179" t="n">
+        <v>24</v>
+      </c>
+      <c r="G179" t="n">
+        <v>595</v>
+      </c>
+      <c r="H179" t="n">
+        <v>-571</v>
+      </c>
+      <c r="I179" t="n">
+        <v>2417</v>
+      </c>
+      <c r="J179" t="n">
+        <v>6126</v>
+      </c>
+      <c r="K179" t="n">
+        <v>-3709</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" s="2" t="n">
+        <v>44756.57949767361</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1959</v>
+      </c>
+      <c r="D180" t="n">
+        <v>6184</v>
+      </c>
+      <c r="E180" t="n">
+        <v>-4225</v>
+      </c>
+      <c r="F180" t="n">
+        <v>26</v>
+      </c>
+      <c r="G180" t="n">
+        <v>1114</v>
+      </c>
+      <c r="H180" t="n">
+        <v>-1088</v>
+      </c>
+      <c r="I180" t="n">
+        <v>2206</v>
+      </c>
+      <c r="J180" t="n">
+        <v>6337</v>
+      </c>
+      <c r="K180" t="n">
+        <v>-4131</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" s="2" t="n">
+        <v>44757.59148349537</v>
+      </c>
+      <c r="C181" t="n">
+        <v>6530</v>
+      </c>
+      <c r="D181" t="n">
+        <v>1649</v>
+      </c>
+      <c r="E181" t="n">
+        <v>4881</v>
+      </c>
+      <c r="F181" t="n">
+        <v>30</v>
+      </c>
+      <c r="G181" t="n">
+        <v>208</v>
+      </c>
+      <c r="H181" t="n">
+        <v>-178</v>
+      </c>
+      <c r="I181" t="n">
+        <v>2632</v>
+      </c>
+      <c r="J181" t="n">
+        <v>5911</v>
+      </c>
+      <c r="K181" t="n">
+        <v>-3279</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" s="2" t="n">
+        <v>44760.59047269676</v>
+      </c>
+      <c r="C182" t="n">
+        <v>3976</v>
+      </c>
+      <c r="D182" t="n">
+        <v>4197</v>
+      </c>
+      <c r="E182" t="n">
+        <v>-221</v>
+      </c>
+      <c r="F182" t="n">
+        <v>35</v>
+      </c>
+      <c r="G182" t="n">
+        <v>105</v>
+      </c>
+      <c r="H182" t="n">
+        <v>-70</v>
+      </c>
+      <c r="I182" t="n">
+        <v>2551</v>
+      </c>
+      <c r="J182" t="n">
+        <v>6013</v>
+      </c>
+      <c r="K182" t="n">
+        <v>-3462</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" s="2" t="n">
+        <v>44761.59057572917</v>
+      </c>
+      <c r="C183" t="n">
+        <v>6932</v>
+      </c>
+      <c r="D183" t="n">
+        <v>1295</v>
+      </c>
+      <c r="E183" t="n">
+        <v>5637</v>
+      </c>
+      <c r="F183" t="n">
+        <v>36</v>
+      </c>
+      <c r="G183" t="n">
+        <v>69</v>
+      </c>
+      <c r="H183" t="n">
+        <v>-33</v>
+      </c>
+      <c r="I183" t="n">
+        <v>3709</v>
+      </c>
+      <c r="J183" t="n">
+        <v>4855</v>
+      </c>
+      <c r="K183" t="n">
+        <v>-1146</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" s="2" t="n">
+        <v>44762.58284851852</v>
+      </c>
+      <c r="C184" t="n">
+        <v>5527</v>
+      </c>
+      <c r="D184" t="n">
+        <v>2630</v>
+      </c>
+      <c r="E184" t="n">
+        <v>2897</v>
+      </c>
+      <c r="F184" t="n">
+        <v>38</v>
+      </c>
+      <c r="G184" t="n">
+        <v>74</v>
+      </c>
+      <c r="H184" t="n">
+        <v>-36</v>
+      </c>
+      <c r="I184" t="n">
+        <v>4257</v>
+      </c>
+      <c r="J184" t="n">
+        <v>4307</v>
+      </c>
+      <c r="K184" t="n">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" s="2" t="n">
+        <v>44763.58935966435</v>
+      </c>
+      <c r="C185" t="n">
+        <v>5275</v>
+      </c>
+      <c r="D185" t="n">
+        <v>2865</v>
+      </c>
+      <c r="E185" t="n">
+        <v>2410</v>
+      </c>
+      <c r="F185" t="n">
+        <v>34</v>
+      </c>
+      <c r="G185" t="n">
+        <v>80</v>
+      </c>
+      <c r="H185" t="n">
+        <v>-46</v>
+      </c>
+      <c r="I185" t="n">
+        <v>4718</v>
+      </c>
+      <c r="J185" t="n">
+        <v>3846</v>
+      </c>
+      <c r="K185" t="n">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" s="2" t="n">
+        <v>44764.99894488456</v>
+      </c>
+      <c r="C186" t="n">
+        <v>2272</v>
+      </c>
+      <c r="D186" t="n">
+        <v>5929</v>
+      </c>
+      <c r="E186" t="n">
+        <v>-3657</v>
+      </c>
+      <c r="F186" t="n">
+        <v>40</v>
+      </c>
+      <c r="G186" t="n">
+        <v>106</v>
+      </c>
+      <c r="H186" t="n">
+        <v>-66</v>
+      </c>
+      <c r="I186" t="n">
+        <v>4368</v>
+      </c>
+      <c r="J186" t="n">
+        <v>4196</v>
+      </c>
+      <c r="K186" t="n">
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/Data/marketmomentum.xlsx
+++ b/Data/marketmomentum.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K186"/>
+  <dimension ref="A1:K233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6934,7 +6934,7 @@
         <v>184</v>
       </c>
       <c r="B186" s="2" t="n">
-        <v>44764.99894488456</v>
+        <v>44764.99894488426</v>
       </c>
       <c r="C186" t="n">
         <v>2272</v>
@@ -6962,6 +6962,1651 @@
       </c>
       <c r="K186" t="n">
         <v>172</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" s="2" t="n">
+        <v>44767.04608006944</v>
+      </c>
+      <c r="C187" t="n">
+        <v>4587</v>
+      </c>
+      <c r="D187" t="n">
+        <v>3572</v>
+      </c>
+      <c r="E187" t="n">
+        <v>1015</v>
+      </c>
+      <c r="F187" t="n">
+        <v>58</v>
+      </c>
+      <c r="G187" t="n">
+        <v>158</v>
+      </c>
+      <c r="H187" t="n">
+        <v>-100</v>
+      </c>
+      <c r="I187" t="n">
+        <v>4511</v>
+      </c>
+      <c r="J187" t="n">
+        <v>4047</v>
+      </c>
+      <c r="K187" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" s="2" t="n">
+        <v>44768.0424635301</v>
+      </c>
+      <c r="C188" t="n">
+        <v>2673</v>
+      </c>
+      <c r="D188" t="n">
+        <v>5432</v>
+      </c>
+      <c r="E188" t="n">
+        <v>-2759</v>
+      </c>
+      <c r="F188" t="n">
+        <v>48</v>
+      </c>
+      <c r="G188" t="n">
+        <v>189</v>
+      </c>
+      <c r="H188" t="n">
+        <v>-141</v>
+      </c>
+      <c r="I188" t="n">
+        <v>3976</v>
+      </c>
+      <c r="J188" t="n">
+        <v>4582</v>
+      </c>
+      <c r="K188" t="n">
+        <v>-606</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" s="2" t="n">
+        <v>44769.11348030093</v>
+      </c>
+      <c r="C189" t="n">
+        <v>6860</v>
+      </c>
+      <c r="D189" t="n">
+        <v>1339</v>
+      </c>
+      <c r="E189" t="n">
+        <v>5521</v>
+      </c>
+      <c r="F189" t="n">
+        <v>70</v>
+      </c>
+      <c r="G189" t="n">
+        <v>146</v>
+      </c>
+      <c r="H189" t="n">
+        <v>-76</v>
+      </c>
+      <c r="I189" t="n">
+        <v>5015</v>
+      </c>
+      <c r="J189" t="n">
+        <v>3543</v>
+      </c>
+      <c r="K189" t="n">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" s="2" t="n">
+        <v>44770.59405295139</v>
+      </c>
+      <c r="C190" t="n">
+        <v>5914</v>
+      </c>
+      <c r="D190" t="n">
+        <v>2281</v>
+      </c>
+      <c r="E190" t="n">
+        <v>3633</v>
+      </c>
+      <c r="F190" t="n">
+        <v>107</v>
+      </c>
+      <c r="G190" t="n">
+        <v>139</v>
+      </c>
+      <c r="H190" t="n">
+        <v>-32</v>
+      </c>
+      <c r="I190" t="n">
+        <v>5406</v>
+      </c>
+      <c r="J190" t="n">
+        <v>3152</v>
+      </c>
+      <c r="K190" t="n">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" s="2" t="n">
+        <v>44771.87229269676</v>
+      </c>
+      <c r="C191" t="n">
+        <v>5486</v>
+      </c>
+      <c r="D191" t="n">
+        <v>2658</v>
+      </c>
+      <c r="E191" t="n">
+        <v>2828</v>
+      </c>
+      <c r="F191" t="n">
+        <v>99</v>
+      </c>
+      <c r="G191" t="n">
+        <v>127</v>
+      </c>
+      <c r="H191" t="n">
+        <v>-28</v>
+      </c>
+      <c r="I191" t="n">
+        <v>5652</v>
+      </c>
+      <c r="J191" t="n">
+        <v>2906</v>
+      </c>
+      <c r="K191" t="n">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" s="2" t="n">
+        <v>44774.35736122685</v>
+      </c>
+      <c r="C192" t="n">
+        <v>3757</v>
+      </c>
+      <c r="D192" t="n">
+        <v>4417</v>
+      </c>
+      <c r="E192" t="n">
+        <v>-660</v>
+      </c>
+      <c r="F192" t="n">
+        <v>90</v>
+      </c>
+      <c r="G192" t="n">
+        <v>136</v>
+      </c>
+      <c r="H192" t="n">
+        <v>-46</v>
+      </c>
+      <c r="I192" t="n">
+        <v>5590</v>
+      </c>
+      <c r="J192" t="n">
+        <v>2957</v>
+      </c>
+      <c r="K192" t="n">
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" s="2" t="n">
+        <v>44775.40789179398</v>
+      </c>
+      <c r="C193" t="n">
+        <v>3336</v>
+      </c>
+      <c r="D193" t="n">
+        <v>4821</v>
+      </c>
+      <c r="E193" t="n">
+        <v>-1485</v>
+      </c>
+      <c r="F193" t="n">
+        <v>71</v>
+      </c>
+      <c r="G193" t="n">
+        <v>103</v>
+      </c>
+      <c r="H193" t="n">
+        <v>-32</v>
+      </c>
+      <c r="I193" t="n">
+        <v>5505</v>
+      </c>
+      <c r="J193" t="n">
+        <v>3042</v>
+      </c>
+      <c r="K193" t="n">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" s="2" t="n">
+        <v>44776.38651695602</v>
+      </c>
+      <c r="C194" t="n">
+        <v>6079</v>
+      </c>
+      <c r="D194" t="n">
+        <v>2117</v>
+      </c>
+      <c r="E194" t="n">
+        <v>3962</v>
+      </c>
+      <c r="F194" t="n">
+        <v>55</v>
+      </c>
+      <c r="G194" t="n">
+        <v>68</v>
+      </c>
+      <c r="H194" t="n">
+        <v>-13</v>
+      </c>
+      <c r="I194" t="n">
+        <v>5860</v>
+      </c>
+      <c r="J194" t="n">
+        <v>2687</v>
+      </c>
+      <c r="K194" t="n">
+        <v>3173</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" s="2" t="n">
+        <v>44777.36627068287</v>
+      </c>
+      <c r="C195" t="n">
+        <v>4444</v>
+      </c>
+      <c r="D195" t="n">
+        <v>3708</v>
+      </c>
+      <c r="E195" t="n">
+        <v>736</v>
+      </c>
+      <c r="F195" t="n">
+        <v>70</v>
+      </c>
+      <c r="G195" t="n">
+        <v>64</v>
+      </c>
+      <c r="H195" t="n">
+        <v>6</v>
+      </c>
+      <c r="I195" t="n">
+        <v>5909</v>
+      </c>
+      <c r="J195" t="n">
+        <v>2638</v>
+      </c>
+      <c r="K195" t="n">
+        <v>3271</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" s="2" t="n">
+        <v>44778.35435142361</v>
+      </c>
+      <c r="C196" t="n">
+        <v>4265</v>
+      </c>
+      <c r="D196" t="n">
+        <v>3909</v>
+      </c>
+      <c r="E196" t="n">
+        <v>356</v>
+      </c>
+      <c r="F196" t="n">
+        <v>72</v>
+      </c>
+      <c r="G196" t="n">
+        <v>82</v>
+      </c>
+      <c r="H196" t="n">
+        <v>-10</v>
+      </c>
+      <c r="I196" t="n">
+        <v>5874</v>
+      </c>
+      <c r="J196" t="n">
+        <v>2673</v>
+      </c>
+      <c r="K196" t="n">
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" s="2" t="n">
+        <v>44781.37119399306</v>
+      </c>
+      <c r="C197" t="n">
+        <v>5631</v>
+      </c>
+      <c r="D197" t="n">
+        <v>2560</v>
+      </c>
+      <c r="E197" t="n">
+        <v>3071</v>
+      </c>
+      <c r="F197" t="n">
+        <v>119</v>
+      </c>
+      <c r="G197" t="n">
+        <v>35</v>
+      </c>
+      <c r="H197" t="n">
+        <v>84</v>
+      </c>
+      <c r="I197" t="n">
+        <v>6188</v>
+      </c>
+      <c r="J197" t="n">
+        <v>2358</v>
+      </c>
+      <c r="K197" t="n">
+        <v>3830</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" s="2" t="n">
+        <v>44782.36290737268</v>
+      </c>
+      <c r="C198" t="n">
+        <v>2442</v>
+      </c>
+      <c r="D198" t="n">
+        <v>5724</v>
+      </c>
+      <c r="E198" t="n">
+        <v>-3282</v>
+      </c>
+      <c r="F198" t="n">
+        <v>59</v>
+      </c>
+      <c r="G198" t="n">
+        <v>104</v>
+      </c>
+      <c r="H198" t="n">
+        <v>-45</v>
+      </c>
+      <c r="I198" t="n">
+        <v>5883</v>
+      </c>
+      <c r="J198" t="n">
+        <v>2664</v>
+      </c>
+      <c r="K198" t="n">
+        <v>3219</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" s="2" t="n">
+        <v>44783.35794023148</v>
+      </c>
+      <c r="C199" t="n">
+        <v>6952</v>
+      </c>
+      <c r="D199" t="n">
+        <v>1271</v>
+      </c>
+      <c r="E199" t="n">
+        <v>5681</v>
+      </c>
+      <c r="F199" t="n">
+        <v>115</v>
+      </c>
+      <c r="G199" t="n">
+        <v>78</v>
+      </c>
+      <c r="H199" t="n">
+        <v>37</v>
+      </c>
+      <c r="I199" t="n">
+        <v>6490</v>
+      </c>
+      <c r="J199" t="n">
+        <v>2057</v>
+      </c>
+      <c r="K199" t="n">
+        <v>4433</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" s="2" t="n">
+        <v>44784.32899429398</v>
+      </c>
+      <c r="C200" t="n">
+        <v>4627</v>
+      </c>
+      <c r="D200" t="n">
+        <v>3500</v>
+      </c>
+      <c r="E200" t="n">
+        <v>1127</v>
+      </c>
+      <c r="F200" t="n">
+        <v>120</v>
+      </c>
+      <c r="G200" t="n">
+        <v>42</v>
+      </c>
+      <c r="H200" t="n">
+        <v>78</v>
+      </c>
+      <c r="I200" t="n">
+        <v>6646</v>
+      </c>
+      <c r="J200" t="n">
+        <v>1901</v>
+      </c>
+      <c r="K200" t="n">
+        <v>4745</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" s="2" t="n">
+        <v>44785.35248027778</v>
+      </c>
+      <c r="C201" t="n">
+        <v>6592</v>
+      </c>
+      <c r="D201" t="n">
+        <v>1598</v>
+      </c>
+      <c r="E201" t="n">
+        <v>4994</v>
+      </c>
+      <c r="F201" t="n">
+        <v>129</v>
+      </c>
+      <c r="G201" t="n">
+        <v>55</v>
+      </c>
+      <c r="H201" t="n">
+        <v>74</v>
+      </c>
+      <c r="I201" t="n">
+        <v>6936</v>
+      </c>
+      <c r="J201" t="n">
+        <v>1611</v>
+      </c>
+      <c r="K201" t="n">
+        <v>5325</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" s="2" t="n">
+        <v>44788.35886459491</v>
+      </c>
+      <c r="C202" t="n">
+        <v>4480</v>
+      </c>
+      <c r="D202" t="n">
+        <v>3675</v>
+      </c>
+      <c r="E202" t="n">
+        <v>805</v>
+      </c>
+      <c r="F202" t="n">
+        <v>141</v>
+      </c>
+      <c r="G202" t="n">
+        <v>45</v>
+      </c>
+      <c r="H202" t="n">
+        <v>96</v>
+      </c>
+      <c r="I202" t="n">
+        <v>6858</v>
+      </c>
+      <c r="J202" t="n">
+        <v>1687</v>
+      </c>
+      <c r="K202" t="n">
+        <v>5171</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" s="2" t="n">
+        <v>44789.39373842593</v>
+      </c>
+      <c r="C203" t="n">
+        <v>4043</v>
+      </c>
+      <c r="D203" t="n">
+        <v>4118</v>
+      </c>
+      <c r="E203" t="n">
+        <v>-75</v>
+      </c>
+      <c r="F203" t="n">
+        <v>149</v>
+      </c>
+      <c r="G203" t="n">
+        <v>62</v>
+      </c>
+      <c r="H203" t="n">
+        <v>87</v>
+      </c>
+      <c r="I203" t="n">
+        <v>6829</v>
+      </c>
+      <c r="J203" t="n">
+        <v>1715</v>
+      </c>
+      <c r="K203" t="n">
+        <v>5114</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" s="2" t="n">
+        <v>44790.42407347222</v>
+      </c>
+      <c r="C204" t="n">
+        <v>1599</v>
+      </c>
+      <c r="D204" t="n">
+        <v>6610</v>
+      </c>
+      <c r="E204" t="n">
+        <v>-5011</v>
+      </c>
+      <c r="F204" t="n">
+        <v>73</v>
+      </c>
+      <c r="G204" t="n">
+        <v>90</v>
+      </c>
+      <c r="H204" t="n">
+        <v>-17</v>
+      </c>
+      <c r="I204" t="n">
+        <v>6553</v>
+      </c>
+      <c r="J204" t="n">
+        <v>1994</v>
+      </c>
+      <c r="K204" t="n">
+        <v>4559</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" s="2" t="n">
+        <v>44791.38892716435</v>
+      </c>
+      <c r="C205" t="n">
+        <v>4721</v>
+      </c>
+      <c r="D205" t="n">
+        <v>3403</v>
+      </c>
+      <c r="E205" t="n">
+        <v>1318</v>
+      </c>
+      <c r="F205" t="n">
+        <v>121</v>
+      </c>
+      <c r="G205" t="n">
+        <v>89</v>
+      </c>
+      <c r="H205" t="n">
+        <v>32</v>
+      </c>
+      <c r="I205" t="n">
+        <v>6620</v>
+      </c>
+      <c r="J205" t="n">
+        <v>1927</v>
+      </c>
+      <c r="K205" t="n">
+        <v>4693</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" s="2" t="n">
+        <v>44792.37556472222</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1209</v>
+      </c>
+      <c r="D206" t="n">
+        <v>7008</v>
+      </c>
+      <c r="E206" t="n">
+        <v>-5799</v>
+      </c>
+      <c r="F206" t="n">
+        <v>72</v>
+      </c>
+      <c r="G206" t="n">
+        <v>144</v>
+      </c>
+      <c r="H206" t="n">
+        <v>-72</v>
+      </c>
+      <c r="I206" t="n">
+        <v>6128</v>
+      </c>
+      <c r="J206" t="n">
+        <v>2422</v>
+      </c>
+      <c r="K206" t="n">
+        <v>3706</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" s="2" t="n">
+        <v>44795.38232777778</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1373</v>
+      </c>
+      <c r="D207" t="n">
+        <v>6839</v>
+      </c>
+      <c r="E207" t="n">
+        <v>-5466</v>
+      </c>
+      <c r="F207" t="n">
+        <v>60</v>
+      </c>
+      <c r="G207" t="n">
+        <v>276</v>
+      </c>
+      <c r="H207" t="n">
+        <v>-216</v>
+      </c>
+      <c r="I207" t="n">
+        <v>5416</v>
+      </c>
+      <c r="J207" t="n">
+        <v>3128</v>
+      </c>
+      <c r="K207" t="n">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" s="2" t="n">
+        <v>44796.35840840278</v>
+      </c>
+      <c r="C208" t="n">
+        <v>4287</v>
+      </c>
+      <c r="D208" t="n">
+        <v>3859</v>
+      </c>
+      <c r="E208" t="n">
+        <v>428</v>
+      </c>
+      <c r="F208" t="n">
+        <v>67</v>
+      </c>
+      <c r="G208" t="n">
+        <v>214</v>
+      </c>
+      <c r="H208" t="n">
+        <v>-147</v>
+      </c>
+      <c r="I208" t="n">
+        <v>5585</v>
+      </c>
+      <c r="J208" t="n">
+        <v>2959</v>
+      </c>
+      <c r="K208" t="n">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" s="2" t="n">
+        <v>44797.43200023148</v>
+      </c>
+      <c r="C209" t="n">
+        <v>5325</v>
+      </c>
+      <c r="D209" t="n">
+        <v>2831</v>
+      </c>
+      <c r="E209" t="n">
+        <v>2494</v>
+      </c>
+      <c r="F209" t="n">
+        <v>72</v>
+      </c>
+      <c r="G209" t="n">
+        <v>183</v>
+      </c>
+      <c r="H209" t="n">
+        <v>-111</v>
+      </c>
+      <c r="I209" t="n">
+        <v>5680</v>
+      </c>
+      <c r="J209" t="n">
+        <v>2864</v>
+      </c>
+      <c r="K209" t="n">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" s="2" t="n">
+        <v>44798.37002791667</v>
+      </c>
+      <c r="C210" t="n">
+        <v>6299</v>
+      </c>
+      <c r="D210" t="n">
+        <v>1875</v>
+      </c>
+      <c r="E210" t="n">
+        <v>4424</v>
+      </c>
+      <c r="F210" t="n">
+        <v>92</v>
+      </c>
+      <c r="G210" t="n">
+        <v>100</v>
+      </c>
+      <c r="H210" t="n">
+        <v>-8</v>
+      </c>
+      <c r="I210" t="n">
+        <v>6101</v>
+      </c>
+      <c r="J210" t="n">
+        <v>2448</v>
+      </c>
+      <c r="K210" t="n">
+        <v>3653</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" s="2" t="n">
+        <v>44799.36085837963</v>
+      </c>
+      <c r="C211" t="n">
+        <v>977</v>
+      </c>
+      <c r="D211" t="n">
+        <v>7227</v>
+      </c>
+      <c r="E211" t="n">
+        <v>-6250</v>
+      </c>
+      <c r="F211" t="n">
+        <v>60</v>
+      </c>
+      <c r="G211" t="n">
+        <v>238</v>
+      </c>
+      <c r="H211" t="n">
+        <v>-178</v>
+      </c>
+      <c r="I211" t="n">
+        <v>5063</v>
+      </c>
+      <c r="J211" t="n">
+        <v>3486</v>
+      </c>
+      <c r="K211" t="n">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" s="2" t="n">
+        <v>44802.35988274305</v>
+      </c>
+      <c r="C212" t="n">
+        <v>2318</v>
+      </c>
+      <c r="D212" t="n">
+        <v>5831</v>
+      </c>
+      <c r="E212" t="n">
+        <v>-3513</v>
+      </c>
+      <c r="F212" t="n">
+        <v>49</v>
+      </c>
+      <c r="G212" t="n">
+        <v>350</v>
+      </c>
+      <c r="H212" t="n">
+        <v>-301</v>
+      </c>
+      <c r="I212" t="n">
+        <v>4637</v>
+      </c>
+      <c r="J212" t="n">
+        <v>3901</v>
+      </c>
+      <c r="K212" t="n">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" s="2" t="n">
+        <v>44803.36232087963</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1699</v>
+      </c>
+      <c r="D213" t="n">
+        <v>6442</v>
+      </c>
+      <c r="E213" t="n">
+        <v>-4743</v>
+      </c>
+      <c r="F213" t="n">
+        <v>21</v>
+      </c>
+      <c r="G213" t="n">
+        <v>393</v>
+      </c>
+      <c r="H213" t="n">
+        <v>-372</v>
+      </c>
+      <c r="I213" t="n">
+        <v>3852</v>
+      </c>
+      <c r="J213" t="n">
+        <v>4686</v>
+      </c>
+      <c r="K213" t="n">
+        <v>-834</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" s="2" t="n">
+        <v>44804.35327430555</v>
+      </c>
+      <c r="C214" t="n">
+        <v>2677</v>
+      </c>
+      <c r="D214" t="n">
+        <v>5449</v>
+      </c>
+      <c r="E214" t="n">
+        <v>-2772</v>
+      </c>
+      <c r="F214" t="n">
+        <v>24</v>
+      </c>
+      <c r="G214" t="n">
+        <v>384</v>
+      </c>
+      <c r="H214" t="n">
+        <v>-360</v>
+      </c>
+      <c r="I214" t="n">
+        <v>3376</v>
+      </c>
+      <c r="J214" t="n">
+        <v>5162</v>
+      </c>
+      <c r="K214" t="n">
+        <v>-1786</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" s="2" t="n">
+        <v>44805.34719387731</v>
+      </c>
+      <c r="C215" t="n">
+        <v>2410</v>
+      </c>
+      <c r="D215" t="n">
+        <v>5793</v>
+      </c>
+      <c r="E215" t="n">
+        <v>-3383</v>
+      </c>
+      <c r="F215" t="n">
+        <v>34</v>
+      </c>
+      <c r="G215" t="n">
+        <v>741</v>
+      </c>
+      <c r="H215" t="n">
+        <v>-707</v>
+      </c>
+      <c r="I215" t="n">
+        <v>2914</v>
+      </c>
+      <c r="J215" t="n">
+        <v>5631</v>
+      </c>
+      <c r="K215" t="n">
+        <v>-2717</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" s="2" t="n">
+        <v>44809.38396387731</v>
+      </c>
+      <c r="C216" t="n">
+        <v>2893</v>
+      </c>
+      <c r="D216" t="n">
+        <v>5237</v>
+      </c>
+      <c r="E216" t="n">
+        <v>-2344</v>
+      </c>
+      <c r="F216" t="n">
+        <v>36</v>
+      </c>
+      <c r="G216" t="n">
+        <v>308</v>
+      </c>
+      <c r="H216" t="n">
+        <v>-272</v>
+      </c>
+      <c r="I216" t="n">
+        <v>2717</v>
+      </c>
+      <c r="J216" t="n">
+        <v>5828</v>
+      </c>
+      <c r="K216" t="n">
+        <v>-3111</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" s="2" t="n">
+        <v>44810.3582559375</v>
+      </c>
+      <c r="C217" t="n">
+        <v>2325</v>
+      </c>
+      <c r="D217" t="n">
+        <v>5902</v>
+      </c>
+      <c r="E217" t="n">
+        <v>-3577</v>
+      </c>
+      <c r="F217" t="n">
+        <v>37</v>
+      </c>
+      <c r="G217" t="n">
+        <v>669</v>
+      </c>
+      <c r="H217" t="n">
+        <v>-632</v>
+      </c>
+      <c r="I217" t="n">
+        <v>2434</v>
+      </c>
+      <c r="J217" t="n">
+        <v>6097</v>
+      </c>
+      <c r="K217" t="n">
+        <v>-3663</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" s="2" t="n">
+        <v>44811.35377961805</v>
+      </c>
+      <c r="C218" t="n">
+        <v>6502</v>
+      </c>
+      <c r="D218" t="n">
+        <v>1696</v>
+      </c>
+      <c r="E218" t="n">
+        <v>4806</v>
+      </c>
+      <c r="F218" t="n">
+        <v>40</v>
+      </c>
+      <c r="G218" t="n">
+        <v>452</v>
+      </c>
+      <c r="H218" t="n">
+        <v>-412</v>
+      </c>
+      <c r="I218" t="n">
+        <v>3045</v>
+      </c>
+      <c r="J218" t="n">
+        <v>5486</v>
+      </c>
+      <c r="K218" t="n">
+        <v>-2441</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" s="2" t="n">
+        <v>44812.41418288194</v>
+      </c>
+      <c r="C219" t="n">
+        <v>5018</v>
+      </c>
+      <c r="D219" t="n">
+        <v>3097</v>
+      </c>
+      <c r="E219" t="n">
+        <v>1921</v>
+      </c>
+      <c r="F219" t="n">
+        <v>50</v>
+      </c>
+      <c r="G219" t="n">
+        <v>263</v>
+      </c>
+      <c r="H219" t="n">
+        <v>-213</v>
+      </c>
+      <c r="I219" t="n">
+        <v>3355</v>
+      </c>
+      <c r="J219" t="n">
+        <v>5176</v>
+      </c>
+      <c r="K219" t="n">
+        <v>-1821</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" s="2" t="n">
+        <v>44813.3665837963</v>
+      </c>
+      <c r="C220" t="n">
+        <v>6639</v>
+      </c>
+      <c r="D220" t="n">
+        <v>1579</v>
+      </c>
+      <c r="E220" t="n">
+        <v>5060</v>
+      </c>
+      <c r="F220" t="n">
+        <v>67</v>
+      </c>
+      <c r="G220" t="n">
+        <v>89</v>
+      </c>
+      <c r="H220" t="n">
+        <v>-22</v>
+      </c>
+      <c r="I220" t="n">
+        <v>4248</v>
+      </c>
+      <c r="J220" t="n">
+        <v>4283</v>
+      </c>
+      <c r="K220" t="n">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" s="2" t="n">
+        <v>44816.35154908565</v>
+      </c>
+      <c r="C221" t="n">
+        <v>5974</v>
+      </c>
+      <c r="D221" t="n">
+        <v>2177</v>
+      </c>
+      <c r="E221" t="n">
+        <v>3797</v>
+      </c>
+      <c r="F221" t="n">
+        <v>90</v>
+      </c>
+      <c r="G221" t="n">
+        <v>96</v>
+      </c>
+      <c r="H221" t="n">
+        <v>-6</v>
+      </c>
+      <c r="I221" t="n">
+        <v>4779</v>
+      </c>
+      <c r="J221" t="n">
+        <v>3729</v>
+      </c>
+      <c r="K221" t="n">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" s="2" t="n">
+        <v>44817.35328626158</v>
+      </c>
+      <c r="C222" t="n">
+        <v>945</v>
+      </c>
+      <c r="D222" t="n">
+        <v>7313</v>
+      </c>
+      <c r="E222" t="n">
+        <v>-6368</v>
+      </c>
+      <c r="F222" t="n">
+        <v>32</v>
+      </c>
+      <c r="G222" t="n">
+        <v>316</v>
+      </c>
+      <c r="H222" t="n">
+        <v>-284</v>
+      </c>
+      <c r="I222" t="n">
+        <v>2811</v>
+      </c>
+      <c r="J222" t="n">
+        <v>5699</v>
+      </c>
+      <c r="K222" t="n">
+        <v>-2888</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" s="2" t="n">
+        <v>44818.37316048611</v>
+      </c>
+      <c r="C223" t="n">
+        <v>4208</v>
+      </c>
+      <c r="D223" t="n">
+        <v>3874</v>
+      </c>
+      <c r="E223" t="n">
+        <v>334</v>
+      </c>
+      <c r="F223" t="n">
+        <v>52</v>
+      </c>
+      <c r="G223" t="n">
+        <v>402</v>
+      </c>
+      <c r="H223" t="n">
+        <v>-350</v>
+      </c>
+      <c r="I223" t="n">
+        <v>2805</v>
+      </c>
+      <c r="J223" t="n">
+        <v>5705</v>
+      </c>
+      <c r="K223" t="n">
+        <v>-2900</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" s="2" t="n">
+        <v>44819.35033637731</v>
+      </c>
+      <c r="C224" t="n">
+        <v>2601</v>
+      </c>
+      <c r="D224" t="n">
+        <v>5552</v>
+      </c>
+      <c r="E224" t="n">
+        <v>-2951</v>
+      </c>
+      <c r="F224" t="n">
+        <v>30</v>
+      </c>
+      <c r="G224" t="n">
+        <v>465</v>
+      </c>
+      <c r="H224" t="n">
+        <v>-435</v>
+      </c>
+      <c r="I224" t="n">
+        <v>2578</v>
+      </c>
+      <c r="J224" t="n">
+        <v>5932</v>
+      </c>
+      <c r="K224" t="n">
+        <v>-3354</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" s="2" t="n">
+        <v>44820.38680980324</v>
+      </c>
+      <c r="C225" t="n">
+        <v>2065</v>
+      </c>
+      <c r="D225" t="n">
+        <v>6100</v>
+      </c>
+      <c r="E225" t="n">
+        <v>-4035</v>
+      </c>
+      <c r="F225" t="n">
+        <v>28</v>
+      </c>
+      <c r="G225" t="n">
+        <v>960</v>
+      </c>
+      <c r="H225" t="n">
+        <v>-932</v>
+      </c>
+      <c r="I225" t="n">
+        <v>2193</v>
+      </c>
+      <c r="J225" t="n">
+        <v>6317</v>
+      </c>
+      <c r="K225" t="n">
+        <v>-4124</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" s="2" t="n">
+        <v>44823.39087869213</v>
+      </c>
+      <c r="C226" t="n">
+        <v>4642</v>
+      </c>
+      <c r="D226" t="n">
+        <v>3512</v>
+      </c>
+      <c r="E226" t="n">
+        <v>1130</v>
+      </c>
+      <c r="F226" t="n">
+        <v>41</v>
+      </c>
+      <c r="G226" t="n">
+        <v>837</v>
+      </c>
+      <c r="H226" t="n">
+        <v>-796</v>
+      </c>
+      <c r="I226" t="n">
+        <v>2275</v>
+      </c>
+      <c r="J226" t="n">
+        <v>6229</v>
+      </c>
+      <c r="K226" t="n">
+        <v>-3954</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" s="2" t="n">
+        <v>44824.37238204861</v>
+      </c>
+      <c r="C227" t="n">
+        <v>1441</v>
+      </c>
+      <c r="D227" t="n">
+        <v>6733</v>
+      </c>
+      <c r="E227" t="n">
+        <v>-5292</v>
+      </c>
+      <c r="F227" t="n">
+        <v>43</v>
+      </c>
+      <c r="G227" t="n">
+        <v>1127</v>
+      </c>
+      <c r="H227" t="n">
+        <v>-1084</v>
+      </c>
+      <c r="I227" t="n">
+        <v>1958</v>
+      </c>
+      <c r="J227" t="n">
+        <v>6546</v>
+      </c>
+      <c r="K227" t="n">
+        <v>-4588</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" s="2" t="n">
+        <v>44825.37627524306</v>
+      </c>
+      <c r="C228" t="n">
+        <v>1788</v>
+      </c>
+      <c r="D228" t="n">
+        <v>6350</v>
+      </c>
+      <c r="E228" t="n">
+        <v>-4562</v>
+      </c>
+      <c r="F228" t="n">
+        <v>51</v>
+      </c>
+      <c r="G228" t="n">
+        <v>1274</v>
+      </c>
+      <c r="H228" t="n">
+        <v>-1223</v>
+      </c>
+      <c r="I228" t="n">
+        <v>1691</v>
+      </c>
+      <c r="J228" t="n">
+        <v>6813</v>
+      </c>
+      <c r="K228" t="n">
+        <v>-5122</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" s="2" t="n">
+        <v>44826.39123913195</v>
+      </c>
+      <c r="C229" t="n">
+        <v>1352</v>
+      </c>
+      <c r="D229" t="n">
+        <v>6840</v>
+      </c>
+      <c r="E229" t="n">
+        <v>-5488</v>
+      </c>
+      <c r="F229" t="n">
+        <v>34</v>
+      </c>
+      <c r="G229" t="n">
+        <v>1963</v>
+      </c>
+      <c r="H229" t="n">
+        <v>-1929</v>
+      </c>
+      <c r="I229" t="n">
+        <v>1377</v>
+      </c>
+      <c r="J229" t="n">
+        <v>7132</v>
+      </c>
+      <c r="K229" t="n">
+        <v>-5755</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" s="2" t="n">
+        <v>44827.36742946759</v>
+      </c>
+      <c r="C230" t="n">
+        <v>1051</v>
+      </c>
+      <c r="D230" t="n">
+        <v>7206</v>
+      </c>
+      <c r="E230" t="n">
+        <v>-6155</v>
+      </c>
+      <c r="F230" t="n">
+        <v>43</v>
+      </c>
+      <c r="G230" t="n">
+        <v>2987</v>
+      </c>
+      <c r="H230" t="n">
+        <v>-2944</v>
+      </c>
+      <c r="I230" t="n">
+        <v>1061</v>
+      </c>
+      <c r="J230" t="n">
+        <v>7448</v>
+      </c>
+      <c r="K230" t="n">
+        <v>-6387</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" s="2" t="n">
+        <v>44830.39174357639</v>
+      </c>
+      <c r="C231" t="n">
+        <v>1651</v>
+      </c>
+      <c r="D231" t="n">
+        <v>6583</v>
+      </c>
+      <c r="E231" t="n">
+        <v>-4932</v>
+      </c>
+      <c r="F231" t="n">
+        <v>49</v>
+      </c>
+      <c r="G231" t="n">
+        <v>2738</v>
+      </c>
+      <c r="H231" t="n">
+        <v>-2689</v>
+      </c>
+      <c r="I231" t="n">
+        <v>941</v>
+      </c>
+      <c r="J231" t="n">
+        <v>7567</v>
+      </c>
+      <c r="K231" t="n">
+        <v>-6626</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" s="2" t="n">
+        <v>44831.38391203704</v>
+      </c>
+      <c r="C232" t="n">
+        <v>3842</v>
+      </c>
+      <c r="D232" t="n">
+        <v>4303</v>
+      </c>
+      <c r="E232" t="n">
+        <v>-461</v>
+      </c>
+      <c r="F232" t="n">
+        <v>55</v>
+      </c>
+      <c r="G232" t="n">
+        <v>2424</v>
+      </c>
+      <c r="H232" t="n">
+        <v>-2369</v>
+      </c>
+      <c r="I232" t="n">
+        <v>996</v>
+      </c>
+      <c r="J232" t="n">
+        <v>7511</v>
+      </c>
+      <c r="K232" t="n">
+        <v>-6515</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" s="2" t="n">
+        <v>44832.35928151019</v>
+      </c>
+      <c r="C233" t="n">
+        <v>7124</v>
+      </c>
+      <c r="D233" t="n">
+        <v>1125</v>
+      </c>
+      <c r="E233" t="n">
+        <v>5999</v>
+      </c>
+      <c r="F233" t="n">
+        <v>34</v>
+      </c>
+      <c r="G233" t="n">
+        <v>693</v>
+      </c>
+      <c r="H233" t="n">
+        <v>-659</v>
+      </c>
+      <c r="I233" t="n">
+        <v>1231</v>
+      </c>
+      <c r="J233" t="n">
+        <v>7277</v>
+      </c>
+      <c r="K233" t="n">
+        <v>-6046</v>
       </c>
     </row>
   </sheetData>

--- a/Data/marketmomentum.xlsx
+++ b/Data/marketmomentum.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K233"/>
+  <dimension ref="A1:K244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8579,7 +8579,7 @@
         <v>231</v>
       </c>
       <c r="B233" s="2" t="n">
-        <v>44832.35928151019</v>
+        <v>44832.35928150463</v>
       </c>
       <c r="C233" t="n">
         <v>7124</v>
@@ -8607,6 +8607,391 @@
       </c>
       <c r="K233" t="n">
         <v>-6046</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" s="2" t="n">
+        <v>44833.44555079861</v>
+      </c>
+      <c r="C234" t="n">
+        <v>1379</v>
+      </c>
+      <c r="D234" t="n">
+        <v>6855</v>
+      </c>
+      <c r="E234" t="n">
+        <v>-5476</v>
+      </c>
+      <c r="F234" t="n">
+        <v>30</v>
+      </c>
+      <c r="G234" t="n">
+        <v>1772</v>
+      </c>
+      <c r="H234" t="n">
+        <v>-1742</v>
+      </c>
+      <c r="I234" t="n">
+        <v>1056</v>
+      </c>
+      <c r="J234" t="n">
+        <v>7452</v>
+      </c>
+      <c r="K234" t="n">
+        <v>-6396</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" s="2" t="n">
+        <v>44834.46176001157</v>
+      </c>
+      <c r="C235" t="n">
+        <v>2886</v>
+      </c>
+      <c r="D235" t="n">
+        <v>5236</v>
+      </c>
+      <c r="E235" t="n">
+        <v>-2350</v>
+      </c>
+      <c r="F235" t="n">
+        <v>32</v>
+      </c>
+      <c r="G235" t="n">
+        <v>1282</v>
+      </c>
+      <c r="H235" t="n">
+        <v>-1250</v>
+      </c>
+      <c r="I235" t="n">
+        <v>1052</v>
+      </c>
+      <c r="J235" t="n">
+        <v>7456</v>
+      </c>
+      <c r="K235" t="n">
+        <v>-6404</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" s="2" t="n">
+        <v>44837.40066327546</v>
+      </c>
+      <c r="C236" t="n">
+        <v>6835</v>
+      </c>
+      <c r="D236" t="n">
+        <v>1403</v>
+      </c>
+      <c r="E236" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F236" t="n">
+        <v>48</v>
+      </c>
+      <c r="G236" t="n">
+        <v>606</v>
+      </c>
+      <c r="H236" t="n">
+        <v>-558</v>
+      </c>
+      <c r="I236" t="n">
+        <v>1285</v>
+      </c>
+      <c r="J236" t="n">
+        <v>7225</v>
+      </c>
+      <c r="K236" t="n">
+        <v>-5940</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" s="2" t="n">
+        <v>44838.48415457176</v>
+      </c>
+      <c r="C237" t="n">
+        <v>7357</v>
+      </c>
+      <c r="D237" t="n">
+        <v>918</v>
+      </c>
+      <c r="E237" t="n">
+        <v>6439</v>
+      </c>
+      <c r="F237" t="n">
+        <v>59</v>
+      </c>
+      <c r="G237" t="n">
+        <v>94</v>
+      </c>
+      <c r="H237" t="n">
+        <v>-35</v>
+      </c>
+      <c r="I237" t="n">
+        <v>1876</v>
+      </c>
+      <c r="J237" t="n">
+        <v>6635</v>
+      </c>
+      <c r="K237" t="n">
+        <v>-4759</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" s="2" t="n">
+        <v>44839.44821479166</v>
+      </c>
+      <c r="C238" t="n">
+        <v>2588</v>
+      </c>
+      <c r="D238" t="n">
+        <v>5571</v>
+      </c>
+      <c r="E238" t="n">
+        <v>-2983</v>
+      </c>
+      <c r="F238" t="n">
+        <v>61</v>
+      </c>
+      <c r="G238" t="n">
+        <v>196</v>
+      </c>
+      <c r="H238" t="n">
+        <v>-135</v>
+      </c>
+      <c r="I238" t="n">
+        <v>1803</v>
+      </c>
+      <c r="J238" t="n">
+        <v>6708</v>
+      </c>
+      <c r="K238" t="n">
+        <v>-4905</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" s="2" t="n">
+        <v>44840.20866898148</v>
+      </c>
+      <c r="C239" t="n">
+        <v>2599</v>
+      </c>
+      <c r="D239" t="n">
+        <v>5557</v>
+      </c>
+      <c r="E239" t="n">
+        <v>-2958</v>
+      </c>
+      <c r="F239" t="n">
+        <v>51</v>
+      </c>
+      <c r="G239" t="n">
+        <v>248</v>
+      </c>
+      <c r="H239" t="n">
+        <v>-197</v>
+      </c>
+      <c r="I239" t="n">
+        <v>1784</v>
+      </c>
+      <c r="J239" t="n">
+        <v>6727</v>
+      </c>
+      <c r="K239" t="n">
+        <v>-4943</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" s="2" t="n">
+        <v>44841.31111336806</v>
+      </c>
+      <c r="C240" t="n">
+        <v>1043</v>
+      </c>
+      <c r="D240" t="n">
+        <v>7147</v>
+      </c>
+      <c r="E240" t="n">
+        <v>-6104</v>
+      </c>
+      <c r="F240" t="n">
+        <v>43</v>
+      </c>
+      <c r="G240" t="n">
+        <v>761</v>
+      </c>
+      <c r="H240" t="n">
+        <v>-718</v>
+      </c>
+      <c r="I240" t="n">
+        <v>1431</v>
+      </c>
+      <c r="J240" t="n">
+        <v>7080</v>
+      </c>
+      <c r="K240" t="n">
+        <v>-5649</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" s="2" t="n">
+        <v>44844.38252855324</v>
+      </c>
+      <c r="C241" t="n">
+        <v>2551</v>
+      </c>
+      <c r="D241" t="n">
+        <v>5626</v>
+      </c>
+      <c r="E241" t="n">
+        <v>-3075</v>
+      </c>
+      <c r="F241" t="n">
+        <v>65</v>
+      </c>
+      <c r="G241" t="n">
+        <v>1218</v>
+      </c>
+      <c r="H241" t="n">
+        <v>-1153</v>
+      </c>
+      <c r="I241" t="n">
+        <v>1359</v>
+      </c>
+      <c r="J241" t="n">
+        <v>7140</v>
+      </c>
+      <c r="K241" t="n">
+        <v>-5781</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" s="2" t="n">
+        <v>44845.47840586805</v>
+      </c>
+      <c r="C242" t="n">
+        <v>3097</v>
+      </c>
+      <c r="D242" t="n">
+        <v>5061</v>
+      </c>
+      <c r="E242" t="n">
+        <v>-1964</v>
+      </c>
+      <c r="F242" t="n">
+        <v>48</v>
+      </c>
+      <c r="G242" t="n">
+        <v>1594</v>
+      </c>
+      <c r="H242" t="n">
+        <v>-1546</v>
+      </c>
+      <c r="I242" t="n">
+        <v>1284</v>
+      </c>
+      <c r="J242" t="n">
+        <v>7215</v>
+      </c>
+      <c r="K242" t="n">
+        <v>-5931</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" s="2" t="n">
+        <v>44846.39170902778</v>
+      </c>
+      <c r="C243" t="n">
+        <v>3367</v>
+      </c>
+      <c r="D243" t="n">
+        <v>4717</v>
+      </c>
+      <c r="E243" t="n">
+        <v>-1350</v>
+      </c>
+      <c r="F243" t="n">
+        <v>24</v>
+      </c>
+      <c r="G243" t="n">
+        <v>1066</v>
+      </c>
+      <c r="H243" t="n">
+        <v>-1042</v>
+      </c>
+      <c r="I243" t="n">
+        <v>1294</v>
+      </c>
+      <c r="J243" t="n">
+        <v>7205</v>
+      </c>
+      <c r="K243" t="n">
+        <v>-5911</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" s="2" t="n">
+        <v>44847.38749724921</v>
+      </c>
+      <c r="C244" t="n">
+        <v>6083</v>
+      </c>
+      <c r="D244" t="n">
+        <v>2115</v>
+      </c>
+      <c r="E244" t="n">
+        <v>3968</v>
+      </c>
+      <c r="F244" t="n">
+        <v>99</v>
+      </c>
+      <c r="G244" t="n">
+        <v>2412</v>
+      </c>
+      <c r="H244" t="n">
+        <v>-2313</v>
+      </c>
+      <c r="I244" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J244" t="n">
+        <v>6889</v>
+      </c>
+      <c r="K244" t="n">
+        <v>-5279</v>
       </c>
     </row>
   </sheetData>

--- a/Data/marketmomentum.xlsx
+++ b/Data/marketmomentum.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K244"/>
+  <dimension ref="A1:K246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8964,7 +8964,7 @@
         <v>242</v>
       </c>
       <c r="B244" s="2" t="n">
-        <v>44847.38749724921</v>
+        <v>44847.38749724537</v>
       </c>
       <c r="C244" t="n">
         <v>6083</v>
@@ -8992,6 +8992,76 @@
       </c>
       <c r="K244" t="n">
         <v>-5279</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" s="2" t="n">
+        <v>44848.40173884259</v>
+      </c>
+      <c r="C245" t="n">
+        <v>1372</v>
+      </c>
+      <c r="D245" t="n">
+        <v>6780</v>
+      </c>
+      <c r="E245" t="n">
+        <v>-5408</v>
+      </c>
+      <c r="F245" t="n">
+        <v>67</v>
+      </c>
+      <c r="G245" t="n">
+        <v>463</v>
+      </c>
+      <c r="H245" t="n">
+        <v>-396</v>
+      </c>
+      <c r="I245" t="n">
+        <v>1363</v>
+      </c>
+      <c r="J245" t="n">
+        <v>7136</v>
+      </c>
+      <c r="K245" t="n">
+        <v>-5773</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" s="2" t="n">
+        <v>44851.39548095184</v>
+      </c>
+      <c r="C246" t="n">
+        <v>6800</v>
+      </c>
+      <c r="D246" t="n">
+        <v>1393</v>
+      </c>
+      <c r="E246" t="n">
+        <v>5407</v>
+      </c>
+      <c r="F246" t="n">
+        <v>66</v>
+      </c>
+      <c r="G246" t="n">
+        <v>238</v>
+      </c>
+      <c r="H246" t="n">
+        <v>-172</v>
+      </c>
+      <c r="I246" t="n">
+        <v>1675</v>
+      </c>
+      <c r="J246" t="n">
+        <v>6815</v>
+      </c>
+      <c r="K246" t="n">
+        <v>-5140</v>
       </c>
     </row>
   </sheetData>

--- a/Data/marketmomentum.xlsx
+++ b/Data/marketmomentum.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K246"/>
+  <dimension ref="A1:K349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9034,7 +9034,7 @@
         <v>244</v>
       </c>
       <c r="B246" s="2" t="n">
-        <v>44851.39548095184</v>
+        <v>44851.39548094908</v>
       </c>
       <c r="C246" t="n">
         <v>6800</v>
@@ -9062,6 +9062,3611 @@
       </c>
       <c r="K246" t="n">
         <v>-5140</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" s="2" t="n">
+        <v>44852.36004445602</v>
+      </c>
+      <c r="C247" t="n">
+        <v>5969</v>
+      </c>
+      <c r="D247" t="n">
+        <v>2142</v>
+      </c>
+      <c r="E247" t="n">
+        <v>3827</v>
+      </c>
+      <c r="F247" t="n">
+        <v>89</v>
+      </c>
+      <c r="G247" t="n">
+        <v>176</v>
+      </c>
+      <c r="H247" t="n">
+        <v>-87</v>
+      </c>
+      <c r="I247" t="n">
+        <v>1900</v>
+      </c>
+      <c r="J247" t="n">
+        <v>6593</v>
+      </c>
+      <c r="K247" t="n">
+        <v>-4693</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" s="2" t="n">
+        <v>44853.35025890046</v>
+      </c>
+      <c r="C248" t="n">
+        <v>1741</v>
+      </c>
+      <c r="D248" t="n">
+        <v>6447</v>
+      </c>
+      <c r="E248" t="n">
+        <v>-4706</v>
+      </c>
+      <c r="F248" t="n">
+        <v>62</v>
+      </c>
+      <c r="G248" t="n">
+        <v>519</v>
+      </c>
+      <c r="H248" t="n">
+        <v>-457</v>
+      </c>
+      <c r="I248" t="n">
+        <v>1714</v>
+      </c>
+      <c r="J248" t="n">
+        <v>6779</v>
+      </c>
+      <c r="K248" t="n">
+        <v>-5065</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" s="2" t="n">
+        <v>44854.43984070602</v>
+      </c>
+      <c r="C249" t="n">
+        <v>2936</v>
+      </c>
+      <c r="D249" t="n">
+        <v>5173</v>
+      </c>
+      <c r="E249" t="n">
+        <v>-2237</v>
+      </c>
+      <c r="F249" t="n">
+        <v>78</v>
+      </c>
+      <c r="G249" t="n">
+        <v>636</v>
+      </c>
+      <c r="H249" t="n">
+        <v>-558</v>
+      </c>
+      <c r="I249" t="n">
+        <v>1633</v>
+      </c>
+      <c r="J249" t="n">
+        <v>6860</v>
+      </c>
+      <c r="K249" t="n">
+        <v>-5227</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" s="2" t="n">
+        <v>44855.40703961805</v>
+      </c>
+      <c r="C250" t="n">
+        <v>6211</v>
+      </c>
+      <c r="D250" t="n">
+        <v>1951</v>
+      </c>
+      <c r="E250" t="n">
+        <v>4260</v>
+      </c>
+      <c r="F250" t="n">
+        <v>88</v>
+      </c>
+      <c r="G250" t="n">
+        <v>802</v>
+      </c>
+      <c r="H250" t="n">
+        <v>-714</v>
+      </c>
+      <c r="I250" t="n">
+        <v>2050</v>
+      </c>
+      <c r="J250" t="n">
+        <v>6443</v>
+      </c>
+      <c r="K250" t="n">
+        <v>-4393</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" s="2" t="n">
+        <v>44858.41903935185</v>
+      </c>
+      <c r="C251" t="n">
+        <v>4433</v>
+      </c>
+      <c r="D251" t="n">
+        <v>3679</v>
+      </c>
+      <c r="E251" t="n">
+        <v>754</v>
+      </c>
+      <c r="F251" t="n">
+        <v>122</v>
+      </c>
+      <c r="G251" t="n">
+        <v>716</v>
+      </c>
+      <c r="H251" t="n">
+        <v>-594</v>
+      </c>
+      <c r="I251" t="n">
+        <v>2187</v>
+      </c>
+      <c r="J251" t="n">
+        <v>6300</v>
+      </c>
+      <c r="K251" t="n">
+        <v>-4113</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" s="2" t="n">
+        <v>44859.36853303241</v>
+      </c>
+      <c r="C252" t="n">
+        <v>6926</v>
+      </c>
+      <c r="D252" t="n">
+        <v>1252</v>
+      </c>
+      <c r="E252" t="n">
+        <v>5674</v>
+      </c>
+      <c r="F252" t="n">
+        <v>127</v>
+      </c>
+      <c r="G252" t="n">
+        <v>243</v>
+      </c>
+      <c r="H252" t="n">
+        <v>-116</v>
+      </c>
+      <c r="I252" t="n">
+        <v>2882</v>
+      </c>
+      <c r="J252" t="n">
+        <v>5605</v>
+      </c>
+      <c r="K252" t="n">
+        <v>-2723</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" s="2" t="n">
+        <v>44860.42090015046</v>
+      </c>
+      <c r="C253" t="n">
+        <v>4964</v>
+      </c>
+      <c r="D253" t="n">
+        <v>3182</v>
+      </c>
+      <c r="E253" t="n">
+        <v>1782</v>
+      </c>
+      <c r="F253" t="n">
+        <v>155</v>
+      </c>
+      <c r="G253" t="n">
+        <v>152</v>
+      </c>
+      <c r="H253" t="n">
+        <v>3</v>
+      </c>
+      <c r="I253" t="n">
+        <v>3128</v>
+      </c>
+      <c r="J253" t="n">
+        <v>5359</v>
+      </c>
+      <c r="K253" t="n">
+        <v>-2231</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" s="2" t="n">
+        <v>44861.4675059375</v>
+      </c>
+      <c r="C254" t="n">
+        <v>3980</v>
+      </c>
+      <c r="D254" t="n">
+        <v>4124</v>
+      </c>
+      <c r="E254" t="n">
+        <v>-144</v>
+      </c>
+      <c r="F254" t="n">
+        <v>144</v>
+      </c>
+      <c r="G254" t="n">
+        <v>214</v>
+      </c>
+      <c r="H254" t="n">
+        <v>-70</v>
+      </c>
+      <c r="I254" t="n">
+        <v>3215</v>
+      </c>
+      <c r="J254" t="n">
+        <v>5273</v>
+      </c>
+      <c r="K254" t="n">
+        <v>-2058</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" s="2" t="n">
+        <v>44862.36823652778</v>
+      </c>
+      <c r="C255" t="n">
+        <v>5986</v>
+      </c>
+      <c r="D255" t="n">
+        <v>2144</v>
+      </c>
+      <c r="E255" t="n">
+        <v>3842</v>
+      </c>
+      <c r="F255" t="n">
+        <v>190</v>
+      </c>
+      <c r="G255" t="n">
+        <v>203</v>
+      </c>
+      <c r="H255" t="n">
+        <v>-13</v>
+      </c>
+      <c r="I255" t="n">
+        <v>3968</v>
+      </c>
+      <c r="J255" t="n">
+        <v>4520</v>
+      </c>
+      <c r="K255" t="n">
+        <v>-552</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" s="2" t="n">
+        <v>44865.45361552083</v>
+      </c>
+      <c r="C256" t="n">
+        <v>3153</v>
+      </c>
+      <c r="D256" t="n">
+        <v>4954</v>
+      </c>
+      <c r="E256" t="n">
+        <v>-1801</v>
+      </c>
+      <c r="F256" t="n">
+        <v>196</v>
+      </c>
+      <c r="G256" t="n">
+        <v>222</v>
+      </c>
+      <c r="H256" t="n">
+        <v>-26</v>
+      </c>
+      <c r="I256" t="n">
+        <v>3891</v>
+      </c>
+      <c r="J256" t="n">
+        <v>4586</v>
+      </c>
+      <c r="K256" t="n">
+        <v>-695</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" s="2" t="n">
+        <v>44867.37961606481</v>
+      </c>
+      <c r="C257" t="n">
+        <v>1470</v>
+      </c>
+      <c r="D257" t="n">
+        <v>6710</v>
+      </c>
+      <c r="E257" t="n">
+        <v>-5240</v>
+      </c>
+      <c r="F257" t="n">
+        <v>137</v>
+      </c>
+      <c r="G257" t="n">
+        <v>287</v>
+      </c>
+      <c r="H257" t="n">
+        <v>-150</v>
+      </c>
+      <c r="I257" t="n">
+        <v>3203</v>
+      </c>
+      <c r="J257" t="n">
+        <v>5274</v>
+      </c>
+      <c r="K257" t="n">
+        <v>-2071</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" s="2" t="n">
+        <v>44868.43287873843</v>
+      </c>
+      <c r="C258" t="n">
+        <v>2992</v>
+      </c>
+      <c r="D258" t="n">
+        <v>5109</v>
+      </c>
+      <c r="E258" t="n">
+        <v>-2117</v>
+      </c>
+      <c r="F258" t="n">
+        <v>92</v>
+      </c>
+      <c r="G258" t="n">
+        <v>511</v>
+      </c>
+      <c r="H258" t="n">
+        <v>-419</v>
+      </c>
+      <c r="I258" t="n">
+        <v>3093</v>
+      </c>
+      <c r="J258" t="n">
+        <v>5384</v>
+      </c>
+      <c r="K258" t="n">
+        <v>-2291</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" s="2" t="n">
+        <v>44869.77955788194</v>
+      </c>
+      <c r="C259" t="n">
+        <v>5714</v>
+      </c>
+      <c r="D259" t="n">
+        <v>2420</v>
+      </c>
+      <c r="E259" t="n">
+        <v>3294</v>
+      </c>
+      <c r="F259" t="n">
+        <v>155</v>
+      </c>
+      <c r="G259" t="n">
+        <v>437</v>
+      </c>
+      <c r="H259" t="n">
+        <v>-282</v>
+      </c>
+      <c r="I259" t="n">
+        <v>3841</v>
+      </c>
+      <c r="J259" t="n">
+        <v>4636</v>
+      </c>
+      <c r="K259" t="n">
+        <v>-795</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" s="2" t="n">
+        <v>44872.38364295139</v>
+      </c>
+      <c r="C260" t="n">
+        <v>4956</v>
+      </c>
+      <c r="D260" t="n">
+        <v>3161</v>
+      </c>
+      <c r="E260" t="n">
+        <v>1795</v>
+      </c>
+      <c r="F260" t="n">
+        <v>148</v>
+      </c>
+      <c r="G260" t="n">
+        <v>315</v>
+      </c>
+      <c r="H260" t="n">
+        <v>-167</v>
+      </c>
+      <c r="I260" t="n">
+        <v>4119</v>
+      </c>
+      <c r="J260" t="n">
+        <v>4346</v>
+      </c>
+      <c r="K260" t="n">
+        <v>-227</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" s="2" t="n">
+        <v>44873.39494923611</v>
+      </c>
+      <c r="C261" t="n">
+        <v>4751</v>
+      </c>
+      <c r="D261" t="n">
+        <v>3340</v>
+      </c>
+      <c r="E261" t="n">
+        <v>1411</v>
+      </c>
+      <c r="F261" t="n">
+        <v>155</v>
+      </c>
+      <c r="G261" t="n">
+        <v>353</v>
+      </c>
+      <c r="H261" t="n">
+        <v>-198</v>
+      </c>
+      <c r="I261" t="n">
+        <v>4316</v>
+      </c>
+      <c r="J261" t="n">
+        <v>4149</v>
+      </c>
+      <c r="K261" t="n">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" s="2" t="n">
+        <v>44874.39283825232</v>
+      </c>
+      <c r="C262" t="n">
+        <v>1430</v>
+      </c>
+      <c r="D262" t="n">
+        <v>6755</v>
+      </c>
+      <c r="E262" t="n">
+        <v>-5325</v>
+      </c>
+      <c r="F262" t="n">
+        <v>90</v>
+      </c>
+      <c r="G262" t="n">
+        <v>636</v>
+      </c>
+      <c r="H262" t="n">
+        <v>-546</v>
+      </c>
+      <c r="I262" t="n">
+        <v>3658</v>
+      </c>
+      <c r="J262" t="n">
+        <v>4807</v>
+      </c>
+      <c r="K262" t="n">
+        <v>-1149</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" s="2" t="n">
+        <v>44875.37106068287</v>
+      </c>
+      <c r="C263" t="n">
+        <v>7276</v>
+      </c>
+      <c r="D263" t="n">
+        <v>967</v>
+      </c>
+      <c r="E263" t="n">
+        <v>6309</v>
+      </c>
+      <c r="F263" t="n">
+        <v>177</v>
+      </c>
+      <c r="G263" t="n">
+        <v>198</v>
+      </c>
+      <c r="H263" t="n">
+        <v>-21</v>
+      </c>
+      <c r="I263" t="n">
+        <v>5389</v>
+      </c>
+      <c r="J263" t="n">
+        <v>3076</v>
+      </c>
+      <c r="K263" t="n">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" s="2" t="n">
+        <v>44876.32585028935</v>
+      </c>
+      <c r="C264" t="n">
+        <v>5648</v>
+      </c>
+      <c r="D264" t="n">
+        <v>2475</v>
+      </c>
+      <c r="E264" t="n">
+        <v>3173</v>
+      </c>
+      <c r="F264" t="n">
+        <v>174</v>
+      </c>
+      <c r="G264" t="n">
+        <v>138</v>
+      </c>
+      <c r="H264" t="n">
+        <v>36</v>
+      </c>
+      <c r="I264" t="n">
+        <v>5740</v>
+      </c>
+      <c r="J264" t="n">
+        <v>2725</v>
+      </c>
+      <c r="K264" t="n">
+        <v>3015</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" s="2" t="n">
+        <v>44879.40123488426</v>
+      </c>
+      <c r="C265" t="n">
+        <v>2393</v>
+      </c>
+      <c r="D265" t="n">
+        <v>5791</v>
+      </c>
+      <c r="E265" t="n">
+        <v>-3398</v>
+      </c>
+      <c r="F265" t="n">
+        <v>123</v>
+      </c>
+      <c r="G265" t="n">
+        <v>103</v>
+      </c>
+      <c r="H265" t="n">
+        <v>20</v>
+      </c>
+      <c r="I265" t="n">
+        <v>5516</v>
+      </c>
+      <c r="J265" t="n">
+        <v>2961</v>
+      </c>
+      <c r="K265" t="n">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" s="2" t="n">
+        <v>44880.35605679398</v>
+      </c>
+      <c r="C266" t="n">
+        <v>6122</v>
+      </c>
+      <c r="D266" t="n">
+        <v>2079</v>
+      </c>
+      <c r="E266" t="n">
+        <v>4043</v>
+      </c>
+      <c r="F266" t="n">
+        <v>142</v>
+      </c>
+      <c r="G266" t="n">
+        <v>103</v>
+      </c>
+      <c r="H266" t="n">
+        <v>39</v>
+      </c>
+      <c r="I266" t="n">
+        <v>5852</v>
+      </c>
+      <c r="J266" t="n">
+        <v>2625</v>
+      </c>
+      <c r="K266" t="n">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" s="2" t="n">
+        <v>44881.46472699074</v>
+      </c>
+      <c r="C267" t="n">
+        <v>2253</v>
+      </c>
+      <c r="D267" t="n">
+        <v>5906</v>
+      </c>
+      <c r="E267" t="n">
+        <v>-3653</v>
+      </c>
+      <c r="F267" t="n">
+        <v>76</v>
+      </c>
+      <c r="G267" t="n">
+        <v>172</v>
+      </c>
+      <c r="H267" t="n">
+        <v>-96</v>
+      </c>
+      <c r="I267" t="n">
+        <v>5687</v>
+      </c>
+      <c r="J267" t="n">
+        <v>2790</v>
+      </c>
+      <c r="K267" t="n">
+        <v>2897</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" s="2" t="n">
+        <v>44882.3972227662</v>
+      </c>
+      <c r="C268" t="n">
+        <v>2679</v>
+      </c>
+      <c r="D268" t="n">
+        <v>5423</v>
+      </c>
+      <c r="E268" t="n">
+        <v>-2744</v>
+      </c>
+      <c r="F268" t="n">
+        <v>58</v>
+      </c>
+      <c r="G268" t="n">
+        <v>232</v>
+      </c>
+      <c r="H268" t="n">
+        <v>-174</v>
+      </c>
+      <c r="I268" t="n">
+        <v>5526</v>
+      </c>
+      <c r="J268" t="n">
+        <v>2951</v>
+      </c>
+      <c r="K268" t="n">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" s="2" t="n">
+        <v>44883.37565034723</v>
+      </c>
+      <c r="C269" t="n">
+        <v>4701</v>
+      </c>
+      <c r="D269" t="n">
+        <v>3402</v>
+      </c>
+      <c r="E269" t="n">
+        <v>1299</v>
+      </c>
+      <c r="F269" t="n">
+        <v>107</v>
+      </c>
+      <c r="G269" t="n">
+        <v>187</v>
+      </c>
+      <c r="H269" t="n">
+        <v>-80</v>
+      </c>
+      <c r="I269" t="n">
+        <v>5604</v>
+      </c>
+      <c r="J269" t="n">
+        <v>2873</v>
+      </c>
+      <c r="K269" t="n">
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" s="2" t="n">
+        <v>44886.36192221065</v>
+      </c>
+      <c r="C270" t="n">
+        <v>3036</v>
+      </c>
+      <c r="D270" t="n">
+        <v>5114</v>
+      </c>
+      <c r="E270" t="n">
+        <v>-2078</v>
+      </c>
+      <c r="F270" t="n">
+        <v>102</v>
+      </c>
+      <c r="G270" t="n">
+        <v>299</v>
+      </c>
+      <c r="H270" t="n">
+        <v>-197</v>
+      </c>
+      <c r="I270" t="n">
+        <v>5469</v>
+      </c>
+      <c r="J270" t="n">
+        <v>3006</v>
+      </c>
+      <c r="K270" t="n">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" s="2" t="n">
+        <v>44887.36945428241</v>
+      </c>
+      <c r="C271" t="n">
+        <v>5918</v>
+      </c>
+      <c r="D271" t="n">
+        <v>2254</v>
+      </c>
+      <c r="E271" t="n">
+        <v>3664</v>
+      </c>
+      <c r="F271" t="n">
+        <v>156</v>
+      </c>
+      <c r="G271" t="n">
+        <v>289</v>
+      </c>
+      <c r="H271" t="n">
+        <v>-133</v>
+      </c>
+      <c r="I271" t="n">
+        <v>5702</v>
+      </c>
+      <c r="J271" t="n">
+        <v>2773</v>
+      </c>
+      <c r="K271" t="n">
+        <v>2929</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" s="2" t="n">
+        <v>44888.36619481481</v>
+      </c>
+      <c r="C272" t="n">
+        <v>5325</v>
+      </c>
+      <c r="D272" t="n">
+        <v>2780</v>
+      </c>
+      <c r="E272" t="n">
+        <v>2545</v>
+      </c>
+      <c r="F272" t="n">
+        <v>150</v>
+      </c>
+      <c r="G272" t="n">
+        <v>168</v>
+      </c>
+      <c r="H272" t="n">
+        <v>-18</v>
+      </c>
+      <c r="I272" t="n">
+        <v>5853</v>
+      </c>
+      <c r="J272" t="n">
+        <v>2622</v>
+      </c>
+      <c r="K272" t="n">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" s="2" t="n">
+        <v>44890.41585506944</v>
+      </c>
+      <c r="C273" t="n">
+        <v>4897</v>
+      </c>
+      <c r="D273" t="n">
+        <v>3104</v>
+      </c>
+      <c r="E273" t="n">
+        <v>1793</v>
+      </c>
+      <c r="F273" t="n">
+        <v>143</v>
+      </c>
+      <c r="G273" t="n">
+        <v>103</v>
+      </c>
+      <c r="H273" t="n">
+        <v>40</v>
+      </c>
+      <c r="I273" t="n">
+        <v>5915</v>
+      </c>
+      <c r="J273" t="n">
+        <v>2560</v>
+      </c>
+      <c r="K273" t="n">
+        <v>3355</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" s="2" t="n">
+        <v>44893.35264489584</v>
+      </c>
+      <c r="C274" t="n">
+        <v>1548</v>
+      </c>
+      <c r="D274" t="n">
+        <v>6639</v>
+      </c>
+      <c r="E274" t="n">
+        <v>-5091</v>
+      </c>
+      <c r="F274" t="n">
+        <v>88</v>
+      </c>
+      <c r="G274" t="n">
+        <v>207</v>
+      </c>
+      <c r="H274" t="n">
+        <v>-119</v>
+      </c>
+      <c r="I274" t="n">
+        <v>5618</v>
+      </c>
+      <c r="J274" t="n">
+        <v>2840</v>
+      </c>
+      <c r="K274" t="n">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" s="2" t="n">
+        <v>44894.36810362268</v>
+      </c>
+      <c r="C275" t="n">
+        <v>4613</v>
+      </c>
+      <c r="D275" t="n">
+        <v>3497</v>
+      </c>
+      <c r="E275" t="n">
+        <v>1116</v>
+      </c>
+      <c r="F275" t="n">
+        <v>81</v>
+      </c>
+      <c r="G275" t="n">
+        <v>212</v>
+      </c>
+      <c r="H275" t="n">
+        <v>-131</v>
+      </c>
+      <c r="I275" t="n">
+        <v>5711</v>
+      </c>
+      <c r="J275" t="n">
+        <v>2747</v>
+      </c>
+      <c r="K275" t="n">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" s="2" t="n">
+        <v>44895.38326699074</v>
+      </c>
+      <c r="C276" t="n">
+        <v>6949</v>
+      </c>
+      <c r="D276" t="n">
+        <v>1245</v>
+      </c>
+      <c r="E276" t="n">
+        <v>5704</v>
+      </c>
+      <c r="F276" t="n">
+        <v>173</v>
+      </c>
+      <c r="G276" t="n">
+        <v>226</v>
+      </c>
+      <c r="H276" t="n">
+        <v>-53</v>
+      </c>
+      <c r="I276" t="n">
+        <v>6166</v>
+      </c>
+      <c r="J276" t="n">
+        <v>2292</v>
+      </c>
+      <c r="K276" t="n">
+        <v>3874</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" s="2" t="n">
+        <v>44896.38883422453</v>
+      </c>
+      <c r="C277" t="n">
+        <v>4330</v>
+      </c>
+      <c r="D277" t="n">
+        <v>3773</v>
+      </c>
+      <c r="E277" t="n">
+        <v>557</v>
+      </c>
+      <c r="F277" t="n">
+        <v>213</v>
+      </c>
+      <c r="G277" t="n">
+        <v>110</v>
+      </c>
+      <c r="H277" t="n">
+        <v>103</v>
+      </c>
+      <c r="I277" t="n">
+        <v>6166</v>
+      </c>
+      <c r="J277" t="n">
+        <v>2292</v>
+      </c>
+      <c r="K277" t="n">
+        <v>3874</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" s="2" t="n">
+        <v>44897.39563609954</v>
+      </c>
+      <c r="C278" t="n">
+        <v>4376</v>
+      </c>
+      <c r="D278" t="n">
+        <v>3671</v>
+      </c>
+      <c r="E278" t="n">
+        <v>705</v>
+      </c>
+      <c r="F278" t="n">
+        <v>147</v>
+      </c>
+      <c r="G278" t="n">
+        <v>132</v>
+      </c>
+      <c r="H278" t="n">
+        <v>15</v>
+      </c>
+      <c r="I278" t="n">
+        <v>6247</v>
+      </c>
+      <c r="J278" t="n">
+        <v>2211</v>
+      </c>
+      <c r="K278" t="n">
+        <v>4036</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" s="2" t="n">
+        <v>44900.31255145833</v>
+      </c>
+      <c r="C279" t="n">
+        <v>1328</v>
+      </c>
+      <c r="D279" t="n">
+        <v>6849</v>
+      </c>
+      <c r="E279" t="n">
+        <v>-5521</v>
+      </c>
+      <c r="F279" t="n">
+        <v>113</v>
+      </c>
+      <c r="G279" t="n">
+        <v>188</v>
+      </c>
+      <c r="H279" t="n">
+        <v>-75</v>
+      </c>
+      <c r="I279" t="n">
+        <v>5778</v>
+      </c>
+      <c r="J279" t="n">
+        <v>2674</v>
+      </c>
+      <c r="K279" t="n">
+        <v>3104</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" s="2" t="n">
+        <v>44901.29694498843</v>
+      </c>
+      <c r="C280" t="n">
+        <v>2118</v>
+      </c>
+      <c r="D280" t="n">
+        <v>6009</v>
+      </c>
+      <c r="E280" t="n">
+        <v>-3891</v>
+      </c>
+      <c r="F280" t="n">
+        <v>53</v>
+      </c>
+      <c r="G280" t="n">
+        <v>377</v>
+      </c>
+      <c r="H280" t="n">
+        <v>-324</v>
+      </c>
+      <c r="I280" t="n">
+        <v>5421</v>
+      </c>
+      <c r="J280" t="n">
+        <v>3030</v>
+      </c>
+      <c r="K280" t="n">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" s="2" t="n">
+        <v>44902.40106604167</v>
+      </c>
+      <c r="C281" t="n">
+        <v>3414</v>
+      </c>
+      <c r="D281" t="n">
+        <v>4668</v>
+      </c>
+      <c r="E281" t="n">
+        <v>-1254</v>
+      </c>
+      <c r="F281" t="n">
+        <v>63</v>
+      </c>
+      <c r="G281" t="n">
+        <v>405</v>
+      </c>
+      <c r="H281" t="n">
+        <v>-342</v>
+      </c>
+      <c r="I281" t="n">
+        <v>5245</v>
+      </c>
+      <c r="J281" t="n">
+        <v>3207</v>
+      </c>
+      <c r="K281" t="n">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" s="2" t="n">
+        <v>44903.51428811342</v>
+      </c>
+      <c r="C282" t="n">
+        <v>5061</v>
+      </c>
+      <c r="D282" t="n">
+        <v>3041</v>
+      </c>
+      <c r="E282" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F282" t="n">
+        <v>99</v>
+      </c>
+      <c r="G282" t="n">
+        <v>295</v>
+      </c>
+      <c r="H282" t="n">
+        <v>-196</v>
+      </c>
+      <c r="I282" t="n">
+        <v>5350</v>
+      </c>
+      <c r="J282" t="n">
+        <v>3102</v>
+      </c>
+      <c r="K282" t="n">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" s="2" t="n">
+        <v>44904.37060672454</v>
+      </c>
+      <c r="C283" t="n">
+        <v>2433</v>
+      </c>
+      <c r="D283" t="n">
+        <v>5661</v>
+      </c>
+      <c r="E283" t="n">
+        <v>-3228</v>
+      </c>
+      <c r="F283" t="n">
+        <v>76</v>
+      </c>
+      <c r="G283" t="n">
+        <v>277</v>
+      </c>
+      <c r="H283" t="n">
+        <v>-201</v>
+      </c>
+      <c r="I283" t="n">
+        <v>5172</v>
+      </c>
+      <c r="J283" t="n">
+        <v>3280</v>
+      </c>
+      <c r="K283" t="n">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" s="2" t="n">
+        <v>44907.37010401621</v>
+      </c>
+      <c r="C284" t="n">
+        <v>5346</v>
+      </c>
+      <c r="D284" t="n">
+        <v>2760</v>
+      </c>
+      <c r="E284" t="n">
+        <v>2586</v>
+      </c>
+      <c r="F284" t="n">
+        <v>69</v>
+      </c>
+      <c r="G284" t="n">
+        <v>352</v>
+      </c>
+      <c r="H284" t="n">
+        <v>-283</v>
+      </c>
+      <c r="I284" t="n">
+        <v>5353</v>
+      </c>
+      <c r="J284" t="n">
+        <v>3088</v>
+      </c>
+      <c r="K284" t="n">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" s="2" t="n">
+        <v>44908.4328125</v>
+      </c>
+      <c r="C285" t="n">
+        <v>5522</v>
+      </c>
+      <c r="D285" t="n">
+        <v>2638</v>
+      </c>
+      <c r="E285" t="n">
+        <v>2884</v>
+      </c>
+      <c r="F285" t="n">
+        <v>155</v>
+      </c>
+      <c r="G285" t="n">
+        <v>267</v>
+      </c>
+      <c r="H285" t="n">
+        <v>-112</v>
+      </c>
+      <c r="I285" t="n">
+        <v>5433</v>
+      </c>
+      <c r="J285" t="n">
+        <v>3008</v>
+      </c>
+      <c r="K285" t="n">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" s="2" t="n">
+        <v>44909.38192091435</v>
+      </c>
+      <c r="C286" t="n">
+        <v>2865</v>
+      </c>
+      <c r="D286" t="n">
+        <v>5219</v>
+      </c>
+      <c r="E286" t="n">
+        <v>-2354</v>
+      </c>
+      <c r="F286" t="n">
+        <v>97</v>
+      </c>
+      <c r="G286" t="n">
+        <v>298</v>
+      </c>
+      <c r="H286" t="n">
+        <v>-201</v>
+      </c>
+      <c r="I286" t="n">
+        <v>5306</v>
+      </c>
+      <c r="J286" t="n">
+        <v>3135</v>
+      </c>
+      <c r="K286" t="n">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" s="2" t="n">
+        <v>44910.55053361111</v>
+      </c>
+      <c r="C287" t="n">
+        <v>1478</v>
+      </c>
+      <c r="D287" t="n">
+        <v>6667</v>
+      </c>
+      <c r="E287" t="n">
+        <v>-5189</v>
+      </c>
+      <c r="F287" t="n">
+        <v>65</v>
+      </c>
+      <c r="G287" t="n">
+        <v>478</v>
+      </c>
+      <c r="H287" t="n">
+        <v>-413</v>
+      </c>
+      <c r="I287" t="n">
+        <v>4553</v>
+      </c>
+      <c r="J287" t="n">
+        <v>3888</v>
+      </c>
+      <c r="K287" t="n">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" s="2" t="n">
+        <v>44911.41325425926</v>
+      </c>
+      <c r="C288" t="n">
+        <v>2335</v>
+      </c>
+      <c r="D288" t="n">
+        <v>5742</v>
+      </c>
+      <c r="E288" t="n">
+        <v>-3407</v>
+      </c>
+      <c r="F288" t="n">
+        <v>60</v>
+      </c>
+      <c r="G288" t="n">
+        <v>602</v>
+      </c>
+      <c r="H288" t="n">
+        <v>-542</v>
+      </c>
+      <c r="I288" t="n">
+        <v>4117</v>
+      </c>
+      <c r="J288" t="n">
+        <v>4324</v>
+      </c>
+      <c r="K288" t="n">
+        <v>-207</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" s="2" t="n">
+        <v>44914.39759453704</v>
+      </c>
+      <c r="C289" t="n">
+        <v>1816</v>
+      </c>
+      <c r="D289" t="n">
+        <v>6345</v>
+      </c>
+      <c r="E289" t="n">
+        <v>-4529</v>
+      </c>
+      <c r="F289" t="n">
+        <v>75</v>
+      </c>
+      <c r="G289" t="n">
+        <v>685</v>
+      </c>
+      <c r="H289" t="n">
+        <v>-610</v>
+      </c>
+      <c r="I289" t="n">
+        <v>3488</v>
+      </c>
+      <c r="J289" t="n">
+        <v>4944</v>
+      </c>
+      <c r="K289" t="n">
+        <v>-1456</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" s="2" t="n">
+        <v>44915.36508991898</v>
+      </c>
+      <c r="C290" t="n">
+        <v>4447</v>
+      </c>
+      <c r="D290" t="n">
+        <v>3650</v>
+      </c>
+      <c r="E290" t="n">
+        <v>797</v>
+      </c>
+      <c r="F290" t="n">
+        <v>82</v>
+      </c>
+      <c r="G290" t="n">
+        <v>593</v>
+      </c>
+      <c r="H290" t="n">
+        <v>-511</v>
+      </c>
+      <c r="I290" t="n">
+        <v>3528</v>
+      </c>
+      <c r="J290" t="n">
+        <v>4904</v>
+      </c>
+      <c r="K290" t="n">
+        <v>-1376</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" s="2" t="n">
+        <v>44916.37371408565</v>
+      </c>
+      <c r="C291" t="n">
+        <v>6243</v>
+      </c>
+      <c r="D291" t="n">
+        <v>1871</v>
+      </c>
+      <c r="E291" t="n">
+        <v>4372</v>
+      </c>
+      <c r="F291" t="n">
+        <v>93</v>
+      </c>
+      <c r="G291" t="n">
+        <v>351</v>
+      </c>
+      <c r="H291" t="n">
+        <v>-258</v>
+      </c>
+      <c r="I291" t="n">
+        <v>4099</v>
+      </c>
+      <c r="J291" t="n">
+        <v>4333</v>
+      </c>
+      <c r="K291" t="n">
+        <v>-234</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" s="2" t="n">
+        <v>44917.39296366898</v>
+      </c>
+      <c r="C292" t="n">
+        <v>1955</v>
+      </c>
+      <c r="D292" t="n">
+        <v>6155</v>
+      </c>
+      <c r="E292" t="n">
+        <v>-4200</v>
+      </c>
+      <c r="F292" t="n">
+        <v>80</v>
+      </c>
+      <c r="G292" t="n">
+        <v>662</v>
+      </c>
+      <c r="H292" t="n">
+        <v>-582</v>
+      </c>
+      <c r="I292" t="n">
+        <v>3487</v>
+      </c>
+      <c r="J292" t="n">
+        <v>4945</v>
+      </c>
+      <c r="K292" t="n">
+        <v>-1458</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" s="2" t="n">
+        <v>44921.35275652778</v>
+      </c>
+      <c r="C293" t="n">
+        <v>5011</v>
+      </c>
+      <c r="D293" t="n">
+        <v>3079</v>
+      </c>
+      <c r="E293" t="n">
+        <v>1932</v>
+      </c>
+      <c r="F293" t="n">
+        <v>73</v>
+      </c>
+      <c r="G293" t="n">
+        <v>315</v>
+      </c>
+      <c r="H293" t="n">
+        <v>-242</v>
+      </c>
+      <c r="I293" t="n">
+        <v>3659</v>
+      </c>
+      <c r="J293" t="n">
+        <v>4773</v>
+      </c>
+      <c r="K293" t="n">
+        <v>-1114</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" s="2" t="n">
+        <v>44922.4037400463</v>
+      </c>
+      <c r="C294" t="n">
+        <v>3158</v>
+      </c>
+      <c r="D294" t="n">
+        <v>4988</v>
+      </c>
+      <c r="E294" t="n">
+        <v>-1830</v>
+      </c>
+      <c r="F294" t="n">
+        <v>103</v>
+      </c>
+      <c r="G294" t="n">
+        <v>642</v>
+      </c>
+      <c r="H294" t="n">
+        <v>-539</v>
+      </c>
+      <c r="I294" t="n">
+        <v>3386</v>
+      </c>
+      <c r="J294" t="n">
+        <v>5014</v>
+      </c>
+      <c r="K294" t="n">
+        <v>-1628</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" s="2" t="n">
+        <v>44923.3897909375</v>
+      </c>
+      <c r="C295" t="n">
+        <v>1808</v>
+      </c>
+      <c r="D295" t="n">
+        <v>6342</v>
+      </c>
+      <c r="E295" t="n">
+        <v>-4534</v>
+      </c>
+      <c r="F295" t="n">
+        <v>83</v>
+      </c>
+      <c r="G295" t="n">
+        <v>663</v>
+      </c>
+      <c r="H295" t="n">
+        <v>-580</v>
+      </c>
+      <c r="I295" t="n">
+        <v>2802</v>
+      </c>
+      <c r="J295" t="n">
+        <v>5598</v>
+      </c>
+      <c r="K295" t="n">
+        <v>-2796</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" s="2" t="n">
+        <v>44924.40693917824</v>
+      </c>
+      <c r="C296" t="n">
+        <v>7018</v>
+      </c>
+      <c r="D296" t="n">
+        <v>1155</v>
+      </c>
+      <c r="E296" t="n">
+        <v>5863</v>
+      </c>
+      <c r="F296" t="n">
+        <v>78</v>
+      </c>
+      <c r="G296" t="n">
+        <v>251</v>
+      </c>
+      <c r="H296" t="n">
+        <v>-173</v>
+      </c>
+      <c r="I296" t="n">
+        <v>3478</v>
+      </c>
+      <c r="J296" t="n">
+        <v>4922</v>
+      </c>
+      <c r="K296" t="n">
+        <v>-1444</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" s="2" t="n">
+        <v>44925.41263775463</v>
+      </c>
+      <c r="C297" t="n">
+        <v>3294</v>
+      </c>
+      <c r="D297" t="n">
+        <v>4757</v>
+      </c>
+      <c r="E297" t="n">
+        <v>-1463</v>
+      </c>
+      <c r="F297" t="n">
+        <v>80</v>
+      </c>
+      <c r="G297" t="n">
+        <v>188</v>
+      </c>
+      <c r="H297" t="n">
+        <v>-108</v>
+      </c>
+      <c r="I297" t="n">
+        <v>3281</v>
+      </c>
+      <c r="J297" t="n">
+        <v>5119</v>
+      </c>
+      <c r="K297" t="n">
+        <v>-1838</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" s="2" t="n">
+        <v>44929.37078449074</v>
+      </c>
+      <c r="C298" t="n">
+        <v>4360</v>
+      </c>
+      <c r="D298" t="n">
+        <v>3807</v>
+      </c>
+      <c r="E298" t="n">
+        <v>553</v>
+      </c>
+      <c r="F298" t="n">
+        <v>105</v>
+      </c>
+      <c r="G298" t="n">
+        <v>120</v>
+      </c>
+      <c r="H298" t="n">
+        <v>-15</v>
+      </c>
+      <c r="I298" t="n">
+        <v>3315</v>
+      </c>
+      <c r="J298" t="n">
+        <v>5065</v>
+      </c>
+      <c r="K298" t="n">
+        <v>-1750</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" s="2" t="n">
+        <v>44930.43449021991</v>
+      </c>
+      <c r="C299" t="n">
+        <v>6403</v>
+      </c>
+      <c r="D299" t="n">
+        <v>1752</v>
+      </c>
+      <c r="E299" t="n">
+        <v>4651</v>
+      </c>
+      <c r="F299" t="n">
+        <v>89</v>
+      </c>
+      <c r="G299" t="n">
+        <v>68</v>
+      </c>
+      <c r="H299" t="n">
+        <v>21</v>
+      </c>
+      <c r="I299" t="n">
+        <v>3950</v>
+      </c>
+      <c r="J299" t="n">
+        <v>4430</v>
+      </c>
+      <c r="K299" t="n">
+        <v>-480</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" s="2" t="n">
+        <v>44931.40088179398</v>
+      </c>
+      <c r="C300" t="n">
+        <v>2671</v>
+      </c>
+      <c r="D300" t="n">
+        <v>5441</v>
+      </c>
+      <c r="E300" t="n">
+        <v>-2770</v>
+      </c>
+      <c r="F300" t="n">
+        <v>82</v>
+      </c>
+      <c r="G300" t="n">
+        <v>126</v>
+      </c>
+      <c r="H300" t="n">
+        <v>-44</v>
+      </c>
+      <c r="I300" t="n">
+        <v>3534</v>
+      </c>
+      <c r="J300" t="n">
+        <v>4847</v>
+      </c>
+      <c r="K300" t="n">
+        <v>-1313</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" s="2" t="n">
+        <v>44932.37328329861</v>
+      </c>
+      <c r="C301" t="n">
+        <v>6691</v>
+      </c>
+      <c r="D301" t="n">
+        <v>1463</v>
+      </c>
+      <c r="E301" t="n">
+        <v>5228</v>
+      </c>
+      <c r="F301" t="n">
+        <v>150</v>
+      </c>
+      <c r="G301" t="n">
+        <v>122</v>
+      </c>
+      <c r="H301" t="n">
+        <v>28</v>
+      </c>
+      <c r="I301" t="n">
+        <v>4611</v>
+      </c>
+      <c r="J301" t="n">
+        <v>3770</v>
+      </c>
+      <c r="K301" t="n">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" s="2" t="n">
+        <v>44935.36909591435</v>
+      </c>
+      <c r="C302" t="n">
+        <v>4969</v>
+      </c>
+      <c r="D302" t="n">
+        <v>3130</v>
+      </c>
+      <c r="E302" t="n">
+        <v>1839</v>
+      </c>
+      <c r="F302" t="n">
+        <v>159</v>
+      </c>
+      <c r="G302" t="n">
+        <v>46</v>
+      </c>
+      <c r="H302" t="n">
+        <v>113</v>
+      </c>
+      <c r="I302" t="n">
+        <v>4767</v>
+      </c>
+      <c r="J302" t="n">
+        <v>3597</v>
+      </c>
+      <c r="K302" t="n">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" s="2" t="n">
+        <v>44936.36593826389</v>
+      </c>
+      <c r="C303" t="n">
+        <v>5955</v>
+      </c>
+      <c r="D303" t="n">
+        <v>2128</v>
+      </c>
+      <c r="E303" t="n">
+        <v>3827</v>
+      </c>
+      <c r="F303" t="n">
+        <v>107</v>
+      </c>
+      <c r="G303" t="n">
+        <v>56</v>
+      </c>
+      <c r="H303" t="n">
+        <v>51</v>
+      </c>
+      <c r="I303" t="n">
+        <v>5183</v>
+      </c>
+      <c r="J303" t="n">
+        <v>3181</v>
+      </c>
+      <c r="K303" t="n">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" s="2" t="n">
+        <v>44937.36266925926</v>
+      </c>
+      <c r="C304" t="n">
+        <v>6165</v>
+      </c>
+      <c r="D304" t="n">
+        <v>1950</v>
+      </c>
+      <c r="E304" t="n">
+        <v>4215</v>
+      </c>
+      <c r="F304" t="n">
+        <v>148</v>
+      </c>
+      <c r="G304" t="n">
+        <v>39</v>
+      </c>
+      <c r="H304" t="n">
+        <v>109</v>
+      </c>
+      <c r="I304" t="n">
+        <v>5724</v>
+      </c>
+      <c r="J304" t="n">
+        <v>2640</v>
+      </c>
+      <c r="K304" t="n">
+        <v>3084</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" s="2" t="n">
+        <v>44938.37352486111</v>
+      </c>
+      <c r="C305" t="n">
+        <v>6266</v>
+      </c>
+      <c r="D305" t="n">
+        <v>1849</v>
+      </c>
+      <c r="E305" t="n">
+        <v>4417</v>
+      </c>
+      <c r="F305" t="n">
+        <v>193</v>
+      </c>
+      <c r="G305" t="n">
+        <v>32</v>
+      </c>
+      <c r="H305" t="n">
+        <v>161</v>
+      </c>
+      <c r="I305" t="n">
+        <v>6157</v>
+      </c>
+      <c r="J305" t="n">
+        <v>2207</v>
+      </c>
+      <c r="K305" t="n">
+        <v>3950</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" s="2" t="n">
+        <v>44939.49836071759</v>
+      </c>
+      <c r="C306" t="n">
+        <v>5253</v>
+      </c>
+      <c r="D306" t="n">
+        <v>2784</v>
+      </c>
+      <c r="E306" t="n">
+        <v>2469</v>
+      </c>
+      <c r="F306" t="n">
+        <v>193</v>
+      </c>
+      <c r="G306" t="n">
+        <v>28</v>
+      </c>
+      <c r="H306" t="n">
+        <v>165</v>
+      </c>
+      <c r="I306" t="n">
+        <v>6324</v>
+      </c>
+      <c r="J306" t="n">
+        <v>2040</v>
+      </c>
+      <c r="K306" t="n">
+        <v>4284</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" s="2" t="n">
+        <v>44943.530814375</v>
+      </c>
+      <c r="C307" t="n">
+        <v>3871</v>
+      </c>
+      <c r="D307" t="n">
+        <v>4213</v>
+      </c>
+      <c r="E307" t="n">
+        <v>-342</v>
+      </c>
+      <c r="F307" t="n">
+        <v>193</v>
+      </c>
+      <c r="G307" t="n">
+        <v>26</v>
+      </c>
+      <c r="H307" t="n">
+        <v>167</v>
+      </c>
+      <c r="I307" t="n">
+        <v>6370</v>
+      </c>
+      <c r="J307" t="n">
+        <v>1995</v>
+      </c>
+      <c r="K307" t="n">
+        <v>4375</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" s="2" t="n">
+        <v>44944.3479557176</v>
+      </c>
+      <c r="C308" t="n">
+        <v>2092</v>
+      </c>
+      <c r="D308" t="n">
+        <v>6031</v>
+      </c>
+      <c r="E308" t="n">
+        <v>-3939</v>
+      </c>
+      <c r="F308" t="n">
+        <v>166</v>
+      </c>
+      <c r="G308" t="n">
+        <v>41</v>
+      </c>
+      <c r="H308" t="n">
+        <v>125</v>
+      </c>
+      <c r="I308" t="n">
+        <v>5775</v>
+      </c>
+      <c r="J308" t="n">
+        <v>2590</v>
+      </c>
+      <c r="K308" t="n">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" s="2" t="n">
+        <v>44945.5226655787</v>
+      </c>
+      <c r="C309" t="n">
+        <v>2761</v>
+      </c>
+      <c r="D309" t="n">
+        <v>5301</v>
+      </c>
+      <c r="E309" t="n">
+        <v>-2540</v>
+      </c>
+      <c r="F309" t="n">
+        <v>45</v>
+      </c>
+      <c r="G309" t="n">
+        <v>57</v>
+      </c>
+      <c r="H309" t="n">
+        <v>-12</v>
+      </c>
+      <c r="I309" t="n">
+        <v>5315</v>
+      </c>
+      <c r="J309" t="n">
+        <v>3050</v>
+      </c>
+      <c r="K309" t="n">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" s="2" t="n">
+        <v>44946.37643197917</v>
+      </c>
+      <c r="C310" t="n">
+        <v>6410</v>
+      </c>
+      <c r="D310" t="n">
+        <v>1693</v>
+      </c>
+      <c r="E310" t="n">
+        <v>4717</v>
+      </c>
+      <c r="F310" t="n">
+        <v>83</v>
+      </c>
+      <c r="G310" t="n">
+        <v>41</v>
+      </c>
+      <c r="H310" t="n">
+        <v>42</v>
+      </c>
+      <c r="I310" t="n">
+        <v>6052</v>
+      </c>
+      <c r="J310" t="n">
+        <v>2313</v>
+      </c>
+      <c r="K310" t="n">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" s="2" t="n">
+        <v>44949.3749130787</v>
+      </c>
+      <c r="C311" t="n">
+        <v>5640</v>
+      </c>
+      <c r="D311" t="n">
+        <v>2431</v>
+      </c>
+      <c r="E311" t="n">
+        <v>3209</v>
+      </c>
+      <c r="F311" t="n">
+        <v>153</v>
+      </c>
+      <c r="G311" t="n">
+        <v>39</v>
+      </c>
+      <c r="H311" t="n">
+        <v>114</v>
+      </c>
+      <c r="I311" t="n">
+        <v>6282</v>
+      </c>
+      <c r="J311" t="n">
+        <v>2070</v>
+      </c>
+      <c r="K311" t="n">
+        <v>4212</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" s="2" t="n">
+        <v>44950.32978827546</v>
+      </c>
+      <c r="C312" t="n">
+        <v>3625</v>
+      </c>
+      <c r="D312" t="n">
+        <v>4395</v>
+      </c>
+      <c r="E312" t="n">
+        <v>-770</v>
+      </c>
+      <c r="F312" t="n">
+        <v>164</v>
+      </c>
+      <c r="G312" t="n">
+        <v>59</v>
+      </c>
+      <c r="H312" t="n">
+        <v>105</v>
+      </c>
+      <c r="I312" t="n">
+        <v>6259</v>
+      </c>
+      <c r="J312" t="n">
+        <v>2093</v>
+      </c>
+      <c r="K312" t="n">
+        <v>4166</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" s="2" t="n">
+        <v>44951.40765309027</v>
+      </c>
+      <c r="C313" t="n">
+        <v>4506</v>
+      </c>
+      <c r="D313" t="n">
+        <v>3507</v>
+      </c>
+      <c r="E313" t="n">
+        <v>999</v>
+      </c>
+      <c r="F313" t="n">
+        <v>111</v>
+      </c>
+      <c r="G313" t="n">
+        <v>53</v>
+      </c>
+      <c r="H313" t="n">
+        <v>58</v>
+      </c>
+      <c r="I313" t="n">
+        <v>6280</v>
+      </c>
+      <c r="J313" t="n">
+        <v>2073</v>
+      </c>
+      <c r="K313" t="n">
+        <v>4207</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" s="2" t="n">
+        <v>44952.37386807871</v>
+      </c>
+      <c r="C314" t="n">
+        <v>5336</v>
+      </c>
+      <c r="D314" t="n">
+        <v>2721</v>
+      </c>
+      <c r="E314" t="n">
+        <v>2615</v>
+      </c>
+      <c r="F314" t="n">
+        <v>208</v>
+      </c>
+      <c r="G314" t="n">
+        <v>73</v>
+      </c>
+      <c r="H314" t="n">
+        <v>135</v>
+      </c>
+      <c r="I314" t="n">
+        <v>6420</v>
+      </c>
+      <c r="J314" t="n">
+        <v>1933</v>
+      </c>
+      <c r="K314" t="n">
+        <v>4487</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" s="2" t="n">
+        <v>44953.35361650463</v>
+      </c>
+      <c r="C315" t="n">
+        <v>4460</v>
+      </c>
+      <c r="D315" t="n">
+        <v>3576</v>
+      </c>
+      <c r="E315" t="n">
+        <v>884</v>
+      </c>
+      <c r="F315" t="n">
+        <v>201</v>
+      </c>
+      <c r="G315" t="n">
+        <v>61</v>
+      </c>
+      <c r="H315" t="n">
+        <v>140</v>
+      </c>
+      <c r="I315" t="n">
+        <v>6468</v>
+      </c>
+      <c r="J315" t="n">
+        <v>1885</v>
+      </c>
+      <c r="K315" t="n">
+        <v>4583</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" s="2" t="n">
+        <v>44956.33301561343</v>
+      </c>
+      <c r="C316" t="n">
+        <v>1905</v>
+      </c>
+      <c r="D316" t="n">
+        <v>6196</v>
+      </c>
+      <c r="E316" t="n">
+        <v>-4291</v>
+      </c>
+      <c r="F316" t="n">
+        <v>89</v>
+      </c>
+      <c r="G316" t="n">
+        <v>30</v>
+      </c>
+      <c r="H316" t="n">
+        <v>59</v>
+      </c>
+      <c r="I316" t="n">
+        <v>6178</v>
+      </c>
+      <c r="J316" t="n">
+        <v>2173</v>
+      </c>
+      <c r="K316" t="n">
+        <v>4005</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" s="2" t="n">
+        <v>44957.36684998842</v>
+      </c>
+      <c r="C317" t="n">
+        <v>6772</v>
+      </c>
+      <c r="D317" t="n">
+        <v>1328</v>
+      </c>
+      <c r="E317" t="n">
+        <v>5444</v>
+      </c>
+      <c r="F317" t="n">
+        <v>174</v>
+      </c>
+      <c r="G317" t="n">
+        <v>41</v>
+      </c>
+      <c r="H317" t="n">
+        <v>133</v>
+      </c>
+      <c r="I317" t="n">
+        <v>6615</v>
+      </c>
+      <c r="J317" t="n">
+        <v>1736</v>
+      </c>
+      <c r="K317" t="n">
+        <v>4879</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" s="2" t="n">
+        <v>44958.36326158565</v>
+      </c>
+      <c r="C318" t="n">
+        <v>5961</v>
+      </c>
+      <c r="D318" t="n">
+        <v>2106</v>
+      </c>
+      <c r="E318" t="n">
+        <v>3855</v>
+      </c>
+      <c r="F318" t="n">
+        <v>353</v>
+      </c>
+      <c r="G318" t="n">
+        <v>64</v>
+      </c>
+      <c r="H318" t="n">
+        <v>289</v>
+      </c>
+      <c r="I318" t="n">
+        <v>6735</v>
+      </c>
+      <c r="J318" t="n">
+        <v>1616</v>
+      </c>
+      <c r="K318" t="n">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" s="2" t="n">
+        <v>44959.55342193287</v>
+      </c>
+      <c r="C319" t="n">
+        <v>5687</v>
+      </c>
+      <c r="D319" t="n">
+        <v>2408</v>
+      </c>
+      <c r="E319" t="n">
+        <v>3279</v>
+      </c>
+      <c r="F319" t="n">
+        <v>425</v>
+      </c>
+      <c r="G319" t="n">
+        <v>57</v>
+      </c>
+      <c r="H319" t="n">
+        <v>368</v>
+      </c>
+      <c r="I319" t="n">
+        <v>6875</v>
+      </c>
+      <c r="J319" t="n">
+        <v>1478</v>
+      </c>
+      <c r="K319" t="n">
+        <v>5397</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" s="2" t="n">
+        <v>44960.36390153935</v>
+      </c>
+      <c r="C320" t="n">
+        <v>2232</v>
+      </c>
+      <c r="D320" t="n">
+        <v>5867</v>
+      </c>
+      <c r="E320" t="n">
+        <v>-3635</v>
+      </c>
+      <c r="F320" t="n">
+        <v>243</v>
+      </c>
+      <c r="G320" t="n">
+        <v>30</v>
+      </c>
+      <c r="H320" t="n">
+        <v>213</v>
+      </c>
+      <c r="I320" t="n">
+        <v>6686</v>
+      </c>
+      <c r="J320" t="n">
+        <v>1667</v>
+      </c>
+      <c r="K320" t="n">
+        <v>5019</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" s="2" t="n">
+        <v>44963.42469516204</v>
+      </c>
+      <c r="C321" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D321" t="n">
+        <v>6091</v>
+      </c>
+      <c r="E321" t="n">
+        <v>-4091</v>
+      </c>
+      <c r="F321" t="n">
+        <v>104</v>
+      </c>
+      <c r="G321" t="n">
+        <v>39</v>
+      </c>
+      <c r="H321" t="n">
+        <v>65</v>
+      </c>
+      <c r="I321" t="n">
+        <v>6478</v>
+      </c>
+      <c r="J321" t="n">
+        <v>1867</v>
+      </c>
+      <c r="K321" t="n">
+        <v>4611</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" s="2" t="n">
+        <v>44964.35711634259</v>
+      </c>
+      <c r="C322" t="n">
+        <v>5340</v>
+      </c>
+      <c r="D322" t="n">
+        <v>2724</v>
+      </c>
+      <c r="E322" t="n">
+        <v>2616</v>
+      </c>
+      <c r="F322" t="n">
+        <v>149</v>
+      </c>
+      <c r="G322" t="n">
+        <v>45</v>
+      </c>
+      <c r="H322" t="n">
+        <v>104</v>
+      </c>
+      <c r="I322" t="n">
+        <v>6574</v>
+      </c>
+      <c r="J322" t="n">
+        <v>1771</v>
+      </c>
+      <c r="K322" t="n">
+        <v>4803</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" s="2" t="n">
+        <v>44965.34699126158</v>
+      </c>
+      <c r="C323" t="n">
+        <v>2045</v>
+      </c>
+      <c r="D323" t="n">
+        <v>6015</v>
+      </c>
+      <c r="E323" t="n">
+        <v>-3970</v>
+      </c>
+      <c r="F323" t="n">
+        <v>126</v>
+      </c>
+      <c r="G323" t="n">
+        <v>49</v>
+      </c>
+      <c r="H323" t="n">
+        <v>77</v>
+      </c>
+      <c r="I323" t="n">
+        <v>6342</v>
+      </c>
+      <c r="J323" t="n">
+        <v>2003</v>
+      </c>
+      <c r="K323" t="n">
+        <v>4339</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" s="2" t="n">
+        <v>44966.38930519676</v>
+      </c>
+      <c r="C324" t="n">
+        <v>1904</v>
+      </c>
+      <c r="D324" t="n">
+        <v>6177</v>
+      </c>
+      <c r="E324" t="n">
+        <v>-4273</v>
+      </c>
+      <c r="F324" t="n">
+        <v>139</v>
+      </c>
+      <c r="G324" t="n">
+        <v>75</v>
+      </c>
+      <c r="H324" t="n">
+        <v>64</v>
+      </c>
+      <c r="I324" t="n">
+        <v>5832</v>
+      </c>
+      <c r="J324" t="n">
+        <v>2513</v>
+      </c>
+      <c r="K324" t="n">
+        <v>3319</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" s="2" t="n">
+        <v>44967.37021333334</v>
+      </c>
+      <c r="C325" t="n">
+        <v>3813</v>
+      </c>
+      <c r="D325" t="n">
+        <v>4211</v>
+      </c>
+      <c r="E325" t="n">
+        <v>-398</v>
+      </c>
+      <c r="F325" t="n">
+        <v>63</v>
+      </c>
+      <c r="G325" t="n">
+        <v>79</v>
+      </c>
+      <c r="H325" t="n">
+        <v>-16</v>
+      </c>
+      <c r="I325" t="n">
+        <v>5852</v>
+      </c>
+      <c r="J325" t="n">
+        <v>2493</v>
+      </c>
+      <c r="K325" t="n">
+        <v>3359</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" s="2" t="n">
+        <v>44970.37435702547</v>
+      </c>
+      <c r="C326" t="n">
+        <v>5763</v>
+      </c>
+      <c r="D326" t="n">
+        <v>2289</v>
+      </c>
+      <c r="E326" t="n">
+        <v>3474</v>
+      </c>
+      <c r="F326" t="n">
+        <v>129</v>
+      </c>
+      <c r="G326" t="n">
+        <v>75</v>
+      </c>
+      <c r="H326" t="n">
+        <v>54</v>
+      </c>
+      <c r="I326" t="n">
+        <v>6055</v>
+      </c>
+      <c r="J326" t="n">
+        <v>2274</v>
+      </c>
+      <c r="K326" t="n">
+        <v>3781</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" s="2" t="n">
+        <v>44971.56666315972</v>
+      </c>
+      <c r="C327" t="n">
+        <v>3703</v>
+      </c>
+      <c r="D327" t="n">
+        <v>4285</v>
+      </c>
+      <c r="E327" t="n">
+        <v>-582</v>
+      </c>
+      <c r="F327" t="n">
+        <v>154</v>
+      </c>
+      <c r="G327" t="n">
+        <v>88</v>
+      </c>
+      <c r="H327" t="n">
+        <v>66</v>
+      </c>
+      <c r="I327" t="n">
+        <v>5913</v>
+      </c>
+      <c r="J327" t="n">
+        <v>2416</v>
+      </c>
+      <c r="K327" t="n">
+        <v>3497</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" s="2" t="n">
+        <v>44972.5675797338</v>
+      </c>
+      <c r="C328" t="n">
+        <v>4895</v>
+      </c>
+      <c r="D328" t="n">
+        <v>3170</v>
+      </c>
+      <c r="E328" t="n">
+        <v>1725</v>
+      </c>
+      <c r="F328" t="n">
+        <v>148</v>
+      </c>
+      <c r="G328" t="n">
+        <v>68</v>
+      </c>
+      <c r="H328" t="n">
+        <v>80</v>
+      </c>
+      <c r="I328" t="n">
+        <v>5939</v>
+      </c>
+      <c r="J328" t="n">
+        <v>2390</v>
+      </c>
+      <c r="K328" t="n">
+        <v>3549</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" s="2" t="n">
+        <v>44973.35492555556</v>
+      </c>
+      <c r="C329" t="n">
+        <v>2075</v>
+      </c>
+      <c r="D329" t="n">
+        <v>5977</v>
+      </c>
+      <c r="E329" t="n">
+        <v>-3902</v>
+      </c>
+      <c r="F329" t="n">
+        <v>152</v>
+      </c>
+      <c r="G329" t="n">
+        <v>65</v>
+      </c>
+      <c r="H329" t="n">
+        <v>87</v>
+      </c>
+      <c r="I329" t="n">
+        <v>5625</v>
+      </c>
+      <c r="J329" t="n">
+        <v>2704</v>
+      </c>
+      <c r="K329" t="n">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" s="2" t="n">
+        <v>44974.3683675</v>
+      </c>
+      <c r="C330" t="n">
+        <v>3749</v>
+      </c>
+      <c r="D330" t="n">
+        <v>4273</v>
+      </c>
+      <c r="E330" t="n">
+        <v>-524</v>
+      </c>
+      <c r="F330" t="n">
+        <v>121</v>
+      </c>
+      <c r="G330" t="n">
+        <v>84</v>
+      </c>
+      <c r="H330" t="n">
+        <v>37</v>
+      </c>
+      <c r="I330" t="n">
+        <v>5560</v>
+      </c>
+      <c r="J330" t="n">
+        <v>2769</v>
+      </c>
+      <c r="K330" t="n">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" s="2" t="n">
+        <v>44978.59010974537</v>
+      </c>
+      <c r="C331" t="n">
+        <v>1016</v>
+      </c>
+      <c r="D331" t="n">
+        <v>7148</v>
+      </c>
+      <c r="E331" t="n">
+        <v>-6132</v>
+      </c>
+      <c r="F331" t="n">
+        <v>67</v>
+      </c>
+      <c r="G331" t="n">
+        <v>166</v>
+      </c>
+      <c r="H331" t="n">
+        <v>-99</v>
+      </c>
+      <c r="I331" t="n">
+        <v>4479</v>
+      </c>
+      <c r="J331" t="n">
+        <v>3860</v>
+      </c>
+      <c r="K331" t="n">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" s="2" t="n">
+        <v>44979.33655959491</v>
+      </c>
+      <c r="C332" t="n">
+        <v>3625</v>
+      </c>
+      <c r="D332" t="n">
+        <v>4384</v>
+      </c>
+      <c r="E332" t="n">
+        <v>-759</v>
+      </c>
+      <c r="F332" t="n">
+        <v>45</v>
+      </c>
+      <c r="G332" t="n">
+        <v>164</v>
+      </c>
+      <c r="H332" t="n">
+        <v>-119</v>
+      </c>
+      <c r="I332" t="n">
+        <v>4372</v>
+      </c>
+      <c r="J332" t="n">
+        <v>3963</v>
+      </c>
+      <c r="K332" t="n">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" s="2" t="n">
+        <v>44980.37016956018</v>
+      </c>
+      <c r="C333" t="n">
+        <v>5204</v>
+      </c>
+      <c r="D333" t="n">
+        <v>2838</v>
+      </c>
+      <c r="E333" t="n">
+        <v>2366</v>
+      </c>
+      <c r="F333" t="n">
+        <v>82</v>
+      </c>
+      <c r="G333" t="n">
+        <v>167</v>
+      </c>
+      <c r="H333" t="n">
+        <v>-85</v>
+      </c>
+      <c r="I333" t="n">
+        <v>4577</v>
+      </c>
+      <c r="J333" t="n">
+        <v>3758</v>
+      </c>
+      <c r="K333" t="n">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" s="2" t="n">
+        <v>44981.37824516204</v>
+      </c>
+      <c r="C334" t="n">
+        <v>1657</v>
+      </c>
+      <c r="D334" t="n">
+        <v>6441</v>
+      </c>
+      <c r="E334" t="n">
+        <v>-4784</v>
+      </c>
+      <c r="F334" t="n">
+        <v>63</v>
+      </c>
+      <c r="G334" t="n">
+        <v>235</v>
+      </c>
+      <c r="H334" t="n">
+        <v>-172</v>
+      </c>
+      <c r="I334" t="n">
+        <v>3843</v>
+      </c>
+      <c r="J334" t="n">
+        <v>4492</v>
+      </c>
+      <c r="K334" t="n">
+        <v>-649</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" s="2" t="n">
+        <v>44984.40467454861</v>
+      </c>
+      <c r="C335" t="n">
+        <v>5089</v>
+      </c>
+      <c r="D335" t="n">
+        <v>2977</v>
+      </c>
+      <c r="E335" t="n">
+        <v>2112</v>
+      </c>
+      <c r="F335" t="n">
+        <v>116</v>
+      </c>
+      <c r="G335" t="n">
+        <v>128</v>
+      </c>
+      <c r="H335" t="n">
+        <v>-12</v>
+      </c>
+      <c r="I335" t="n">
+        <v>4019</v>
+      </c>
+      <c r="J335" t="n">
+        <v>4306</v>
+      </c>
+      <c r="K335" t="n">
+        <v>-287</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" s="2" t="n">
+        <v>44985.36683618055</v>
+      </c>
+      <c r="C336" t="n">
+        <v>3569</v>
+      </c>
+      <c r="D336" t="n">
+        <v>4400</v>
+      </c>
+      <c r="E336" t="n">
+        <v>-831</v>
+      </c>
+      <c r="F336" t="n">
+        <v>128</v>
+      </c>
+      <c r="G336" t="n">
+        <v>132</v>
+      </c>
+      <c r="H336" t="n">
+        <v>-4</v>
+      </c>
+      <c r="I336" t="n">
+        <v>3924</v>
+      </c>
+      <c r="J336" t="n">
+        <v>4401</v>
+      </c>
+      <c r="K336" t="n">
+        <v>-477</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" s="2" t="n">
+        <v>44986.42236503472</v>
+      </c>
+      <c r="C337" t="n">
+        <v>3578</v>
+      </c>
+      <c r="D337" t="n">
+        <v>4458</v>
+      </c>
+      <c r="E337" t="n">
+        <v>-880</v>
+      </c>
+      <c r="F337" t="n">
+        <v>135</v>
+      </c>
+      <c r="G337" t="n">
+        <v>179</v>
+      </c>
+      <c r="H337" t="n">
+        <v>-44</v>
+      </c>
+      <c r="I337" t="n">
+        <v>3797</v>
+      </c>
+      <c r="J337" t="n">
+        <v>4528</v>
+      </c>
+      <c r="K337" t="n">
+        <v>-731</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" s="2" t="n">
+        <v>44987.38845806713</v>
+      </c>
+      <c r="C338" t="n">
+        <v>4750</v>
+      </c>
+      <c r="D338" t="n">
+        <v>3293</v>
+      </c>
+      <c r="E338" t="n">
+        <v>1457</v>
+      </c>
+      <c r="F338" t="n">
+        <v>130</v>
+      </c>
+      <c r="G338" t="n">
+        <v>217</v>
+      </c>
+      <c r="H338" t="n">
+        <v>-87</v>
+      </c>
+      <c r="I338" t="n">
+        <v>3964</v>
+      </c>
+      <c r="J338" t="n">
+        <v>4361</v>
+      </c>
+      <c r="K338" t="n">
+        <v>-397</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" s="2" t="n">
+        <v>44988.37174038195</v>
+      </c>
+      <c r="C339" t="n">
+        <v>6465</v>
+      </c>
+      <c r="D339" t="n">
+        <v>1586</v>
+      </c>
+      <c r="E339" t="n">
+        <v>4879</v>
+      </c>
+      <c r="F339" t="n">
+        <v>212</v>
+      </c>
+      <c r="G339" t="n">
+        <v>77</v>
+      </c>
+      <c r="H339" t="n">
+        <v>135</v>
+      </c>
+      <c r="I339" t="n">
+        <v>4574</v>
+      </c>
+      <c r="J339" t="n">
+        <v>3751</v>
+      </c>
+      <c r="K339" t="n">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" s="2" t="n">
+        <v>44991.38512798611</v>
+      </c>
+      <c r="C340" t="n">
+        <v>2438</v>
+      </c>
+      <c r="D340" t="n">
+        <v>5608</v>
+      </c>
+      <c r="E340" t="n">
+        <v>-3170</v>
+      </c>
+      <c r="F340" t="n">
+        <v>165</v>
+      </c>
+      <c r="G340" t="n">
+        <v>114</v>
+      </c>
+      <c r="H340" t="n">
+        <v>51</v>
+      </c>
+      <c r="I340" t="n">
+        <v>4220</v>
+      </c>
+      <c r="J340" t="n">
+        <v>4099</v>
+      </c>
+      <c r="K340" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" s="2" t="n">
+        <v>44992.41701260416</v>
+      </c>
+      <c r="C341" t="n">
+        <v>1771</v>
+      </c>
+      <c r="D341" t="n">
+        <v>6266</v>
+      </c>
+      <c r="E341" t="n">
+        <v>-4495</v>
+      </c>
+      <c r="F341" t="n">
+        <v>87</v>
+      </c>
+      <c r="G341" t="n">
+        <v>198</v>
+      </c>
+      <c r="H341" t="n">
+        <v>-111</v>
+      </c>
+      <c r="I341" t="n">
+        <v>3407</v>
+      </c>
+      <c r="J341" t="n">
+        <v>4912</v>
+      </c>
+      <c r="K341" t="n">
+        <v>-1505</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" s="2" t="n">
+        <v>44993.39077967592</v>
+      </c>
+      <c r="C342" t="n">
+        <v>4099</v>
+      </c>
+      <c r="D342" t="n">
+        <v>3893</v>
+      </c>
+      <c r="E342" t="n">
+        <v>206</v>
+      </c>
+      <c r="F342" t="n">
+        <v>69</v>
+      </c>
+      <c r="G342" t="n">
+        <v>249</v>
+      </c>
+      <c r="H342" t="n">
+        <v>-180</v>
+      </c>
+      <c r="I342" t="n">
+        <v>3384</v>
+      </c>
+      <c r="J342" t="n">
+        <v>4935</v>
+      </c>
+      <c r="K342" t="n">
+        <v>-1551</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" s="2" t="n">
+        <v>44994.45762789352</v>
+      </c>
+      <c r="C343" t="n">
+        <v>1261</v>
+      </c>
+      <c r="D343" t="n">
+        <v>6839</v>
+      </c>
+      <c r="E343" t="n">
+        <v>-5578</v>
+      </c>
+      <c r="F343" t="n">
+        <v>84</v>
+      </c>
+      <c r="G343" t="n">
+        <v>424</v>
+      </c>
+      <c r="H343" t="n">
+        <v>-340</v>
+      </c>
+      <c r="I343" t="n">
+        <v>2374</v>
+      </c>
+      <c r="J343" t="n">
+        <v>5945</v>
+      </c>
+      <c r="K343" t="n">
+        <v>-3571</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" s="2" t="n">
+        <v>44995.42476026621</v>
+      </c>
+      <c r="C344" t="n">
+        <v>1359</v>
+      </c>
+      <c r="D344" t="n">
+        <v>6729</v>
+      </c>
+      <c r="E344" t="n">
+        <v>-5370</v>
+      </c>
+      <c r="F344" t="n">
+        <v>31</v>
+      </c>
+      <c r="G344" t="n">
+        <v>737</v>
+      </c>
+      <c r="H344" t="n">
+        <v>-706</v>
+      </c>
+      <c r="I344" t="n">
+        <v>1743</v>
+      </c>
+      <c r="J344" t="n">
+        <v>6576</v>
+      </c>
+      <c r="K344" t="n">
+        <v>-4833</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" s="2" t="n">
+        <v>44998.48053679398</v>
+      </c>
+      <c r="C345" t="n">
+        <v>2888</v>
+      </c>
+      <c r="D345" t="n">
+        <v>5201</v>
+      </c>
+      <c r="E345" t="n">
+        <v>-2313</v>
+      </c>
+      <c r="F345" t="n">
+        <v>23</v>
+      </c>
+      <c r="G345" t="n">
+        <v>879</v>
+      </c>
+      <c r="H345" t="n">
+        <v>-856</v>
+      </c>
+      <c r="I345" t="n">
+        <v>1652</v>
+      </c>
+      <c r="J345" t="n">
+        <v>6659</v>
+      </c>
+      <c r="K345" t="n">
+        <v>-5007</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" s="2" t="n">
+        <v>44999.36855047454</v>
+      </c>
+      <c r="C346" t="n">
+        <v>5634</v>
+      </c>
+      <c r="D346" t="n">
+        <v>2436</v>
+      </c>
+      <c r="E346" t="n">
+        <v>3198</v>
+      </c>
+      <c r="F346" t="n">
+        <v>30</v>
+      </c>
+      <c r="G346" t="n">
+        <v>292</v>
+      </c>
+      <c r="H346" t="n">
+        <v>-262</v>
+      </c>
+      <c r="I346" t="n">
+        <v>1856</v>
+      </c>
+      <c r="J346" t="n">
+        <v>6455</v>
+      </c>
+      <c r="K346" t="n">
+        <v>-4599</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" s="2" t="n">
+        <v>45000.37983413194</v>
+      </c>
+      <c r="C347" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D347" t="n">
+        <v>6032</v>
+      </c>
+      <c r="E347" t="n">
+        <v>-4013</v>
+      </c>
+      <c r="F347" t="n">
+        <v>24</v>
+      </c>
+      <c r="G347" t="n">
+        <v>701</v>
+      </c>
+      <c r="H347" t="n">
+        <v>-677</v>
+      </c>
+      <c r="I347" t="n">
+        <v>1603</v>
+      </c>
+      <c r="J347" t="n">
+        <v>6708</v>
+      </c>
+      <c r="K347" t="n">
+        <v>-5105</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" s="2" t="n">
+        <v>45001.47494844907</v>
+      </c>
+      <c r="C348" t="n">
+        <v>5825</v>
+      </c>
+      <c r="D348" t="n">
+        <v>2189</v>
+      </c>
+      <c r="E348" t="n">
+        <v>3636</v>
+      </c>
+      <c r="F348" t="n">
+        <v>44</v>
+      </c>
+      <c r="G348" t="n">
+        <v>441</v>
+      </c>
+      <c r="H348" t="n">
+        <v>-397</v>
+      </c>
+      <c r="I348" t="n">
+        <v>1843</v>
+      </c>
+      <c r="J348" t="n">
+        <v>6468</v>
+      </c>
+      <c r="K348" t="n">
+        <v>-4625</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" s="2" t="n">
+        <v>45002.50202853327</v>
+      </c>
+      <c r="C349" t="n">
+        <v>1688</v>
+      </c>
+      <c r="D349" t="n">
+        <v>6368</v>
+      </c>
+      <c r="E349" t="n">
+        <v>-4680</v>
+      </c>
+      <c r="F349" t="n">
+        <v>34</v>
+      </c>
+      <c r="G349" t="n">
+        <v>501</v>
+      </c>
+      <c r="H349" t="n">
+        <v>-467</v>
+      </c>
+      <c r="I349" t="n">
+        <v>1692</v>
+      </c>
+      <c r="J349" t="n">
+        <v>6619</v>
+      </c>
+      <c r="K349" t="n">
+        <v>-4927</v>
       </c>
     </row>
   </sheetData>

--- a/Data/marketmomentum.xlsx
+++ b/Data/marketmomentum.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K349"/>
+  <dimension ref="A1:K352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12639,7 +12639,7 @@
         <v>347</v>
       </c>
       <c r="B349" s="2" t="n">
-        <v>45002.50202853327</v>
+        <v>45002.50202853009</v>
       </c>
       <c r="C349" t="n">
         <v>1688</v>
@@ -12667,6 +12667,111 @@
       </c>
       <c r="K349" t="n">
         <v>-4927</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" s="2" t="n">
+        <v>45005.36591623843</v>
+      </c>
+      <c r="C350" t="n">
+        <v>4897</v>
+      </c>
+      <c r="D350" t="n">
+        <v>3151</v>
+      </c>
+      <c r="E350" t="n">
+        <v>1746</v>
+      </c>
+      <c r="F350" t="n">
+        <v>33</v>
+      </c>
+      <c r="G350" t="n">
+        <v>405</v>
+      </c>
+      <c r="H350" t="n">
+        <v>-372</v>
+      </c>
+      <c r="I350" t="n">
+        <v>1711</v>
+      </c>
+      <c r="J350" t="n">
+        <v>6581</v>
+      </c>
+      <c r="K350" t="n">
+        <v>-4870</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" s="2" t="n">
+        <v>45006.4722433912</v>
+      </c>
+      <c r="C351" t="n">
+        <v>6191</v>
+      </c>
+      <c r="D351" t="n">
+        <v>1872</v>
+      </c>
+      <c r="E351" t="n">
+        <v>4319</v>
+      </c>
+      <c r="F351" t="n">
+        <v>54</v>
+      </c>
+      <c r="G351" t="n">
+        <v>159</v>
+      </c>
+      <c r="H351" t="n">
+        <v>-105</v>
+      </c>
+      <c r="I351" t="n">
+        <v>1943</v>
+      </c>
+      <c r="J351" t="n">
+        <v>6349</v>
+      </c>
+      <c r="K351" t="n">
+        <v>-4406</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" s="2" t="n">
+        <v>45007.47336266807</v>
+      </c>
+      <c r="C352" t="n">
+        <v>1929</v>
+      </c>
+      <c r="D352" t="n">
+        <v>6100</v>
+      </c>
+      <c r="E352" t="n">
+        <v>-4171</v>
+      </c>
+      <c r="F352" t="n">
+        <v>59</v>
+      </c>
+      <c r="G352" t="n">
+        <v>282</v>
+      </c>
+      <c r="H352" t="n">
+        <v>-223</v>
+      </c>
+      <c r="I352" t="n">
+        <v>1698</v>
+      </c>
+      <c r="J352" t="n">
+        <v>6594</v>
+      </c>
+      <c r="K352" t="n">
+        <v>-4896</v>
       </c>
     </row>
   </sheetData>
